--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11500"/>
+    <workbookView windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>ID</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Id</t>
   </si>
   <si>
-    <t>剧情引导</t>
+    <t>剧情引导（讲武堂）</t>
   </si>
   <si>
     <t>DialogTrigger1</t>
@@ -72,13 +72,16 @@
     <t>DialogCommand:StoryPanel_Text_5;MyDelayCommand:0.2;</t>
   </si>
   <si>
+    <t>门派起名</t>
+  </si>
+  <si>
     <t>TakeNameTrigger</t>
   </si>
   <si>
     <t>TakeNameCommand;MyDelayCommand:0.2;</t>
   </si>
   <si>
-    <t>测试引导</t>
+    <t>剧情引导（建造屋舍）</t>
   </si>
   <si>
     <t>DialogTrigger2</t>
@@ -87,13 +90,16 @@
     <t>DialogCommand:StoryPanel_Text_6;MyDelayCommand:0.2;</t>
   </si>
   <si>
-    <t>引导使用锤子</t>
+    <t>建造屋舍</t>
   </si>
   <si>
     <t>BuildFacilityTrigger1</t>
   </si>
   <si>
     <t>GuideClickWorldCommand:99.5|36.1,216.5|36.1,8.8|1.55,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>打开建造屋舍界面</t>
   </si>
   <si>
     <t>BuildFacilityPanelTrigger1</t>
@@ -105,10 +111,16 @@
     <t>UINodeFinder:ConstructionFacilitiesPanel,Bg/AcceptBtn</t>
   </si>
   <si>
+    <t>剧情引导3（招募弟子）</t>
+  </si>
+  <si>
     <t>DialogTrigger3</t>
   </si>
   <si>
     <t>DialogCommand:StoryPanel_Text_7;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>点击进入讲武堂界面</t>
   </si>
   <si>
     <t>ClickLobbyTrigger1</t>
@@ -117,13 +129,166 @@
     <t>GuideClickWorldCommand:-83|47,50.5|40,6.7|1.4,StoryPanel_Text_10;MyDelayCommand:0.2;</t>
   </si>
   <si>
+    <t>点击银牌招募令招募弟子</t>
+  </si>
+  <si>
     <t>LobbyPanelGetCharacterTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_11,0|-240;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_11,-190|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem(Clone)/RecruitmentBtn</t>
+  </si>
+  <si>
+    <t>剧情引导（让弟子去执行任务）</t>
+  </si>
+  <si>
+    <t>DialogTrigger4</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_12;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>点击公告榜按钮</t>
+  </si>
+  <si>
+    <t>ClickTaskBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_13,-190|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,MenuList/BulletinBoardBtn</t>
+  </si>
+  <si>
+    <t>查看任务详情</t>
+  </si>
+  <si>
+    <t>派遣弟子执行任务</t>
+  </si>
+  <si>
+    <t>领取任务奖励</t>
+  </si>
+  <si>
+    <t>金牌招募令</t>
+  </si>
+  <si>
+    <t>点击金牌招募令招募弟子</t>
+  </si>
+  <si>
+    <t>选择弟子执行任务</t>
+  </si>
+  <si>
+    <t>剧情引导（建造伙房）</t>
+  </si>
+  <si>
+    <t>KitchenDialogTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_25,StoryPanel_Text_26;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>建造伙房</t>
+  </si>
+  <si>
+    <t>BuildFacility_KitchenTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickWorldCommand:20|-185,20|-185,1.75|1.54,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>打开建造伙房界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_KitchenTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_19,0|-240;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>出现工作气泡</t>
+  </si>
+  <si>
+    <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>资源上限后建造仓库</t>
+  </si>
+  <si>
+    <t>WarehouseDialogTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_30;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>建造仓库</t>
+  </si>
+  <si>
+    <t>BuildFacility_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickWorldCommand:-232.5|-5.5,-232.5|-5.5,-0.57|1.54,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>打开建造仓库界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>百草屋建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildBaicaohuTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_31;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>练功场建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildPracticeFieldTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_32;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>藏经阁建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildKungfuLibraryTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_33;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>锻造屋建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildForgehouseTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_34;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>伙房第一次升级 烹饪说明</t>
+  </si>
+  <si>
+    <t>FoodBuffTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_35;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>主城升级到3级 收集系统说明</t>
+  </si>
+  <si>
+    <t>CollectSystemTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_36;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>模块</t>
@@ -1473,14 +1638,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD28"/>
+  <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -1603,7 +1768,7 @@
       <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
@@ -17999,12 +18164,14 @@
       <c r="B6" s="20">
         <v>2</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -34393,13 +34560,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="22"/>
     </row>
@@ -34411,13 +34578,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="22"/>
     </row>
@@ -34429,16 +34596,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -34448,11 +34615,14 @@
       <c r="B10" s="21">
         <v>6</v>
       </c>
+      <c r="C10" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -34462,11 +34632,14 @@
       <c r="B11" s="21">
         <v>7</v>
       </c>
+      <c r="C11" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -34476,78 +34649,452 @@
       <c r="B12" s="21">
         <v>8</v>
       </c>
+      <c r="C12" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20">
+        <v>10009</v>
+      </c>
+      <c r="B13" s="21">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="20">
+        <v>10010</v>
+      </c>
+      <c r="B14" s="21">
+        <v>10</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="20">
+        <v>10011</v>
+      </c>
+      <c r="B15" s="21">
+        <v>11</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="20">
+        <v>10012</v>
+      </c>
+      <c r="B16" s="21">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="20">
+        <v>10013</v>
+      </c>
+      <c r="B17" s="21">
+        <v>13</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="20">
+        <v>10014</v>
+      </c>
+      <c r="B18" s="21">
+        <v>14</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="20">
+        <v>10015</v>
+      </c>
+      <c r="B19" s="21">
+        <v>15</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="20">
+        <v>10016</v>
+      </c>
+      <c r="B20" s="21">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="20">
+        <v>10017</v>
+      </c>
+      <c r="B21" s="21">
+        <v>17</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="20">
+        <v>10018</v>
+      </c>
+      <c r="B22" s="21">
+        <v>18</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="20">
+        <v>10019</v>
+      </c>
+      <c r="B23" s="21">
+        <v>19</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20">
+        <v>10020</v>
+      </c>
+      <c r="B24" s="21">
+        <v>20</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="20">
+        <v>10021</v>
+      </c>
+      <c r="B25" s="21">
+        <v>21</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="20">
+        <v>10022</v>
+      </c>
+      <c r="B26" s="21">
+        <v>22</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="20">
+        <v>10023</v>
+      </c>
+      <c r="B27" s="21">
+        <v>23</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="20">
+        <v>10024</v>
+      </c>
+      <c r="B28" s="21">
+        <v>24</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="20">
+        <v>10025</v>
+      </c>
+      <c r="B29" s="21">
+        <v>25</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="20">
+        <v>10026</v>
+      </c>
+      <c r="B30" s="21">
+        <v>26</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="20">
+        <v>10027</v>
+      </c>
+      <c r="B31" s="21">
+        <v>27</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="20">
+        <v>10028</v>
+      </c>
+      <c r="B32" s="21">
+        <v>28</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="20">
+        <v>10029</v>
+      </c>
+      <c r="B33" s="21">
+        <v>29</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="20">
+        <v>10030</v>
+      </c>
+      <c r="B34" s="21">
+        <v>30</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20">
+        <v>10031</v>
+      </c>
+      <c r="B35" s="21">
+        <v>31</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="20">
+        <v>10032</v>
+      </c>
+      <c r="B36" s="21">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C36" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="20">
+        <v>10033</v>
+      </c>
+      <c r="B37" s="21">
         <v>33</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="C37" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="20">
+        <v>10034</v>
+      </c>
+      <c r="B38" s="21">
         <v>34</v>
       </c>
+      <c r="C38" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="20">
+        <v>10035</v>
+      </c>
+      <c r="B39" s="21">
+        <v>35</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+    <row r="40" spans="1:5">
+      <c r="A40" s="20">
+        <v>10036</v>
+      </c>
+      <c r="B40" s="21">
+        <v>36</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="20">
+        <v>10037</v>
+      </c>
+      <c r="B41" s="21">
+        <v>37</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="20">
+        <v>10038</v>
+      </c>
+      <c r="B42" s="21">
+        <v>38</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="20"/>
+    <row r="43" spans="1:5">
+      <c r="A43" s="20">
+        <v>10039</v>
+      </c>
+      <c r="B43" s="21">
+        <v>39</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34573,56 +35120,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -34631,10 +35178,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -34648,10 +35195,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -34665,10 +35212,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -34682,10 +35229,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -34699,10 +35246,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -34712,29 +35259,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -34742,29 +35289,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -34776,10 +35323,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -34798,10 +35345,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -34820,10 +35367,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -34842,10 +35389,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>ID</t>
   </si>
@@ -132,7 +132,7 @@
     <t>点击银牌招募令招募弟子</t>
   </si>
   <si>
-    <t>LobbyPanelGetCharacterTrigger</t>
+    <t>LobbyPanelGetCharacterTrigger1</t>
   </si>
   <si>
     <t>NormalTipsCommand:StoryPanel_Text_11,-190|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
@@ -153,7 +153,7 @@
     <t>点击公告榜按钮</t>
   </si>
   <si>
-    <t>ClickTaskBtnTrigger</t>
+    <t>ClickTaskBtnTrigger1</t>
   </si>
   <si>
     <t>NormalTipsCommand:StoryPanel_Text_13,-190|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
@@ -165,19 +165,73 @@
     <t>查看任务详情</t>
   </si>
   <si>
+    <t>ClickTaskDetailsTrigger1</t>
+  </si>
+  <si>
     <t>派遣弟子执行任务</t>
+  </si>
+  <si>
+    <t>SendCharacterOnTaskTrigger1</t>
   </si>
   <si>
     <t>领取任务奖励</t>
   </si>
   <si>
+    <t>ReceiveTaskRewardTrigger1</t>
+  </si>
+  <si>
+    <t>DialogTrigger5</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_17,StoryPanel_Text_18;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>BuildFacilityTrigger2</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanelTrigger2</t>
+  </si>
+  <si>
     <t>金牌招募令</t>
+  </si>
+  <si>
+    <t>DialogTrigger6</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_37;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>ClickLobbyTrigger2</t>
   </si>
   <si>
     <t>点击金牌招募令招募弟子</t>
   </si>
   <si>
+    <t>LobbyPanelGetCharacterTrigger2</t>
+  </si>
+  <si>
+    <t>DialogTrigger7</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_20,StoryPanel_Text_21;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>ClickTaskBtnTrigger2</t>
+  </si>
+  <si>
+    <t>ClickTaskDetailsTrigger2</t>
+  </si>
+  <si>
     <t>选择弟子执行任务</t>
+  </si>
+  <si>
+    <t>SelectCharacterOnTaskTrigger</t>
+  </si>
+  <si>
+    <t>SendCharacterOnTaskTrigger2</t>
+  </si>
+  <si>
+    <t>ReceiveTaskRewardTrigger2</t>
   </si>
   <si>
     <t>剧情引导（建造伙房）</t>
@@ -210,7 +264,16 @@
     <t>出现工作气泡</t>
   </si>
   <si>
+    <t>DialogTrigger8</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_27,StoryPanel_Text_28;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
     <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>SendCharacterWorkTrigger</t>
   </si>
   <si>
     <t>资源上限后建造仓库</t>
@@ -415,10 +478,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
@@ -451,14 +514,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,9 +542,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,8 +565,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,11 +587,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,18 +633,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,49 +649,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -615,7 +678,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +714,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,13 +774,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,97 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,25 +846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,6 +1015,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -963,17 +1035,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,24 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1040,16 +1083,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,137 +1121,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1252,6 +1315,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,11 +1705,11 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -1771,13 +1835,12 @@
       <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -18167,7 +18230,7 @@
       <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
@@ -34699,7 +34762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="20">
         <v>10011</v>
       </c>
@@ -34709,8 +34772,11 @@
       <c r="C15" s="18" t="s">
         <v>47</v>
       </c>
+      <c r="D15" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="20">
         <v>10012</v>
       </c>
@@ -34718,10 +34784,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="20">
         <v>10013</v>
       </c>
@@ -34729,10 +34798,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" s="20">
         <v>10014</v>
       </c>
@@ -34742,8 +34814,14 @@
       <c r="C18" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="20">
         <v>10015</v>
       </c>
@@ -34753,8 +34831,11 @@
       <c r="C19" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D19" s="23" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="20">
         <v>10016</v>
       </c>
@@ -34764,8 +34845,11 @@
       <c r="C20" s="18" t="s">
         <v>26</v>
       </c>
+      <c r="D20" s="23" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" s="20">
         <v>10017</v>
       </c>
@@ -34773,10 +34857,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="20">
         <v>10018</v>
       </c>
@@ -34786,8 +34876,11 @@
       <c r="C22" s="18" t="s">
         <v>33</v>
       </c>
+      <c r="D22" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="20">
         <v>10019</v>
       </c>
@@ -34795,10 +34888,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" s="20">
         <v>10020</v>
       </c>
@@ -34808,8 +34904,14 @@
       <c r="C24" s="18" t="s">
         <v>40</v>
       </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="20">
         <v>10021</v>
       </c>
@@ -34819,8 +34921,11 @@
       <c r="C25" s="18" t="s">
         <v>43</v>
       </c>
+      <c r="D25" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="20">
         <v>10022</v>
       </c>
@@ -34830,8 +34935,11 @@
       <c r="C26" s="18" t="s">
         <v>47</v>
       </c>
+      <c r="D26" s="23" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="20">
         <v>10023</v>
       </c>
@@ -34839,10 +34947,13 @@
         <v>23</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="20">
         <v>10024</v>
       </c>
@@ -34850,10 +34961,13 @@
         <v>24</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="20">
         <v>10025</v>
       </c>
@@ -34861,7 +34975,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -34872,13 +34989,13 @@
         <v>26</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -34889,13 +35006,13 @@
         <v>27</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -34906,19 +35023,19 @@
         <v>28</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33" s="20">
         <v>10029</v>
       </c>
@@ -34926,10 +35043,16 @@
         <v>29</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>62</v>
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="20">
         <v>10030</v>
       </c>
@@ -34937,7 +35060,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>63</v>
+        <v>83</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -34948,13 +35074,13 @@
         <v>31</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -34965,13 +35091,13 @@
         <v>32</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -34982,13 +35108,13 @@
         <v>33</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>29</v>
@@ -35002,13 +35128,13 @@
         <v>34</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -35019,13 +35145,13 @@
         <v>35</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -35036,13 +35162,13 @@
         <v>36</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -35053,13 +35179,13 @@
         <v>37</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -35070,13 +35196,13 @@
         <v>38</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -35087,13 +35213,13 @@
         <v>39</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -35120,56 +35246,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>100</v>
+      <c r="E4" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -35178,10 +35304,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>106</v>
+      <c r="E5" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -35195,10 +35321,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>108</v>
+      <c r="E6" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -35212,10 +35338,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>110</v>
+      <c r="E7" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -35229,10 +35355,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>112</v>
+      <c r="E8" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -35246,10 +35372,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>114</v>
+      <c r="E9" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -35259,29 +35385,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -35289,29 +35415,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>106</v>
+      <c r="E13" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -35323,10 +35449,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>108</v>
+      <c r="E14" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -35345,10 +35471,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>110</v>
+      <c r="E15" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -35367,10 +35493,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>112</v>
+      <c r="E16" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -35389,10 +35515,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>114</v>
+      <c r="E17" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -96,7 +96,7 @@
     <t>BuildFacilityTrigger1</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:99.5|36.1,216.5|36.1,8.8|1.55,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
+    <t>GuideClickWorldCommand:253|-25,216.5|36.1,8.8|1.55,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>打开建造屋舍界面</t>
@@ -105,7 +105,7 @@
     <t>BuildFacilityPanelTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_9,0|-240;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_9,70|-508;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:ConstructionFacilitiesPanel,Bg/AcceptBtn</t>
@@ -126,7 +126,7 @@
     <t>ClickLobbyTrigger1</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:-83|47,50.5|40,6.7|1.4,StoryPanel_Text_10;MyDelayCommand:0.2;</t>
+    <t>GuideClickWorldCommand:83.6|2.6,50.5|40,6.7|1.4,StoryPanel_Text_10;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>点击银牌招募令招募弟子</t>
@@ -135,7 +135,7 @@
     <t>LobbyPanelGetCharacterTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_11,-190|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_11,70|-508;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem(Clone)/RecruitmentBtn</t>
@@ -478,11 +478,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -520,6 +520,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -528,7 +536,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,8 +565,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,8 +603,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -580,21 +635,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -614,46 +654,6 @@
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -684,7 +684,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +738,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,31 +798,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,97 +846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,11 +1006,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,6 +1035,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,32 +1069,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,36 +1103,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1121,133 +1121,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1705,11 +1705,11 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>ID</t>
   </si>
@@ -138,7 +138,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_11,70|-508;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
-    <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem(Clone)/RecruitmentBtn</t>
+    <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem1/RecruitmentBtn</t>
   </si>
   <si>
     <t>剧情引导（让弟子去执行任务）</t>
@@ -156,7 +156,7 @@
     <t>ClickTaskBtnTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_13,-190|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_13,70|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,MenuList/BulletinBoardBtn</t>
@@ -189,7 +189,13 @@
     <t>BuildFacilityTrigger2</t>
   </si>
   <si>
+    <t>GuideClickWorldCommand:342|-81,314|-17,8.84|1.54,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
     <t>BuildFacilityPanelTrigger2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_19,70|-240;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>金牌招募令</t>
@@ -208,6 +214,9 @@
   </si>
   <si>
     <t>LobbyPanelGetCharacterTrigger2</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem2/RecruitmentBtn</t>
   </si>
   <si>
     <t>DialogTrigger7</t>
@@ -1705,11 +1714,11 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -34821,7 +34830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="20">
         <v>10015</v>
       </c>
@@ -34831,11 +34840,14 @@
       <c r="C19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" t="s">
         <v>55</v>
       </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20" s="20">
         <v>10016</v>
       </c>
@@ -34845,8 +34857,14 @@
       <c r="C20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>56</v>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -34857,16 +34875,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="20">
         <v>10018</v>
       </c>
@@ -34876,11 +34894,14 @@
       <c r="C22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>60</v>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23" s="20">
         <v>10019</v>
       </c>
@@ -34888,10 +34909,16 @@
         <v>19</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>62</v>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -34905,13 +34932,13 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" s="20">
         <v>10021</v>
       </c>
@@ -34921,8 +34948,14 @@
       <c r="C25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>65</v>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -34936,7 +34969,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -34947,10 +34980,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -34964,7 +34997,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -34978,7 +35011,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -34989,13 +35022,13 @@
         <v>26</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -35006,13 +35039,13 @@
         <v>27</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -35023,13 +35056,13 @@
         <v>28</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>29</v>
@@ -35043,13 +35076,13 @@
         <v>29</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -35060,10 +35093,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -35074,13 +35107,13 @@
         <v>31</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -35091,13 +35124,13 @@
         <v>32</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -35108,13 +35141,13 @@
         <v>33</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>29</v>
@@ -35128,13 +35161,13 @@
         <v>34</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -35145,13 +35178,13 @@
         <v>35</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -35162,13 +35195,13 @@
         <v>36</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -35179,13 +35212,13 @@
         <v>37</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -35196,13 +35229,13 @@
         <v>38</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -35213,13 +35246,13 @@
         <v>39</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -35246,56 +35279,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -35304,10 +35337,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -35321,10 +35354,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -35338,10 +35371,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -35355,10 +35388,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -35372,10 +35405,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -35385,29 +35418,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -35415,29 +35448,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -35449,10 +35482,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -35471,10 +35504,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -35493,10 +35526,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -35515,10 +35548,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12340"/>
+    <workbookView windowWidth="23900" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1711,14 +1711,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -1727,9 +1727,10 @@
     <col min="2" max="2" width="13.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="18" customWidth="1"/>
     <col min="4" max="4" width="34.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="96.9166666666667" customWidth="1"/>
-    <col min="6" max="6" width="98.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="50.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="14.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="45.5" customWidth="1"/>
+    <col min="8" max="8" width="27.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -34643,615 +34644,713 @@
       <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20">
-        <v>10004</v>
-      </c>
-      <c r="B8" s="21">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20">
+        <v>10004</v>
+      </c>
+      <c r="B9" s="21">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20">
         <v>10005</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B10" s="21">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20">
+        <v>10006</v>
+      </c>
+      <c r="B12" s="21">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="20">
-        <v>10006</v>
-      </c>
-      <c r="B10" s="21">
-        <v>6</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="20">
+    <row r="13" spans="1:2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="20">
         <v>10007</v>
       </c>
-      <c r="B11" s="21">
-        <v>7</v>
+      <c r="B14" s="21">
+        <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="20">
+    <row r="15" spans="1:8">
+      <c r="A15" s="20">
         <v>10008</v>
       </c>
-      <c r="B12" s="21">
-        <v>8</v>
+      <c r="B15" s="21">
+        <v>6</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F15" s="22" t="s">
         <v>39</v>
       </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="20">
+    <row r="16" spans="1:6">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="20">
         <v>10009</v>
       </c>
-      <c r="B13" s="21">
-        <v>9</v>
+      <c r="B17" s="21">
+        <v>7</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="20">
+    <row r="18" spans="1:2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="20">
         <v>10010</v>
       </c>
-      <c r="B14" s="21">
-        <v>10</v>
+      <c r="B19" s="21">
+        <v>8</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E19" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F19" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="20">
+    <row r="20" spans="1:4">
+      <c r="A20" s="20">
         <v>10011</v>
       </c>
-      <c r="B15" s="21">
-        <v>11</v>
+      <c r="B20" s="21">
+        <v>8</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="20">
+    <row r="21" spans="1:8">
+      <c r="A21" s="20">
         <v>10012</v>
       </c>
-      <c r="B16" s="21">
-        <v>12</v>
+      <c r="B21" s="21">
+        <v>8</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D21" s="23" t="s">
         <v>50</v>
       </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="20">
+    <row r="22" spans="1:2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="20">
         <v>10013</v>
       </c>
-      <c r="B17" s="21">
-        <v>13</v>
+      <c r="B23" s="21">
+        <v>9</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="20">
-        <v>10014</v>
-      </c>
-      <c r="B18" s="21">
-        <v>14</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="20">
-        <v>10015</v>
-      </c>
-      <c r="B19" s="21">
-        <v>15</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="20">
-        <v>10016</v>
-      </c>
-      <c r="B20" s="21">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20">
-        <v>10017</v>
-      </c>
-      <c r="B21" s="21">
-        <v>17</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20">
-        <v>10018</v>
-      </c>
-      <c r="B22" s="21">
-        <v>18</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="20">
-        <v>10019</v>
-      </c>
-      <c r="B23" s="21">
-        <v>19</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="20">
+        <v>10014</v>
+      </c>
+      <c r="B24" s="21">
+        <v>10</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="20">
+        <v>10015</v>
+      </c>
+      <c r="B26" s="21">
+        <v>11</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="20">
+        <v>10016</v>
+      </c>
+      <c r="B27" s="21">
+        <v>11</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="20">
+        <v>10017</v>
+      </c>
+      <c r="B29" s="21">
+        <v>12</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="20">
+        <v>10018</v>
+      </c>
+      <c r="B31" s="21">
+        <v>13</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="20">
+        <v>10019</v>
+      </c>
+      <c r="B32" s="21">
+        <v>13</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20">
         <v>10020</v>
       </c>
-      <c r="B24" s="21">
-        <v>20</v>
+      <c r="B34" s="21">
+        <v>14</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D34" t="s">
         <v>66</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="20">
+    <row r="35" spans="1:2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="20">
         <v>10021</v>
       </c>
-      <c r="B25" s="21">
-        <v>21</v>
+      <c r="B36" s="21">
+        <v>15</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D36" t="s">
         <v>68</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E36" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F36" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="20">
+    <row r="37" spans="1:4">
+      <c r="A37" s="20">
         <v>10022</v>
       </c>
-      <c r="B26" s="21">
-        <v>22</v>
+      <c r="B37" s="21">
+        <v>15</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D37" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="20">
+    <row r="38" spans="1:4">
+      <c r="A38" s="20">
         <v>10023</v>
       </c>
-      <c r="B27" s="21">
-        <v>23</v>
+      <c r="B38" s="21">
+        <v>15</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D38" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="20">
+    <row r="39" spans="1:8">
+      <c r="A39" s="20">
         <v>10024</v>
       </c>
-      <c r="B28" s="21">
-        <v>24</v>
+      <c r="B39" s="21">
+        <v>15</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>72</v>
       </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="20">
+    <row r="40" spans="1:2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="20">
         <v>10025</v>
       </c>
-      <c r="B29" s="21">
-        <v>25</v>
+      <c r="B41" s="21">
+        <v>16</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D41" s="23" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="20">
-        <v>10026</v>
-      </c>
-      <c r="B30" s="21">
-        <v>26</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="20">
-        <v>10027</v>
-      </c>
-      <c r="B31" s="21">
-        <v>27</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="20">
-        <v>10028</v>
-      </c>
-      <c r="B32" s="21">
-        <v>28</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="20">
-        <v>10029</v>
-      </c>
-      <c r="B33" s="21">
-        <v>29</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="20">
-        <v>10030</v>
-      </c>
-      <c r="B34" s="21">
-        <v>30</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="20">
-        <v>10031</v>
-      </c>
-      <c r="B35" s="21">
-        <v>31</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="20">
-        <v>10032</v>
-      </c>
-      <c r="B36" s="21">
-        <v>32</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="20">
-        <v>10033</v>
-      </c>
-      <c r="B37" s="21">
-        <v>33</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="20">
-        <v>10034</v>
-      </c>
-      <c r="B38" s="21">
-        <v>34</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="20">
-        <v>10035</v>
-      </c>
-      <c r="B39" s="21">
-        <v>35</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="20">
-        <v>10036</v>
-      </c>
-      <c r="B40" s="21">
-        <v>36</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="20">
-        <v>10037</v>
-      </c>
-      <c r="B41" s="21">
-        <v>37</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="20">
+        <v>10026</v>
+      </c>
+      <c r="B42" s="21">
+        <v>17</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="20">
+        <v>10027</v>
+      </c>
+      <c r="B44" s="21">
+        <v>18</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="20">
+        <v>10028</v>
+      </c>
+      <c r="B45" s="21">
+        <v>18</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="20">
+        <v>10029</v>
+      </c>
+      <c r="B47" s="21">
+        <v>19</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="20">
+        <v>10030</v>
+      </c>
+      <c r="B48" s="21">
+        <v>19</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="20">
+        <v>10031</v>
+      </c>
+      <c r="B50" s="21">
+        <v>20</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="20">
+        <v>10032</v>
+      </c>
+      <c r="B51" s="21">
+        <v>20</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="20">
+        <v>10033</v>
+      </c>
+      <c r="B52" s="21">
+        <v>20</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="20">
+        <v>10034</v>
+      </c>
+      <c r="B54" s="21">
+        <v>21</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="20">
+        <v>10035</v>
+      </c>
+      <c r="B55" s="21">
+        <v>22</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="20">
+        <v>10036</v>
+      </c>
+      <c r="B56" s="21">
+        <v>23</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="20">
+        <v>10037</v>
+      </c>
+      <c r="B57" s="21">
+        <v>24</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="20">
         <v>10038</v>
       </c>
-      <c r="B42" s="21">
-        <v>38</v>
+      <c r="B58" s="21">
+        <v>25</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D58" t="s">
         <v>109</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="20">
+    <row r="59" spans="1:5">
+      <c r="A59" s="20">
         <v>10039</v>
       </c>
-      <c r="B43" s="21">
-        <v>39</v>
+      <c r="B59" s="21">
+        <v>26</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D59" t="s">
         <v>112</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E59" t="s">
         <v>113</v>
       </c>
     </row>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23900" windowHeight="12340"/>
+    <workbookView windowWidth="31730" windowHeight="14830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>DialogTrigger1</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_5;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_5;MyDelayCommand:1;</t>
   </si>
   <si>
     <t>门派起名</t>
@@ -78,7 +78,7 @@
     <t>TakeNameTrigger</t>
   </si>
   <si>
-    <t>TakeNameCommand;MyDelayCommand:0.2;</t>
+    <t>TakeNameCommand;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>剧情引导（建造屋舍）</t>
@@ -87,7 +87,7 @@
     <t>DialogTrigger2</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_6;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_6;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>建造屋舍</t>
@@ -96,7 +96,7 @@
     <t>BuildFacilityTrigger1</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:253|-25,216.5|36.1,8.8|1.55,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
+    <t>GuideClickWorldCommand:253|-25,216.5|36.1,8.8|1.55,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>打开建造屋舍界面</t>
@@ -105,7 +105,7 @@
     <t>BuildFacilityPanelTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_9,70|-508;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_9,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:ConstructionFacilitiesPanel,Bg/AcceptBtn</t>
@@ -117,7 +117,7 @@
     <t>DialogTrigger3</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_7;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_7;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>点击进入讲武堂界面</t>
@@ -126,7 +126,7 @@
     <t>ClickLobbyTrigger1</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:83.6|2.6,50.5|40,6.7|1.4,StoryPanel_Text_10;MyDelayCommand:0.2;</t>
+    <t>GuideClickWorldCommand:83.6|2.6,50.5|40,6.7|1.4,StoryPanel_Text_10;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>点击银牌招募令招募弟子</t>
@@ -135,7 +135,7 @@
     <t>LobbyPanelGetCharacterTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_11,70|-508;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_11,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem1/RecruitmentBtn</t>
@@ -147,7 +147,7 @@
     <t>DialogTrigger4</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_12;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_12;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>点击公告榜按钮</t>
@@ -156,7 +156,7 @@
     <t>ClickTaskBtnTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_13,70|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_13,70|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,MenuList/BulletinBoardBtn</t>
@@ -168,10 +168,37 @@
     <t>ClickTaskDetailsTrigger1</t>
   </si>
   <si>
-    <t>派遣弟子执行任务</t>
+    <t>NormalTipsCommand:StoryPanel_Text_14,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:BulletinBoardPanel,TaskCont/Viewport/TaskContParent/TaskBackImg9001/FuncBtn</t>
+  </si>
+  <si>
+    <t>选择弟子执行任务</t>
+  </si>
+  <si>
+    <t>SelectCharacterOnTaskTrigger1</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_38,70|-555;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:TaskDetailsPanel,Bg/GameObject/AcceptBtn</t>
+  </si>
+  <si>
+    <t>派遣</t>
   </si>
   <si>
     <t>SendCharacterOnTaskTrigger1</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_39,70|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:SendDisciplesPanel,Bg/AutoSelectedBtn</t>
+  </si>
+  <si>
+    <t>ClickTaskBtnTrigger11</t>
   </si>
   <si>
     <t>领取任务奖励</t>
@@ -180,22 +207,25 @@
     <t>ReceiveTaskRewardTrigger1</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_16,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>DialogTrigger5</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_17,StoryPanel_Text_18;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_17,StoryPanel_Text_18;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>BuildFacilityTrigger2</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:342|-81,314|-17,8.84|1.54,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
+    <t>GuideClickWorldCommand:342|-81,314|-17,8.84|1.54,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>BuildFacilityPanelTrigger2</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_19,70|-240;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_19,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>金牌招募令</t>
@@ -204,7 +234,7 @@
     <t>DialogTrigger6</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_37;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_37;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>ClickLobbyTrigger2</t>
@@ -216,13 +246,16 @@
     <t>LobbyPanelGetCharacterTrigger2</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_11,70|-235;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem2/RecruitmentBtn</t>
   </si>
   <si>
     <t>DialogTrigger7</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_20,StoryPanel_Text_21;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_20,StoryPanel_Text_21;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>ClickTaskBtnTrigger2</t>
@@ -231,13 +264,22 @@
     <t>ClickTaskDetailsTrigger2</t>
   </si>
   <si>
-    <t>选择弟子执行任务</t>
+    <t>UINodeFinder:BulletinBoardPanel,TaskCont/Viewport/TaskContParent/TaskBackImg9002/FuncBtn</t>
   </si>
   <si>
-    <t>SelectCharacterOnTaskTrigger</t>
+    <t>SelectCharacterOnTaskTrigger2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_14,70|-555;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>派遣弟子执行任务</t>
   </si>
   <si>
     <t>SendCharacterOnTaskTrigger2</t>
+  </si>
+  <si>
+    <t>ClickTaskBtnTrigger22</t>
   </si>
   <si>
     <t>ReceiveTaskRewardTrigger2</t>
@@ -249,7 +291,7 @@
     <t>KitchenDialogTrigger</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_25,StoryPanel_Text_26;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_25,StoryPanel_Text_26;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>建造伙房</t>
@@ -258,7 +300,7 @@
     <t>BuildFacility_KitchenTrigger</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:20|-185,20|-185,1.75|1.54,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
+    <t>GuideClickWorldCommand:60|-232,20|-185,1.75|1.54,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>打开建造伙房界面</t>
@@ -267,16 +309,13 @@
     <t>BuildFacilityPanel_KitchenTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_19,0|-240;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
     <t>出现工作气泡</t>
   </si>
   <si>
     <t>DialogTrigger8</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_27,StoryPanel_Text_28;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_27,StoryPanel_Text_28;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>派遣弟子工作</t>
@@ -285,13 +324,16 @@
     <t>SendCharacterWorkTrigger</t>
   </si>
   <si>
+    <t>GuideClickWorldCommand:93|65,46|115,7|2.6,StoryPanel_Text_29,0;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>资源上限后建造仓库</t>
   </si>
   <si>
     <t>WarehouseDialogTrigger</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_30;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_30;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>建造仓库</t>
@@ -300,13 +342,16 @@
     <t>BuildFacility_WarehouseTrigger</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:-232.5|-5.5,-232.5|-5.5,-0.57|1.54,StoryPanel_Text_8;MyDelayCommand:0.2;</t>
+    <t>GuideClickWorldCommand:-232.5|-5.5,-232.5|-5.5,-0.57|1.54,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>打开建造仓库界面</t>
   </si>
   <si>
     <t>BuildFacilityPanel_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_19,0|-240;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>百草屋建造完后 文本说明</t>
@@ -489,9 +534,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -523,7 +568,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,6 +657,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -553,54 +697,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,62 +710,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,13 +732,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,67 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,25 +846,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,19 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,31 +894,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,6 +1066,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1041,24 +1125,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,51 +1163,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,133 +1181,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,7 +1375,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1711,14 +1762,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD59"/>
+  <dimension ref="A1:XFD65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -1727,9 +1778,9 @@
     <col min="2" max="2" width="13.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="18" customWidth="1"/>
     <col min="4" max="4" width="34.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="14.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="45.5" customWidth="1"/>
+    <col min="5" max="5" width="86.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="80.9166666666667" customWidth="1"/>
+    <col min="7" max="7" width="64.75" customWidth="1"/>
     <col min="8" max="8" width="27.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34801,7 +34852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20" s="20">
         <v>10011</v>
       </c>
@@ -34811,11 +34862,17 @@
       <c r="C20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:6">
       <c r="A21" s="20">
         <v>10012</v>
       </c>
@@ -34823,305 +34880,351 @@
         <v>8</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>50</v>
+      <c r="D21" t="s">
+        <v>52</v>
       </c>
-      <c r="H21" t="b">
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="20">
+        <v>10013</v>
+      </c>
+      <c r="B22" s="21">
+        <v>8</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="20">
-        <v>10013</v>
-      </c>
-      <c r="B23" s="21">
-        <v>9</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="20">
         <v>10014</v>
       </c>
       <c r="B24" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="20">
+    <row r="25" spans="1:8">
+      <c r="A25" s="20">
         <v>10015</v>
       </c>
-      <c r="B26" s="21">
-        <v>11</v>
+      <c r="B25" s="21">
+        <v>9</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>23</v>
+      <c r="C25" s="18" t="s">
+        <v>60</v>
       </c>
-      <c r="D26" t="s">
-        <v>55</v>
+      <c r="D25" t="s">
+        <v>61</v>
       </c>
-      <c r="E26" t="s">
-        <v>56</v>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="26" spans="1:6">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="20">
         <v>10016</v>
       </c>
       <c r="B27" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:2">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
-      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="20">
         <v>10017</v>
       </c>
       <c r="B29" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="20">
+    <row r="30" spans="1:8">
+      <c r="A30" s="20">
         <v>10018</v>
       </c>
-      <c r="B31" s="21">
-        <v>13</v>
+      <c r="B30" s="21">
+        <v>11</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>33</v>
+      <c r="C30" s="18" t="s">
+        <v>26</v>
       </c>
-      <c r="D31" t="s">
-        <v>62</v>
+      <c r="D30" t="s">
+        <v>67</v>
       </c>
-      <c r="E31" t="s">
-        <v>35</v>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="31" spans="1:6">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="20">
         <v>10019</v>
       </c>
       <c r="B32" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:2">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
-      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="20">
         <v>10020</v>
       </c>
       <c r="B34" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="20">
+        <v>10021</v>
+      </c>
+      <c r="B35" s="21">
+        <v>13</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="20">
-        <v>10021</v>
-      </c>
-      <c r="B36" s="21">
-        <v>15</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="20">
         <v>10022</v>
       </c>
       <c r="B37" s="21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>69</v>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="20">
+    <row r="38" spans="1:2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="20">
         <v>10023</v>
-      </c>
-      <c r="B38" s="21">
-        <v>15</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="20">
-        <v>10024</v>
       </c>
       <c r="B39" s="21">
         <v>15</v>
       </c>
       <c r="C39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="20">
+        <v>10024</v>
+      </c>
+      <c r="B40" s="21">
+        <v>15</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
+      <c r="F40" s="22" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-    </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:6">
       <c r="A41" s="20">
         <v>10025</v>
       </c>
       <c r="B41" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>73</v>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:8">
       <c r="A42" s="20">
         <v>10026</v>
       </c>
       <c r="B42" s="21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="20">
         <v>10027</v>
       </c>
       <c r="B44" s="21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -35129,169 +35232,153 @@
         <v>10028</v>
       </c>
       <c r="B45" s="21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:2">
       <c r="A46" s="20"/>
       <c r="B46" s="21"/>
-      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="20">
         <v>10029</v>
       </c>
       <c r="B47" s="21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="20">
+    <row r="48" spans="1:2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="20">
         <v>10030</v>
       </c>
-      <c r="B48" s="21">
-        <v>19</v>
+      <c r="B49" s="21">
+        <v>18</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>86</v>
+      <c r="C49" s="18" t="s">
+        <v>91</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>87</v>
+      <c r="D49" t="s">
+        <v>92</v>
       </c>
-      <c r="H48" t="b">
-        <v>1</v>
+      <c r="E49" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-    </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:8">
       <c r="A50" s="20">
         <v>10031</v>
       </c>
       <c r="B50" s="21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="20">
-        <v>10032</v>
-      </c>
-      <c r="B51" s="21">
-        <v>20</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="20">
-        <v>10033</v>
-      </c>
-      <c r="B52" s="21">
-        <v>20</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="22" t="s">
+      <c r="F50" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H52" t="b">
+      <c r="H50" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="F53" s="22"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="F51" s="22"/>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="20">
-        <v>10034</v>
+    <row r="52" spans="1:5">
+      <c r="A52" s="20">
+        <v>10032</v>
       </c>
-      <c r="B54" s="21">
-        <v>21</v>
+      <c r="B52" s="21">
+        <v>19</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C52" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D52" t="s">
         <v>97</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="20">
-        <v>10035</v>
+    <row r="53" spans="1:4">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21">
+        <v>19</v>
       </c>
-      <c r="B55" s="21">
-        <v>22</v>
-      </c>
-      <c r="C55" s="18" t="s">
+      <c r="C53" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D53" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E55" t="s">
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="20">
+        <v>10033</v>
+      </c>
+      <c r="B54" s="21">
+        <v>19</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
         <v>101</v>
       </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="20">
-        <v>10036</v>
+        <v>10034</v>
       </c>
       <c r="B56" s="21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>102</v>
@@ -35305,10 +35392,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="20">
-        <v>10037</v>
+        <v>10035</v>
       </c>
       <c r="B57" s="21">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>105</v>
@@ -35320,12 +35407,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:8">
       <c r="A58" s="20">
-        <v>10038</v>
+        <v>10036</v>
       </c>
       <c r="B58" s="21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>108</v>
@@ -35336,22 +35423,118 @@
       <c r="E58" t="s">
         <v>110</v>
       </c>
+      <c r="F58" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="20">
+    <row r="59" spans="1:6">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="20">
+        <v>10037</v>
+      </c>
+      <c r="B60" s="21">
+        <v>21</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="20">
+        <v>10038</v>
+      </c>
+      <c r="B61" s="21">
+        <v>22</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="20">
         <v>10039</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B62" s="21">
+        <v>23</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="20">
+        <v>10040</v>
+      </c>
+      <c r="B63" s="21">
+        <v>24</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="20">
+        <v>10041</v>
+      </c>
+      <c r="B64" s="21">
+        <v>25</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="20">
+        <v>10042</v>
+      </c>
+      <c r="B65" s="21">
         <v>26</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>111</v>
+      <c r="C65" s="18" t="s">
+        <v>126</v>
       </c>
-      <c r="D59" t="s">
-        <v>112</v>
+      <c r="D65" t="s">
+        <v>127</v>
       </c>
-      <c r="E59" t="s">
-        <v>113</v>
+      <c r="E65" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -35378,56 +35561,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -35436,10 +35619,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -35453,10 +35636,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -35470,10 +35653,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -35487,10 +35670,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -35504,10 +35687,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -35517,29 +35700,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -35547,29 +35730,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -35581,10 +35764,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -35603,10 +35786,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -35625,10 +35808,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -35647,10 +35830,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>ID</t>
   </si>
@@ -96,7 +96,10 @@
     <t>BuildFacilityTrigger1</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:253|-25,216.5|36.1,8.8|1.55,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,8.8|1.55,-37|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/EastLivableRoom/LivableRoomView1</t>
   </si>
   <si>
     <t>打开建造屋舍界面</t>
@@ -105,7 +108,7 @@
     <t>BuildFacilityPanelTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_9,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_9,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:ConstructionFacilitiesPanel,Bg/AcceptBtn</t>
@@ -126,7 +129,10 @@
     <t>ClickLobbyTrigger1</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:83.6|2.6,50.5|40,6.7|1.4,StoryPanel_Text_10;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,6.7|1.4,38|-8,StoryPanel_Text_10;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/LobbyView</t>
   </si>
   <si>
     <t>点击银牌招募令招募弟子</t>
@@ -135,7 +141,7 @@
     <t>LobbyPanelGetCharacterTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_11,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_11,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem1/RecruitmentBtn</t>
@@ -156,7 +162,7 @@
     <t>ClickTaskBtnTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_13,70|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_13,22|108,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,MenuList/BulletinBoardBtn</t>
@@ -168,7 +174,7 @@
     <t>ClickTaskDetailsTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_14,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_14,-3|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:BulletinBoardPanel,TaskCont/Viewport/TaskContParent/TaskBackImg9001/FuncBtn</t>
@@ -180,7 +186,7 @@
     <t>SelectCharacterOnTaskTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,70|-555;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:TaskDetailsPanel,Bg/GameObject/AcceptBtn</t>
@@ -192,7 +198,7 @@
     <t>SendCharacterOnTaskTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_39,70|-260;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_39,13|79,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:SendDisciplesPanel,Bg/AutoSelectedBtn</t>
@@ -201,13 +207,16 @@
     <t>ClickTaskBtnTrigger11</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_13,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>领取任务奖励</t>
   </si>
   <si>
     <t>ReceiveTaskRewardTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_16,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_16,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>DialogTrigger5</t>
@@ -219,13 +228,16 @@
     <t>BuildFacilityTrigger2</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:342|-81,314|-17,8.84|1.54,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,8.84|1.54,38|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/EastLivableRoom/LivableRoomView2</t>
   </si>
   <si>
     <t>BuildFacilityPanelTrigger2</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_19,70|-520;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_19,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>金牌招募令</t>
@@ -240,13 +252,16 @@
     <t>ClickLobbyTrigger2</t>
   </si>
   <si>
+    <t>GuideClickWorldCommand:83.6|2.6,50.5|40,6.7|1.4,StoryPanel_Text_10;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>点击金牌招募令招募弟子</t>
   </si>
   <si>
     <t>LobbyPanelGetCharacterTrigger2</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_11,70|-235;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_11,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem2/RecruitmentBtn</t>
@@ -270,7 +285,7 @@
     <t>SelectCharacterOnTaskTrigger2</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_14,70|-555;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_14,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>派遣弟子执行任务</t>
@@ -300,7 +315,10 @@
     <t>BuildFacility_KitchenTrigger</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:60|-232,20|-185,1.75|1.54,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,1.75|1.54,38|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/KitchenView</t>
   </si>
   <si>
     <t>打开建造伙房界面</t>
@@ -342,16 +360,16 @@
     <t>BuildFacility_WarehouseTrigger</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:-232.5|-5.5,-232.5|-5.5,-0.57|1.54,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,-0.57|1.54,38|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/WarehouseView</t>
   </si>
   <si>
     <t>打开建造仓库界面</t>
   </si>
   <si>
     <t>BuildFacilityPanel_WarehouseTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_19,0|-240;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>百草屋建造完后 文本说明</t>
@@ -567,15 +585,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,7 +609,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,14 +638,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,22 +691,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +699,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,47 +721,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,13 +756,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,18 +864,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -786,7 +876,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,121 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,21 +1093,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1114,26 +1117,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1145,6 +1128,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,16 +1161,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,133 +1199,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1765,11 +1783,11 @@
   <dimension ref="A1:XFD65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -34715,7 +34733,9 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="20">
@@ -34725,16 +34745,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -34753,20 +34773,20 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="20">
         <v>10007</v>
       </c>
@@ -34774,13 +34794,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -34791,16 +34814,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -34819,13 +34842,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -34840,16 +34863,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -34860,16 +34883,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -34880,16 +34903,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -34900,16 +34923,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -34927,16 +34950,16 @@
         <v>9</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -34947,16 +34970,16 @@
         <v>9</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -34978,17 +35001,17 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="20">
         <v>10017</v>
       </c>
@@ -34999,10 +35022,13 @@
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -35013,16 +35039,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -35041,13 +35067,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -35062,13 +35088,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -35079,16 +35105,16 @@
         <v>13</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -35107,13 +35133,13 @@
         <v>14</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -35128,16 +35154,16 @@
         <v>15</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -35148,16 +35174,16 @@
         <v>15</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -35168,16 +35194,16 @@
         <v>15</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -35188,16 +35214,16 @@
         <v>15</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
@@ -35215,16 +35241,16 @@
         <v>16</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -35235,16 +35261,16 @@
         <v>16</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -35262,20 +35288,20 @@
         <v>17</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="20">
         <v>10030</v>
       </c>
@@ -35283,13 +35309,16 @@
         <v>18</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -35300,16 +35329,16 @@
         <v>18</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
@@ -35328,13 +35357,13 @@
         <v>19</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -35343,10 +35372,10 @@
         <v>19</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -35357,13 +35386,13 @@
         <v>19</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -35381,16 +35410,16 @@
         <v>20</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="20">
         <v>10035</v>
       </c>
@@ -35398,13 +35427,16 @@
         <v>20</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -35415,16 +35447,16 @@
         <v>20</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
@@ -35443,13 +35475,13 @@
         <v>21</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -35460,13 +35492,13 @@
         <v>22</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -35477,13 +35509,13 @@
         <v>23</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -35494,13 +35526,13 @@
         <v>24</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -35511,13 +35543,13 @@
         <v>25</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -35528,13 +35560,13 @@
         <v>26</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -35561,56 +35593,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -35619,10 +35651,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -35636,10 +35668,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -35653,10 +35685,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -35670,10 +35702,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -35687,10 +35719,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -35700,29 +35732,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -35730,29 +35762,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -35764,10 +35796,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -35786,10 +35818,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -35808,10 +35840,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -35830,10 +35862,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31730" windowHeight="14830"/>
+    <workbookView windowWidth="23330" windowHeight="14830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>DialogTrigger1</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_5;MyDelayCommand:1;</t>
+    <t>DialogCommand:StoryPanel_Text_5;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>门派起名</t>
@@ -228,7 +228,7 @@
     <t>BuildFacilityTrigger2</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:#0,8.84|1.54,38|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,10.1|1.54,-61|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>EntityRoot/SimSection/Facility/EastLivableRoom/LivableRoomView2</t>
@@ -551,9 +551,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
@@ -585,16 +585,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,36 +608,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,34 +628,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,6 +660,45 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
@@ -714,10 +707,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,127 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +774,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,25 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,8 +1087,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,8 +1096,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,21 +1118,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1143,6 +1128,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,6 +1156,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1172,25 +1181,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,133 +1199,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1783,11 +1783,11 @@
   <dimension ref="A1:XFD65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23330" windowHeight="14830"/>
+    <workbookView windowWidth="31730" windowHeight="14830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>ID</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>ClickLobbyTrigger2</t>
-  </si>
-  <si>
-    <t>GuideClickWorldCommand:83.6|2.6,50.5|40,6.7|1.4,StoryPanel_Text_10;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>点击金牌招募令招募弟子</t>
@@ -550,10 +547,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
@@ -586,12 +583,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -615,35 +613,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -676,7 +651,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,32 +719,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,108 +753,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -870,7 +765,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +807,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +849,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,13 +903,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,6 +1081,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1097,22 +1118,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,9 +1155,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,42 +1178,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,133 +1196,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1787,7 +1784,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -35080,7 +35077,7 @@
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="20">
         <v>10020</v>
       </c>
@@ -35094,7 +35091,10 @@
         <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -35105,16 +35105,16 @@
         <v>13</v>
       </c>
       <c r="C35" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
         <v>78</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>79</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
@@ -35136,10 +35136,10 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -35157,7 +35157,7 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
         <v>47</v>
@@ -35177,13 +35177,13 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -35197,10 +35197,10 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
         <v>56</v>
@@ -35214,10 +35214,10 @@
         <v>15</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
         <v>59</v>
@@ -35244,7 +35244,7 @@
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
         <v>62</v>
@@ -35264,13 +35264,13 @@
         <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
         <v>65</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
@@ -35288,13 +35288,13 @@
         <v>17</v>
       </c>
       <c r="C47" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
         <v>93</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>94</v>
-      </c>
-      <c r="E47" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -35309,16 +35309,16 @@
         <v>18</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
         <v>96</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>97</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -35329,10 +35329,10 @@
         <v>18</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
         <v>72</v>
@@ -35357,13 +35357,13 @@
         <v>19</v>
       </c>
       <c r="C52" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
         <v>102</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>103</v>
-      </c>
-      <c r="E52" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -35372,10 +35372,10 @@
         <v>19</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -35386,13 +35386,13 @@
         <v>19</v>
       </c>
       <c r="C54" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="E54" t="s">
         <v>106</v>
-      </c>
-      <c r="E54" t="s">
-        <v>107</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -35410,13 +35410,13 @@
         <v>20</v>
       </c>
       <c r="C56" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
         <v>108</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>109</v>
-      </c>
-      <c r="E56" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -35427,16 +35427,16 @@
         <v>20</v>
       </c>
       <c r="C57" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
         <v>111</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>112</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -35447,10 +35447,10 @@
         <v>20</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
         <v>72</v>
@@ -35475,13 +35475,13 @@
         <v>21</v>
       </c>
       <c r="C60" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" t="s">
         <v>117</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>118</v>
-      </c>
-      <c r="E60" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -35492,13 +35492,13 @@
         <v>22</v>
       </c>
       <c r="C61" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" t="s">
         <v>120</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>121</v>
-      </c>
-      <c r="E61" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -35509,13 +35509,13 @@
         <v>23</v>
       </c>
       <c r="C62" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
         <v>123</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>124</v>
-      </c>
-      <c r="E62" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -35526,13 +35526,13 @@
         <v>24</v>
       </c>
       <c r="C63" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
         <v>126</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>127</v>
-      </c>
-      <c r="E63" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -35543,13 +35543,13 @@
         <v>25</v>
       </c>
       <c r="C64" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" t="s">
         <v>129</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>130</v>
-      </c>
-      <c r="E64" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -35560,13 +35560,13 @@
         <v>26</v>
       </c>
       <c r="C65" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
         <v>132</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>133</v>
-      </c>
-      <c r="E65" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -35593,56 +35593,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -35651,10 +35651,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -35668,10 +35668,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -35685,10 +35685,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -35702,10 +35702,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -35719,10 +35719,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -35732,29 +35732,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -35762,29 +35762,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -35796,10 +35796,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -35818,10 +35818,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -35840,10 +35840,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -35862,10 +35862,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>ID</t>
   </si>
@@ -96,7 +96,7 @@
     <t>BuildFacilityTrigger1</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:#0,8.8|1.55,-37|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,-37|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>EntityRoot/SimSection/Facility/EastLivableRoom/LivableRoomView1</t>
@@ -129,7 +129,7 @@
     <t>ClickLobbyTrigger1</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:#0,6.7|1.4,38|-8,StoryPanel_Text_10;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_10;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>EntityRoot/SimSection/Facility/LobbyView</t>
@@ -228,7 +228,7 @@
     <t>BuildFacilityTrigger2</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:#0,10.1|1.54,-61|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,-61|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>EntityRoot/SimSection/Facility/EastLivableRoom/LivableRoomView2</t>
@@ -258,7 +258,7 @@
     <t>LobbyPanelGetCharacterTrigger2</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_11,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_11,-10|109,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem2/RecruitmentBtn</t>
@@ -312,7 +312,7 @@
     <t>BuildFacility_KitchenTrigger</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:#0,1.75|1.54,38|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>EntityRoot/SimSection/Facility/KitchenView</t>
@@ -339,7 +339,7 @@
     <t>SendCharacterWorkTrigger</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:93|65,46|115,7|2.6,StoryPanel_Text_29,0;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_29;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>资源上限后建造仓库</t>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>BuildFacility_WarehouseTrigger</t>
-  </si>
-  <si>
-    <t>GuideClickWorldCommand:#0,-0.57|1.54,38|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>EntityRoot/SimSection/Facility/WarehouseView</t>
@@ -414,7 +411,7 @@
     <t>DialogCommand:StoryPanel_Text_35;MyDelayCommand:0.2;</t>
   </si>
   <si>
-    <t>主城升级到3级 收集系统说明</t>
+    <t>收集系统说明</t>
   </si>
   <si>
     <t>CollectSystemTrigger</t>
@@ -726,7 +723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,12 +739,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,10 +1175,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,13 +1190,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,10 +1208,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1241,28 +1232,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1271,62 +1262,62 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,7 +1381,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1777,14 +1767,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD65"/>
+  <dimension ref="A1:XFD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -35366,207 +35356,198 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="20"/>
+    <row r="53" spans="1:8">
+      <c r="A53" s="20">
+        <v>10033</v>
+      </c>
       <c r="B53" s="21">
         <v>19</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="18" t="s">
         <v>104</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="20">
-        <v>10033</v>
-      </c>
-      <c r="B54" s="21">
-        <v>19</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="E53" t="s">
         <v>106</v>
       </c>
-      <c r="H54" t="b">
+      <c r="F53" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
+    <row r="54" spans="1:2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="55" spans="1:5">
+      <c r="A55" s="20">
+        <v>10034</v>
+      </c>
+      <c r="B55" s="21">
+        <v>20</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="20">
-        <v>10034</v>
+        <v>10035</v>
       </c>
       <c r="B56" s="21">
         <v>20</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:8">
       <c r="A57" s="20">
-        <v>10035</v>
+        <v>10036</v>
       </c>
       <c r="B57" s="21">
         <v>20</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="20">
-        <v>10036</v>
-      </c>
-      <c r="B58" s="21">
-        <v>20</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H58" t="b">
+      <c r="H57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="F59" s="22"/>
+    <row r="58" spans="1:6">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="20">
+        <v>10037</v>
+      </c>
+      <c r="B59" s="21">
+        <v>21</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="20">
-        <v>10037</v>
+        <v>10038</v>
       </c>
       <c r="B60" s="21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="20">
-        <v>10038</v>
+        <v>10039</v>
       </c>
       <c r="B61" s="21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="20">
-        <v>10039</v>
+        <v>10040</v>
       </c>
       <c r="B62" s="21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="20">
-        <v>10040</v>
+        <v>10041</v>
       </c>
       <c r="B63" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="20">
-        <v>10041</v>
+        <v>10042</v>
       </c>
       <c r="B64" s="21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="20">
-        <v>10042</v>
-      </c>
-      <c r="B65" s="21">
-        <v>26</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" t="s">
         <v>132</v>
-      </c>
-      <c r="E65" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -35593,56 +35574,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -35651,10 +35632,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -35668,10 +35649,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>151</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -35685,10 +35666,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>154</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -35702,10 +35683,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -35719,10 +35700,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>158</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -35732,29 +35713,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -35762,29 +35743,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -35796,10 +35777,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>152</v>
+      <c r="E14" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -35818,10 +35799,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>154</v>
+      <c r="E15" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -35840,10 +35821,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>156</v>
+      <c r="E16" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -35862,10 +35843,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>158</v>
+      <c r="E17" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>ID</t>
   </si>
@@ -69,7 +69,7 @@
     <t>DialogTrigger1</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_5;MyDelayCommand:0.4;</t>
+    <t>DialogCommand:StoryPanel_Text_5;MyDelayCommand:2.3;</t>
   </si>
   <si>
     <t>门派起名</t>
@@ -339,7 +339,10 @@
     <t>SendCharacterWorkTrigger</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_29;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_29,TRUE;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
   </si>
   <si>
     <t>资源上限后建造仓库</t>
@@ -544,10 +547,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
@@ -579,8 +582,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +599,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,8 +635,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,22 +664,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -648,7 +673,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,44 +702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -708,18 +710,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -744,7 +747,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +777,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,37 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,55 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,6 +867,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -888,37 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,6 +1075,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1105,11 +1123,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,57 +1172,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,133 +1190,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1770,11 +1773,11 @@
   <dimension ref="A1:XFD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -35373,7 +35376,7 @@
         <v>106</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -35391,13 +35394,13 @@
         <v>20</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -35408,16 +35411,16 @@
         <v>20</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
         <v>97</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -35428,10 +35431,10 @@
         <v>20</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
         <v>72</v>
@@ -35456,13 +35459,13 @@
         <v>21</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -35473,13 +35476,13 @@
         <v>22</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -35490,13 +35493,13 @@
         <v>23</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -35507,13 +35510,13 @@
         <v>24</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -35524,13 +35527,13 @@
         <v>25</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -35541,13 +35544,13 @@
         <v>26</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -35574,56 +35577,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -35632,10 +35635,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -35649,10 +35652,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -35666,10 +35669,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -35683,10 +35686,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -35700,10 +35703,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -35713,29 +35716,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -35743,29 +35746,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -35777,10 +35780,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -35799,10 +35802,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -35821,10 +35824,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -35843,10 +35846,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31730" windowHeight="14830"/>
+    <workbookView windowHeight="14830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>ID</t>
   </si>
@@ -174,25 +174,46 @@
     <t>ClickTaskDetailsTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_14,-3|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_14,-78|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:BulletinBoardPanel,TaskCont/Viewport/TaskContParent/TaskBackImg9001/FuncBtn</t>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Top/Right/FuncBtn</t>
   </si>
   <si>
-    <t>选择弟子执行任务</t>
+    <t>选择弟子按钮</t>
   </si>
   <si>
-    <t>SelectCharacterOnTaskTrigger1</t>
+    <t>SelectCharacterOnTaskBtnTrigger1</t>
   </si>
   <si>
     <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:TaskDetailsPanel,Bg/GameObject/AcceptBtn</t>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Bottom/MiddleDown/BulletinBoardDisciple(Clone)</t>
   </si>
   <si>
-    <t>派遣</t>
+    <t>选择弟子</t>
+  </si>
+  <si>
+    <t>SelectCharacterPanelTrigger1</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:BulletinBoardChooseDisciple,Top/Scroll View/Viewport/Cont/ChoosePanelDisciple(Clone)</t>
+  </si>
+  <si>
+    <t>确认选择</t>
+  </si>
+  <si>
+    <t>SelectCharacterSureTrigger1</t>
+  </si>
+  <si>
+    <t>UINodeFinder:BulletinBoardChooseDisciple,ConfirmBtn</t>
+  </si>
+  <si>
+    <t>前往</t>
   </si>
   <si>
     <t>SendCharacterOnTaskTrigger1</t>
@@ -201,7 +222,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_39,13|79,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:SendDisciplesPanel,Bg/AutoSelectedBtn</t>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Bottom/Down/GoToBtn</t>
   </si>
   <si>
     <t>ClickTaskBtnTrigger11</t>
@@ -213,10 +234,16 @@
     <t>领取任务奖励</t>
   </si>
   <si>
+    <t>ReceiveTaskRewardBtnTrigger1</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_16,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>ReceiveTaskRewardTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_16,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Bottom/Down/Promptly</t>
   </si>
   <si>
     <t>DialogTrigger5</t>
@@ -276,25 +303,37 @@
     <t>ClickTaskDetailsTrigger2</t>
   </si>
   <si>
-    <t>UINodeFinder:BulletinBoardPanel,TaskCont/Viewport/TaskContParent/TaskBackImg9002/FuncBtn</t>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9002/Top/Right/FuncBtn</t>
   </si>
   <si>
-    <t>SelectCharacterOnTaskTrigger2</t>
+    <t>SelectCharacterOnTaskBtnTrigger2</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_14,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9002/Bottom/MiddleDown/BulletinBoardDisciple(Clone)</t>
   </si>
   <si>
-    <t>派遣弟子执行任务</t>
+    <t>SelectCharacterPanelTrigger2</t>
+  </si>
+  <si>
+    <t>SelectCharacterSureTrigger2</t>
   </si>
   <si>
     <t>SendCharacterOnTaskTrigger2</t>
   </si>
   <si>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9002/Bottom/Down/GoToBtn</t>
+  </si>
+  <si>
     <t>ClickTaskBtnTrigger22</t>
   </si>
   <si>
+    <t>ReceiveTaskRewardBtnTrigger2</t>
+  </si>
+  <si>
     <t>ReceiveTaskRewardTrigger2</t>
+  </si>
+  <si>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9002/Bottom/Down/Promptly</t>
   </si>
   <si>
     <t>剧情引导（建造伙房）</t>
@@ -547,11 +586,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -582,67 +621,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -658,15 +636,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,10 +649,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,7 +667,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,6 +736,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,10 +758,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -747,31 +786,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,31 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,19 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,60 +870,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -915,13 +882,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,17 +1114,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,52 +1176,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,16 +1196,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,133 +1229,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1770,14 +1809,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD64"/>
+  <dimension ref="A1:XFD70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -1787,7 +1826,7 @@
     <col min="3" max="3" width="27.75" style="18" customWidth="1"/>
     <col min="4" max="4" width="34.5833333333333" customWidth="1"/>
     <col min="5" max="5" width="86.9166666666667" customWidth="1"/>
-    <col min="6" max="6" width="80.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="100.666666666667" customWidth="1"/>
     <col min="7" max="7" width="64.75" customWidth="1"/>
     <col min="8" max="8" width="27.5833333333333" customWidth="1"/>
   </cols>
@@ -1896,7 +1935,7 @@
     </row>
     <row r="5" spans="1:16384">
       <c r="A5" s="20">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="B5" s="20">
         <v>1</v>
@@ -18291,7 +18330,7 @@
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" s="20">
-        <v>10002</v>
+        <v>10201</v>
       </c>
       <c r="B6" s="20">
         <v>2</v>
@@ -34686,7 +34725,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20">
-        <v>10003</v>
+        <v>10301</v>
       </c>
       <c r="B7" s="21">
         <v>3</v>
@@ -34709,7 +34748,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20">
-        <v>10004</v>
+        <v>10401</v>
       </c>
       <c r="B9" s="21">
         <v>4</v>
@@ -34729,7 +34768,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="20">
-        <v>10005</v>
+        <v>10402</v>
       </c>
       <c r="B10" s="21">
         <v>4</v>
@@ -34757,7 +34796,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20">
-        <v>10006</v>
+        <v>10501</v>
       </c>
       <c r="B12" s="21">
         <v>5</v>
@@ -34778,7 +34817,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="20">
-        <v>10007</v>
+        <v>10601</v>
       </c>
       <c r="B14" s="21">
         <v>6</v>
@@ -34798,7 +34837,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="20">
-        <v>10008</v>
+        <v>10602</v>
       </c>
       <c r="B15" s="21">
         <v>6</v>
@@ -34826,7 +34865,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20">
-        <v>10009</v>
+        <v>10701</v>
       </c>
       <c r="B17" s="21">
         <v>7</v>
@@ -34847,7 +34886,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20">
-        <v>10010</v>
+        <v>10801</v>
       </c>
       <c r="B19" s="21">
         <v>8</v>
@@ -34867,7 +34906,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="20">
-        <v>10011</v>
+        <v>10802</v>
       </c>
       <c r="B20" s="21">
         <v>8</v>
@@ -34887,7 +34926,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="20">
-        <v>10012</v>
+        <v>10803</v>
       </c>
       <c r="B21" s="21">
         <v>8</v>
@@ -34901,13 +34940,13 @@
       <c r="E21" t="s">
         <v>55</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:6">
       <c r="A22" s="20">
-        <v>10013</v>
+        <v>10804</v>
       </c>
       <c r="B22" s="21">
         <v>8</v>
@@ -34921,373 +34960,405 @@
       <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H22" t="b">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="20">
+        <v>10805</v>
+      </c>
+      <c r="B23" s="21">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="20">
+        <v>10806</v>
+      </c>
+      <c r="B24" s="21">
+        <v>8</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="20">
-        <v>10014</v>
-      </c>
-      <c r="B24" s="21">
-        <v>9</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="20">
-        <v>10015</v>
-      </c>
-      <c r="B25" s="21">
-        <v>9</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="F26" s="22"/>
+      <c r="A26" s="20">
+        <v>10901</v>
+      </c>
+      <c r="B26" s="21">
+        <v>9</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:8">
       <c r="A27" s="20">
-        <v>10016</v>
+        <v>10902</v>
       </c>
       <c r="B27" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20">
+        <v>10903</v>
+      </c>
+      <c r="B28" s="21">
+        <v>9</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="20">
-        <v>10017</v>
-      </c>
-      <c r="B29" s="21">
-        <v>11</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:5">
       <c r="A30" s="20">
-        <v>10018</v>
+        <v>11001</v>
       </c>
       <c r="B30" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:2">
       <c r="A31" s="20"/>
       <c r="B31" s="21"/>
-      <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="20">
-        <v>10019</v>
+        <v>11101</v>
       </c>
       <c r="B32" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="20">
+        <v>11102</v>
+      </c>
+      <c r="B33" s="21">
+        <v>11</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="20">
-        <v>10020</v>
-      </c>
-      <c r="B34" s="21">
-        <v>13</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>37</v>
-      </c>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:5">
       <c r="A35" s="20">
-        <v>10021</v>
+        <v>11201</v>
       </c>
       <c r="B35" s="21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:2">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
-      <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="20">
-        <v>10022</v>
+        <v>11301</v>
       </c>
       <c r="B37" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>36</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="20">
+        <v>11302</v>
+      </c>
+      <c r="B38" s="21">
+        <v>13</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="20">
-        <v>10023</v>
-      </c>
-      <c r="B39" s="21">
-        <v>15</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>48</v>
-      </c>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" s="20">
-        <v>10024</v>
+        <v>11401</v>
       </c>
       <c r="B40" s="21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="20">
-        <v>10025</v>
-      </c>
-      <c r="B41" s="21">
-        <v>15</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" t="s">
-        <v>56</v>
-      </c>
+    <row r="41" spans="1:2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:6">
       <c r="A42" s="20">
-        <v>10026</v>
+        <v>11501</v>
       </c>
       <c r="B42" s="21">
         <v>15</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
+    <row r="43" spans="1:6">
+      <c r="A43" s="20">
+        <v>11502</v>
+      </c>
+      <c r="B43" s="21">
+        <v>15</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="20">
-        <v>10027</v>
+        <v>11503</v>
       </c>
       <c r="B44" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:6">
       <c r="A45" s="20">
-        <v>10028</v>
+        <v>11504</v>
       </c>
       <c r="B45" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="20">
+        <v>11505</v>
+      </c>
+      <c r="B46" s="21">
+        <v>15</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D45" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" t="b">
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="20">
+        <v>11506</v>
+      </c>
+      <c r="B47" s="21">
+        <v>15</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="20">
-        <v>10029</v>
-      </c>
-      <c r="B47" s="21">
-        <v>17</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -35296,102 +35367,98 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="20">
-        <v>10030</v>
+        <v>11601</v>
       </c>
       <c r="B49" s="21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="20">
-        <v>10031</v>
+        <v>11602</v>
       </c>
       <c r="B50" s="21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
         <v>72</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="F51" s="22"/>
+      <c r="A51" s="20">
+        <v>11603</v>
+      </c>
+      <c r="B51" s="21">
+        <v>16</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="20">
-        <v>10032</v>
-      </c>
-      <c r="B52" s="21">
-        <v>19</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" t="s">
-        <v>103</v>
-      </c>
+    <row r="52" spans="1:2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:5">
       <c r="A53" s="20">
-        <v>10033</v>
+        <v>11701</v>
       </c>
       <c r="B53" s="21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="18" t="s">
         <v>105</v>
       </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
       <c r="E53" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="22" t="s">
         <v>107</v>
-      </c>
-      <c r="H53" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="20">
-        <v>10034</v>
+        <v>11801</v>
       </c>
       <c r="B55" s="21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>108</v>
@@ -35402,155 +35469,247 @@
       <c r="E55" t="s">
         <v>110</v>
       </c>
+      <c r="F55" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8">
       <c r="A56" s="20">
-        <v>10035</v>
+        <v>11802</v>
       </c>
       <c r="B56" s="21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>113</v>
+        <v>30</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="20">
-        <v>10036</v>
-      </c>
-      <c r="B57" s="21">
-        <v>20</v>
-      </c>
-      <c r="C57" s="18" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="20">
+        <v>11901</v>
+      </c>
+      <c r="B58" s="21">
+        <v>19</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>115</v>
       </c>
-      <c r="E57" t="s">
-        <v>72</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" t="b">
+      <c r="E58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="20">
+        <v>11902</v>
+      </c>
+      <c r="B59" s="21">
+        <v>19</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="20">
-        <v>10037</v>
-      </c>
-      <c r="B59" s="21">
-        <v>21</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="20">
-        <v>10038</v>
-      </c>
-      <c r="B60" s="21">
-        <v>22</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" t="s">
-        <v>121</v>
-      </c>
+    <row r="60" spans="1:2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="20">
-        <v>10039</v>
+        <v>12001</v>
       </c>
       <c r="B61" s="21">
+        <v>20</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="20">
+        <v>12002</v>
+      </c>
+      <c r="B62" s="21">
+        <v>20</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="20">
+        <v>12003</v>
+      </c>
+      <c r="B63" s="21">
+        <v>20</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="20">
+        <v>12101</v>
+      </c>
+      <c r="B65" s="21">
+        <v>21</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="20">
+        <v>12201</v>
+      </c>
+      <c r="B66" s="21">
+        <v>22</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="20">
+        <v>12301</v>
+      </c>
+      <c r="B67" s="21">
         <v>23</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" t="s">
-        <v>124</v>
+      <c r="C67" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="20">
-        <v>10040</v>
-      </c>
-      <c r="B62" s="21">
+    <row r="68" spans="1:5">
+      <c r="A68" s="20">
+        <v>12401</v>
+      </c>
+      <c r="B68" s="21">
         <v>24</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" t="s">
-        <v>127</v>
+      <c r="C68" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="20">
-        <v>10041</v>
-      </c>
-      <c r="B63" s="21">
+    <row r="69" spans="1:5">
+      <c r="A69" s="20">
+        <v>12501</v>
+      </c>
+      <c r="B69" s="21">
         <v>25</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" t="s">
-        <v>130</v>
+      <c r="C69" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="20">
-        <v>10042</v>
-      </c>
-      <c r="B64" s="21">
+    <row r="70" spans="1:5">
+      <c r="A70" s="20">
+        <v>12601</v>
+      </c>
+      <c r="B70" s="21">
         <v>26</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>133</v>
+      <c r="C70" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -35577,56 +35736,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -35635,10 +35794,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -35652,10 +35811,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -35669,10 +35828,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -35686,10 +35845,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -35703,10 +35862,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -35716,29 +35875,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -35746,29 +35905,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>150</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -35780,10 +35939,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -35802,10 +35961,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -35824,10 +35983,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>156</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -35846,10 +36005,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14830"/>
+    <workbookView windowHeight="18550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t>ID</t>
   </si>
@@ -174,7 +174,7 @@
     <t>ClickTaskDetailsTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_14,-78|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_14,-78|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
     <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Top/Right/FuncBtn</t>
@@ -186,7 +186,7 @@
     <t>SelectCharacterOnTaskBtnTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
     <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Bottom/MiddleDown/BulletinBoardDisciple(Clone)</t>
@@ -198,16 +198,19 @@
     <t>SelectCharacterPanelTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
-    <t>UINodeFinder:BulletinBoardChooseDisciple,Top/Scroll View/Viewport/Cont/ChoosePanelDisciple(Clone)</t>
+    <t>UINodeFinder:BulletinBoardChooseDisciple,Top/Scroll View/Viewport/Cont/ChooseSelectedDisciple0</t>
   </si>
   <si>
     <t>确认选择</t>
   </si>
   <si>
     <t>SelectCharacterSureTrigger1</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:BulletinBoardChooseDisciple,ConfirmBtn</t>
@@ -219,7 +222,7 @@
     <t>SendCharacterOnTaskTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_39,13|79,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_39,13|79,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
     <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Bottom/Down/GoToBtn</t>
@@ -228,7 +231,7 @@
     <t>ClickTaskBtnTrigger11</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_13,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_13,20|113,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>领取任务奖励</t>
@@ -312,7 +315,22 @@
     <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9002/Bottom/MiddleDown/BulletinBoardDisciple(Clone)</t>
   </si>
   <si>
-    <t>SelectCharacterPanelTrigger2</t>
+    <t>选择弟子1</t>
+  </si>
+  <si>
+    <t>SelectCharacterPanelTrigger2_1</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>选择弟子2</t>
+  </si>
+  <si>
+    <t>SelectCharacterPanelTrigger2_2</t>
+  </si>
+  <si>
+    <t>UINodeFinder:BulletinBoardChooseDisciple,Top/Scroll View/Viewport/Cont/ChooseSelectedDisciple1</t>
   </si>
   <si>
     <t>SelectCharacterSureTrigger2</t>
@@ -586,11 +604,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -621,8 +639,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,6 +649,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,7 +677,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,9 +691,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,22 +730,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,14 +745,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,7 +769,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,7 +804,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,13 +906,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,49 +942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,37 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,55 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,11 +1132,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,17 +1176,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,24 +1206,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,10 +1235,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1232,16 +1250,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1250,112 +1268,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1809,14 +1827,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD70"/>
+  <dimension ref="A1:XFD71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
@@ -34978,10 +34996,10 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -34992,16 +35010,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -35022,10 +35040,10 @@
         <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>48</v>
@@ -35039,13 +35057,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>52</v>
@@ -35062,16 +35080,16 @@
         <v>9</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" t="s">
-        <v>72</v>
-      </c>
       <c r="F28" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -35090,10 +35108,10 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -35111,13 +35129,13 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -35131,10 +35149,10 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>30</v>
@@ -35156,13 +35174,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -35180,7 +35198,7 @@
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -35197,16 +35215,16 @@
         <v>13</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
@@ -35228,10 +35246,10 @@
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -35249,7 +35267,7 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
         <v>47</v>
@@ -35269,13 +35287,13 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
         <v>51</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -35289,13 +35307,13 @@
         <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -35306,13 +35324,13 @@
         <v>15</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>60</v>
@@ -35326,19 +35344,19 @@
         <v>15</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:6">
       <c r="A47" s="20">
         <v>11506</v>
       </c>
@@ -35346,370 +35364,390 @@
         <v>15</v>
       </c>
       <c r="C47" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" t="b">
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="20">
+        <v>11507</v>
+      </c>
+      <c r="B48" s="21">
+        <v>15</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
+    <row r="49" spans="1:2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="20">
+    <row r="50" spans="1:6">
+      <c r="A50" s="20">
         <v>11601</v>
-      </c>
-      <c r="B49" s="21">
-        <v>16</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="20">
-        <v>11602</v>
       </c>
       <c r="B50" s="21">
         <v>16</v>
       </c>
       <c r="C50" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
         <v>70</v>
       </c>
-      <c r="D50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>72</v>
-      </c>
       <c r="F50" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H50" t="b">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8">
       <c r="A51" s="20">
-        <v>11603</v>
+        <v>11602</v>
       </c>
       <c r="B51" s="21">
         <v>16</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="20">
+        <v>11603</v>
+      </c>
+      <c r="B52" s="21">
+        <v>16</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="20">
+    <row r="53" spans="1:2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="20">
         <v>11701</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B54" s="21">
         <v>17</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" t="s">
-        <v>107</v>
+      <c r="C54" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
+    <row r="55" spans="1:2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="20">
+    <row r="56" spans="1:6">
+      <c r="A56" s="20">
         <v>11801</v>
-      </c>
-      <c r="B55" s="21">
-        <v>18</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="20">
-        <v>11802</v>
       </c>
       <c r="B56" s="21">
         <v>18</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="F56" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="20">
+        <v>11802</v>
+      </c>
+      <c r="B57" s="21">
+        <v>18</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H56" t="b">
+      <c r="H57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="F57" s="22"/>
+    <row r="58" spans="1:6">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="F58" s="22"/>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="20">
+    <row r="59" spans="1:5">
+      <c r="A59" s="20">
         <v>11901</v>
-      </c>
-      <c r="B58" s="21">
-        <v>19</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="20">
-        <v>11902</v>
       </c>
       <c r="B59" s="21">
         <v>19</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H59" t="b">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="20">
+        <v>11902</v>
+      </c>
+      <c r="B60" s="21">
+        <v>19</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
+    <row r="61" spans="1:2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="20">
+    <row r="62" spans="1:5">
+      <c r="A62" s="20">
         <v>12001</v>
-      </c>
-      <c r="B61" s="21">
-        <v>20</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="20">
-        <v>12002</v>
       </c>
       <c r="B62" s="21">
         <v>20</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:6">
       <c r="A63" s="20">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B63" s="21">
         <v>20</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="F63" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="20">
+        <v>12003</v>
+      </c>
+      <c r="B64" s="21">
+        <v>20</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H63" t="b">
+      <c r="H64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="20">
-        <v>12101</v>
-      </c>
-      <c r="B65" s="21">
-        <v>21</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" t="s">
-        <v>131</v>
-      </c>
+    <row r="65" spans="1:6">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="20">
-        <v>12201</v>
+        <v>12101</v>
       </c>
       <c r="B66" s="21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="20">
-        <v>12301</v>
+        <v>12201</v>
       </c>
       <c r="B67" s="21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="20">
-        <v>12401</v>
+        <v>12301</v>
       </c>
       <c r="B68" s="21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="20">
-        <v>12501</v>
+        <v>12401</v>
       </c>
       <c r="B69" s="21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="20">
+        <v>12501</v>
+      </c>
+      <c r="B70" s="21">
+        <v>25</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="20">
         <v>12601</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B71" s="21">
         <v>26</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D70" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" t="s">
-        <v>146</v>
+      <c r="C71" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -35736,56 +35774,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -35794,10 +35832,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -35811,10 +35849,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -35828,10 +35866,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -35845,10 +35883,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -35862,10 +35900,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -35875,29 +35913,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -35905,29 +35943,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -35939,10 +35977,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -35961,10 +35999,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -35983,10 +36021,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -36005,10 +36043,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -396,7 +396,7 @@
     <t>SendCharacterWorkTrigger</t>
   </si>
   <si>
-    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_29,TRUE;MyDelayCommand:0.4;</t>
+    <t>GuideClickBubbleCommand:#0,38|-8,StoryPanel_Text_29;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
@@ -604,9 +604,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -640,17 +640,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,29 +663,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,35 +730,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -767,9 +746,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +762,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,13 +804,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,13 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +852,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,109 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,35 +1132,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,15 +1156,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1200,17 +1167,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,16 +1185,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,133 +1247,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1830,11 +1830,11 @@
   <dimension ref="A1:XFD71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18550"/>
+    <workbookView windowWidth="28760" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -165,7 +165,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_13,22|108,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:MainMenuPanel,MenuList/BulletinBoardBtn</t>
+    <t>UINodeFinder:MainMenuPanel,BulletinBoardBtn</t>
   </si>
   <si>
     <t>查看任务详情</t>
@@ -604,11 +604,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -639,38 +639,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,6 +669,52 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
@@ -700,14 +724,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -722,32 +746,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,7 +762,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,14 +777,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,25 +804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +828,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,6 +864,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -864,13 +936,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,103 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,17 +1141,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,6 +1161,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,8 +1209,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,25 +1229,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,133 +1247,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1830,11 +1830,11 @@
   <dimension ref="A1:XFD71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -168,6 +168,15 @@
     <t>EntityRoot/SimSection/RawMatCollectItems/WuWood/Bubble/Sprite</t>
   </si>
   <si>
+    <t>剧情引导(弟子会自动工作)</t>
+  </si>
+  <si>
+    <t>DiscipleAutoWorkTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_56;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>砍树进度</t>
   </si>
   <si>
@@ -186,7 +195,7 @@
     <t>DialogTrigger5</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_17,StoryPanel_Text_18;MyDelayCommand:0.4;</t>
+    <t>DialogCommand:StoryPanel_Text_18;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>BuildFacilityTrigger2</t>
@@ -276,6 +285,15 @@
     <t>BuildFacilityPanel_KitchenTrigger</t>
   </si>
   <si>
+    <t>公告榜介绍</t>
+  </si>
+  <si>
+    <t>TaskPanelTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_55;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>点击公告榜按钮</t>
   </si>
   <si>
@@ -388,18 +406,6 @@
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,VisitorsList/VisitorsBtn/Button</t>
-  </si>
-  <si>
-    <t>点击访客面板收下按钮</t>
-  </si>
-  <si>
-    <t>ClickVisitorPanelAcceptBtnTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_43,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:VisitorPanel,Bg/AcceptBtn</t>
   </si>
   <si>
     <t>资源上限后建造仓库</t>
@@ -778,10 +784,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -835,24 +841,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,7 +850,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,23 +863,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,8 +904,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,15 +942,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,6 +959,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,7 +992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,13 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,13 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,7 +1028,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,13 +1064,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,25 +1142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,43 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,19 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,6 +1320,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1329,11 +1346,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,21 +1409,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1376,51 +1417,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1432,134 +1438,134 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1630,6 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2034,14 +2041,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2360,7 +2367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="18">
         <v>10802</v>
       </c>
@@ -2370,65 +2377,63 @@
       <c r="C20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="18">
+        <v>10803</v>
+      </c>
+      <c r="B21" s="19">
+        <v>8</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="18" t="b">
+      <c r="D21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="18">
+    <row r="23" spans="1:5">
+      <c r="A23" s="18">
         <v>10901</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B23" s="19">
         <v>9</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="18">
+      <c r="C23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18">
         <v>11001</v>
-      </c>
-      <c r="B24" s="19">
-        <v>10</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="18">
-        <v>11002</v>
       </c>
       <c r="B25" s="19">
         <v>10</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>59</v>
@@ -2437,934 +2442,948 @@
         <v>60</v>
       </c>
       <c r="F25" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="18">
+        <v>11002</v>
+      </c>
+      <c r="B26" s="19">
+        <v>10</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="18" t="b">
+      <c r="H26" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="18">
+    <row r="28" spans="1:5">
+      <c r="A28" s="18">
         <v>11101</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B28" s="19">
         <v>11</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="18">
+      <c r="C28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18">
         <v>11201</v>
-      </c>
-      <c r="B29" s="19">
-        <v>12</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="18">
-        <v>11202</v>
       </c>
       <c r="B30" s="19">
         <v>12</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F30" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="18">
+        <v>11202</v>
+      </c>
+      <c r="B31" s="19">
+        <v>12</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="18" t="b">
+      <c r="D31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="18">
+    <row r="33" spans="1:5">
+      <c r="A33" s="18">
         <v>11301</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B33" s="19">
         <v>13</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="18">
+      <c r="C33" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18">
         <v>11401</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B35" s="19">
         <v>14</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="23" t="s">
+      <c r="C35" s="19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="18">
+      <c r="D35" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="18">
         <v>11501</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B37" s="19">
         <v>15</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="18">
+      <c r="C37" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="18">
         <v>11601</v>
-      </c>
-      <c r="B38" s="19">
-        <v>16</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="18">
-        <v>11602</v>
       </c>
       <c r="B39" s="19">
         <v>16</v>
       </c>
       <c r="C39" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="E39" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>60</v>
-      </c>
       <c r="F39" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="18">
+        <v>11602</v>
+      </c>
+      <c r="B40" s="19">
+        <v>16</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="18" t="b">
+      <c r="H40" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="18">
+    <row r="42" spans="1:5">
+      <c r="A42" s="18">
         <v>11701</v>
-      </c>
-      <c r="B41" s="19">
-        <v>17</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="18">
-        <v>11702</v>
       </c>
       <c r="B42" s="19">
         <v>17</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="E42" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="18">
-        <v>11703</v>
+        <v>11702</v>
       </c>
       <c r="B43" s="19">
         <v>17</v>
       </c>
       <c r="C43" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="F43" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="18">
-        <v>11704</v>
+        <v>11703</v>
       </c>
       <c r="B44" s="19">
         <v>17</v>
       </c>
       <c r="C44" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="F44" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="18">
-        <v>11705</v>
+        <v>11704</v>
       </c>
       <c r="B45" s="19">
         <v>17</v>
       </c>
       <c r="C45" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="F45" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="18">
-        <v>11706</v>
+        <v>11705</v>
       </c>
       <c r="B46" s="19">
         <v>17</v>
       </c>
       <c r="C46" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="F46" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="18">
-        <v>11707</v>
+        <v>11706</v>
       </c>
       <c r="B47" s="19">
         <v>17</v>
       </c>
       <c r="C47" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="F47" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="20" t="s">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="18">
+        <v>11707</v>
+      </c>
+      <c r="B48" s="19">
+        <v>17</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="D48" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H47" s="18" t="b">
+      <c r="E48" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="18">
+        <v>11708</v>
+      </c>
+      <c r="B49" s="19">
+        <v>17</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="18">
+    <row r="51" spans="1:6">
+      <c r="A51" s="18">
         <v>11801</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B51" s="19">
         <v>18</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="18">
+      <c r="C51" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="23"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="18">
         <v>11901</v>
-      </c>
-      <c r="B51" s="19">
-        <v>19</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="18">
-        <v>11902</v>
-      </c>
-      <c r="B52" s="19">
-        <v>19</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="18">
-        <v>11903</v>
       </c>
       <c r="B53" s="19">
         <v>19</v>
       </c>
       <c r="C53" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="E53" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="20" t="s">
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="18">
+        <v>11902</v>
+      </c>
+      <c r="B54" s="19">
+        <v>19</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="D54" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H53" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="18">
+      <c r="E54" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="18">
         <v>12001</v>
-      </c>
-      <c r="B55" s="19">
-        <v>20</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="18">
-        <v>12002</v>
       </c>
       <c r="B56" s="19">
         <v>20</v>
       </c>
       <c r="C56" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="E56" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="18">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B57" s="19">
         <v>20</v>
       </c>
       <c r="C57" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="E57" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E57" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57" s="23" t="s">
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="18">
+        <v>12003</v>
+      </c>
+      <c r="B58" s="19">
+        <v>20</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="18" t="b">
+      <c r="H58" s="18" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="18">
-        <v>12101</v>
-      </c>
-      <c r="B59" s="19">
-        <v>21</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="18">
-        <v>12201</v>
+        <v>12101</v>
       </c>
       <c r="B60" s="19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="E60" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="18">
+        <v>12201</v>
+      </c>
+      <c r="B61" s="19">
+        <v>22</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="18">
         <v>12301</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B62" s="19">
         <v>23</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="18">
+      <c r="D62" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:5">
+      <c r="A63" s="18">
         <v>12401</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B63" s="19">
         <v>24</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="20" t="s">
+      <c r="C63" s="19" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="18">
-        <v>12501</v>
-      </c>
-      <c r="B63" s="19">
-        <v>25</v>
-      </c>
-      <c r="C63" s="19" t="s">
+      <c r="D63" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="E63" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="18">
+        <v>12501</v>
+      </c>
+      <c r="B64" s="19">
+        <v>25</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="18">
         <v>12601</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B65" s="19">
         <v>26</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="18">
+      <c r="D65" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="18">
         <v>12701</v>
-      </c>
-      <c r="B66" s="18">
-        <v>27</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="18">
-        <v>12702</v>
       </c>
       <c r="B67" s="18">
         <v>27</v>
       </c>
       <c r="C67" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="E67" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="18">
-        <v>12703</v>
+        <v>12702</v>
       </c>
       <c r="B68" s="18">
         <v>27</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="E68" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:6">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="18">
-        <v>12704</v>
+        <v>12703</v>
       </c>
       <c r="B69" s="18">
         <v>27</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="E69" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="E69" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" customHeight="1" spans="1:6">
       <c r="A70" s="18">
-        <v>12705</v>
+        <v>12704</v>
       </c>
       <c r="B70" s="18">
         <v>27</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="E70" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E70" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="18">
-        <v>12706</v>
+        <v>12705</v>
       </c>
       <c r="B71" s="18">
         <v>27</v>
       </c>
       <c r="C71" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="E71" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E71" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F71" s="23" t="s">
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="18">
+        <v>12706</v>
+      </c>
+      <c r="B72" s="18">
+        <v>27</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H71" s="18" t="b">
+      <c r="D72" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H72" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="18"/>
-      <c r="C72" s="25"/>
-      <c r="F72" s="23"/>
-    </row>
-    <row r="73" customFormat="1" spans="1:5">
-      <c r="A73" s="26">
+    <row r="73" spans="2:6">
+      <c r="B73" s="18"/>
+      <c r="C73" s="26"/>
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" customFormat="1" spans="1:5">
+      <c r="A74" s="27">
         <v>12801</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B74" s="27">
         <v>28</v>
       </c>
-      <c r="C73" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="E73" s="20" t="s">
+      <c r="C74" s="28" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:6">
-      <c r="A74" s="26">
+      <c r="D74" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:6">
+      <c r="A75" s="27">
         <v>12802</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B75" s="27">
         <v>28</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F74" s="23" t="s">
+      <c r="C75" s="29" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:6">
-      <c r="A75" s="26">
+      <c r="D75" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:6">
+      <c r="A76" s="27">
         <v>12803</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B76" s="27">
         <v>28</v>
       </c>
-      <c r="C75" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F75" s="23" t="s">
+      <c r="C76" s="30" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:6">
-      <c r="A76" s="26">
+      <c r="D76" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:6">
+      <c r="A77" s="27">
         <v>12804</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B77" s="27">
         <v>28</v>
       </c>
-      <c r="C76" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F76" s="23" t="s">
+      <c r="C77" s="30" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:6">
-      <c r="A77" s="26">
+      <c r="D77" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:6">
+      <c r="A78" s="27">
         <v>12805</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B78" s="27">
         <v>28</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F77" s="23" t="s">
+      <c r="C78" s="29" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:8">
-      <c r="A78" s="26">
+      <c r="D78" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:8">
+      <c r="A79" s="27">
         <v>12806</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B79" s="27">
         <v>28</v>
       </c>
-      <c r="C78" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F78" s="23" t="s">
+      <c r="C79" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="H78" t="b">
+      <c r="D79" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H79" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="18">
+    <row r="81" spans="1:5">
+      <c r="A81" s="18">
         <v>12901</v>
       </c>
-      <c r="B80" s="26">
+      <c r="B81" s="27">
         <v>29</v>
       </c>
-      <c r="C80" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="E80" s="20" t="s">
+      <c r="C81" s="29" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="18">
-        <v>12902</v>
-      </c>
-      <c r="B81" s="26">
-        <v>29</v>
-      </c>
-      <c r="C81" s="28" t="s">
+      <c r="D81" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="E81" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="18">
-        <v>12903</v>
-      </c>
-      <c r="B82" s="26">
+        <v>12902</v>
+      </c>
+      <c r="B82" s="27">
         <v>29</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="F82" s="23" t="s">
         <v>193</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="18">
-        <v>12904</v>
-      </c>
-      <c r="B83" s="26">
+        <v>12903</v>
+      </c>
+      <c r="B83" s="27">
         <v>29</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="F83" s="23" t="s">
         <v>197</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="18">
-        <v>12905</v>
-      </c>
-      <c r="B84" s="26">
+        <v>12904</v>
+      </c>
+      <c r="B84" s="27">
         <v>29</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="F84" s="23" t="s">
         <v>201</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="18">
+        <v>12905</v>
+      </c>
+      <c r="B85" s="27">
+        <v>29</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="18">
         <v>12906</v>
       </c>
-      <c r="B85" s="26">
+      <c r="B86" s="27">
         <v>29</v>
       </c>
-      <c r="C85" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" s="20" t="s">
+      <c r="C86" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="D86" s="29" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="18">
+      <c r="E86" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="18">
         <v>12907</v>
       </c>
-      <c r="B86" s="26">
+      <c r="B87" s="27">
         <v>29</v>
       </c>
-      <c r="C86" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="20" t="s">
+      <c r="C87" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="F86" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H86" t="b">
+      <c r="D87" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H87" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3392,56 +3411,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>223</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3450,10 +3469,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3467,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3484,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3501,10 +3520,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3518,10 +3537,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3531,29 +3550,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3561,29 +3580,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>227</v>
+        <v>242</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3595,10 +3614,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>229</v>
+        <v>246</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3617,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>231</v>
+        <v>247</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3639,10 +3658,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>233</v>
+        <v>248</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3661,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>235</v>
+        <v>249</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -785,8 +785,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -827,6 +827,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -834,8 +902,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,34 +941,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,23 +957,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -919,53 +964,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,13 +992,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,43 +1076,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,49 +1142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,55 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,12 +1320,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1346,6 +1359,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1357,24 +1379,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,17 +1398,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1423,10 +1423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1435,133 +1435,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2044,11 +2044,11 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="257">
   <si>
     <t>ID</t>
   </si>
@@ -658,6 +658,27 @@
   </si>
   <si>
     <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.9;</t>
+  </si>
+  <si>
+    <t>出现工作气泡</t>
+  </si>
+  <si>
+    <t>DialogTrigger8</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_57;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>SendCharacterWorkTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickBubbleCommand:#0,38|-8,StoryPanel_Text_58;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
   </si>
   <si>
     <t>模块</t>
@@ -786,8 +807,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -828,8 +849,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,46 +871,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,17 +894,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -926,8 +924,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,15 +934,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,14 +971,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,6 +1013,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1004,13 +1085,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,13 +1145,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,127 +1175,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,6 +1341,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1335,11 +1380,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1362,38 +1422,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1408,25 +1438,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1435,137 +1456,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1655,6 +1676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2041,14 +2063,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3384,6 +3406,47 @@
         <v>118</v>
       </c>
       <c r="H87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:5">
+      <c r="A89" s="27">
+        <v>13001</v>
+      </c>
+      <c r="B89" s="29">
+        <v>30</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:8">
+      <c r="A90" s="27">
+        <v>13002</v>
+      </c>
+      <c r="B90" s="29">
+        <v>30</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" t="s">
+        <v>218</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3411,56 +3474,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>223</v>
+        <v>229</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3469,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>229</v>
+        <v>235</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3486,10 +3549,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>231</v>
+        <v>237</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>238</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3503,10 +3566,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>233</v>
+        <v>239</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3520,10 +3583,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>235</v>
+        <v>241</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3537,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>237</v>
+        <v>243</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3550,29 +3613,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3580,29 +3643,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>229</v>
+        <v>249</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3614,10 +3677,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>231</v>
+        <v>253</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>238</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3636,10 +3699,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>233</v>
+        <v>254</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3658,10 +3721,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>235</v>
+        <v>255</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3680,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>237</v>
+        <v>256</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="261">
   <si>
     <t>ID</t>
   </si>
@@ -484,6 +484,18 @@
   </si>
   <si>
     <t>DialogCommand:StoryPanel_Text_36;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>收集系统遮罩引导</t>
+  </si>
+  <si>
+    <t>CollectSystem_ClickLotusrootTrigger</t>
+  </si>
+  <si>
+    <t>DialogWithCircleMaskCommand:#0,StoryPanel_Text_59;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/CollectItem/LotusRoot/Bubble</t>
   </si>
   <si>
     <t>武功秘籍引导</t>
@@ -805,11 +817,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -848,46 +860,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,7 +876,84 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,40 +967,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,7 +982,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -971,7 +990,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,13 +999,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,7 +1025,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +1097,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,133 +1175,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,30 +1353,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1391,6 +1379,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,10 +1456,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1456,137 +1468,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1639,6 +1651,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,6 +1674,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2063,1390 +2080,1409 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="46.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="92.5833333333333" style="20" customWidth="1"/>
-    <col min="6" max="6" width="98.3333333333333" style="20" customWidth="1"/>
-    <col min="7" max="7" width="24.5833333333333" style="18" customWidth="1"/>
-    <col min="8" max="8" width="27.5833333333333" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="18"/>
+    <col min="1" max="1" width="12.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="46.5" style="19" customWidth="1"/>
+    <col min="5" max="5" width="92.5833333333333" style="21" customWidth="1"/>
+    <col min="6" max="6" width="98.3333333333333" style="21" customWidth="1"/>
+    <col min="7" max="7" width="24.5833333333333" style="19" customWidth="1"/>
+    <col min="8" max="8" width="27.5833333333333" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18">
+      <c r="A5" s="19">
         <v>10101</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18">
+      <c r="A6" s="19">
         <v>10201</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18">
+      <c r="A7" s="19">
         <v>10301</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="6:6">
-      <c r="F8" s="23"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18">
+      <c r="A9" s="19">
         <v>10401</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>10402</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <v>4</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="18" t="b">
+      <c r="H10" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="6:6">
-      <c r="F11" s="23"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>10501</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <v>5</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18">
+      <c r="A14" s="19">
         <v>10601</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="18">
+      <c r="A15" s="19">
         <v>10602</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="20">
         <v>6</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="18" t="b">
+      <c r="H15" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="6:6">
-      <c r="F16" s="23"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>10701</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="20">
         <v>7</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="18">
+      <c r="A19" s="19">
         <v>10801</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="20">
         <v>8</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>10802</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="20">
         <v>8</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>10803</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="20">
         <v>8</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="18" t="b">
+      <c r="H21" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="18">
+      <c r="A23" s="19">
         <v>10901</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="20">
         <v>9</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <v>11001</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="20">
         <v>10</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="18">
+      <c r="A26" s="19">
         <v>11002</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="20">
         <v>10</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="18" t="b">
+      <c r="H26" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="18">
+      <c r="A28" s="19">
         <v>11101</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="20">
         <v>11</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="18">
+      <c r="A30" s="19">
         <v>11201</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="20">
         <v>12</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="18">
+      <c r="A31" s="19">
         <v>11202</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="20">
         <v>12</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="18" t="b">
+      <c r="H31" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="18">
+      <c r="A33" s="19">
         <v>11301</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="20">
         <v>13</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="18">
+      <c r="A35" s="19">
         <v>11401</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="20">
         <v>14</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="18">
+      <c r="A37" s="19">
         <v>11501</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="20">
         <v>15</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="18">
+      <c r="A39" s="19">
         <v>11601</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="20">
         <v>16</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="18">
+      <c r="A40" s="19">
         <v>11602</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="20">
         <v>16</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="18" t="b">
+      <c r="H40" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="18">
+      <c r="A42" s="19">
         <v>11701</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="20">
         <v>17</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="18">
+      <c r="A43" s="19">
         <v>11702</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="20">
         <v>17</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="18">
+      <c r="A44" s="19">
         <v>11703</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="20">
         <v>17</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="18">
+      <c r="A45" s="19">
         <v>11704</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="20">
         <v>17</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="18">
+      <c r="A46" s="19">
         <v>11705</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="20">
         <v>17</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="18">
+      <c r="A47" s="19">
         <v>11706</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="20">
         <v>17</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="18">
+      <c r="A48" s="19">
         <v>11707</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="20">
         <v>17</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="18">
+      <c r="A49" s="19">
         <v>11708</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="20">
         <v>17</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="H49" s="18" t="b">
+      <c r="H49" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="18">
+      <c r="A51" s="19">
         <v>11801</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="20">
         <v>18</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="23"/>
+      <c r="F51" s="24"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="18">
+      <c r="A53" s="19">
         <v>11901</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="20">
         <v>19</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="21" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="18">
+      <c r="A54" s="19">
         <v>11902</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="20">
         <v>19</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="18">
+      <c r="A56" s="19">
         <v>12001</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="20">
         <v>20</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="18">
+      <c r="A57" s="19">
         <v>12002</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="20">
         <v>20</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="18">
+      <c r="A58" s="19">
         <v>12003</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="20">
         <v>20</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H58" s="18" t="b">
+      <c r="H58" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="18">
+      <c r="A60" s="19">
         <v>12101</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="20">
         <v>21</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="18">
+      <c r="A61" s="19">
         <v>12201</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="20">
         <v>22</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="18">
+      <c r="A62" s="19">
         <v>12301</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="20">
         <v>23</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="21" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="18">
+      <c r="A63" s="19">
         <v>12401</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="20">
         <v>24</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="18">
+      <c r="A64" s="19">
         <v>12501</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="20">
         <v>25</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="18">
+      <c r="A65" s="19">
         <v>12601</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="20">
         <v>26</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="18">
+    <row r="66" s="18" customFormat="1" spans="1:6">
+      <c r="A66" s="27">
+        <v>12602</v>
+      </c>
+      <c r="B66" s="28">
+        <v>26</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="19">
         <v>12701</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B68" s="19">
         <v>27</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="18">
+      <c r="C68" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="19">
         <v>12702</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B69" s="19">
         <v>27</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E68" s="20" t="s">
+      <c r="C69" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="18">
+      <c r="F69" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="19">
         <v>12703</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B70" s="19">
         <v>27</v>
       </c>
-      <c r="C69" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="18" t="s">
+      <c r="C70" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:6">
+      <c r="A71" s="19">
+        <v>12704</v>
+      </c>
+      <c r="B71" s="19">
+        <v>27</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="19">
+        <v>12705</v>
+      </c>
+      <c r="B72" s="19">
+        <v>27</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="19">
+        <v>12706</v>
+      </c>
+      <c r="B73" s="19">
+        <v>27</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H73" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="19"/>
+      <c r="C74" s="29"/>
+      <c r="F74" s="24"/>
+    </row>
+    <row r="75" customFormat="1" spans="1:5">
+      <c r="A75" s="30">
+        <v>12801</v>
+      </c>
+      <c r="B75" s="30">
+        <v>28</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:6">
+      <c r="A76" s="30">
+        <v>12802</v>
+      </c>
+      <c r="B76" s="30">
+        <v>28</v>
+      </c>
+      <c r="C76" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="D76" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:6">
-      <c r="A70" s="18">
-        <v>12704</v>
-      </c>
-      <c r="B70" s="18">
-        <v>27</v>
-      </c>
-      <c r="C70" s="25" t="s">
+      <c r="F76" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="18" t="s">
+    </row>
+    <row r="77" customFormat="1" spans="1:6">
+      <c r="A77" s="30">
+        <v>12803</v>
+      </c>
+      <c r="B77" s="30">
+        <v>28</v>
+      </c>
+      <c r="C77" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="D77" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F70" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="18">
-        <v>12705</v>
-      </c>
-      <c r="B71" s="18">
-        <v>27</v>
-      </c>
-      <c r="C71" s="19" t="s">
+      <c r="F77" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" s="20" t="s">
+    </row>
+    <row r="78" customFormat="1" spans="1:6">
+      <c r="A78" s="30">
+        <v>12804</v>
+      </c>
+      <c r="B78" s="30">
+        <v>28</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="18">
-        <v>12706</v>
-      </c>
-      <c r="B72" s="18">
-        <v>27</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="F78" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:6">
+      <c r="A79" s="30">
+        <v>12805</v>
+      </c>
+      <c r="B79" s="30">
+        <v>28</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F72" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H72" s="18" t="b">
+      <c r="F79" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:8">
+      <c r="A80" s="30">
+        <v>12806</v>
+      </c>
+      <c r="B80" s="30">
+        <v>28</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H80" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
-      <c r="B73" s="18"/>
-      <c r="C73" s="26"/>
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" customFormat="1" spans="1:5">
-      <c r="A74" s="27">
-        <v>12801</v>
-      </c>
-      <c r="B74" s="27">
-        <v>28</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:6">
-      <c r="A75" s="27">
-        <v>12802</v>
-      </c>
-      <c r="B75" s="27">
-        <v>28</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:6">
-      <c r="A76" s="27">
-        <v>12803</v>
-      </c>
-      <c r="B76" s="27">
-        <v>28</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:6">
-      <c r="A77" s="27">
-        <v>12804</v>
-      </c>
-      <c r="B77" s="27">
-        <v>28</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:6">
-      <c r="A78" s="27">
-        <v>12805</v>
-      </c>
-      <c r="B78" s="27">
-        <v>28</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:8">
-      <c r="A79" s="27">
-        <v>12806</v>
-      </c>
-      <c r="B79" s="27">
-        <v>28</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="H79" t="b">
+    <row r="82" spans="1:5">
+      <c r="A82" s="19">
+        <v>12901</v>
+      </c>
+      <c r="B82" s="30">
+        <v>29</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="19">
+        <v>12902</v>
+      </c>
+      <c r="B83" s="30">
+        <v>29</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="19">
+        <v>12903</v>
+      </c>
+      <c r="B84" s="30">
+        <v>29</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="19">
+        <v>12904</v>
+      </c>
+      <c r="B85" s="30">
+        <v>29</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="19">
+        <v>12905</v>
+      </c>
+      <c r="B86" s="30">
+        <v>29</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="19">
+        <v>12906</v>
+      </c>
+      <c r="B87" s="30">
+        <v>29</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="19">
+        <v>12907</v>
+      </c>
+      <c r="B88" s="30">
+        <v>29</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="18">
-        <v>12901</v>
-      </c>
-      <c r="B81" s="27">
-        <v>29</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="18">
-        <v>12902</v>
-      </c>
-      <c r="B82" s="27">
-        <v>29</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="18">
-        <v>12903</v>
-      </c>
-      <c r="B83" s="27">
-        <v>29</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="18">
-        <v>12904</v>
-      </c>
-      <c r="B84" s="27">
-        <v>29</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="18">
-        <v>12905</v>
-      </c>
-      <c r="B85" s="27">
-        <v>29</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="18">
-        <v>12906</v>
-      </c>
-      <c r="B86" s="27">
-        <v>29</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="18">
-        <v>12907</v>
-      </c>
-      <c r="B87" s="27">
-        <v>29</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:5">
-      <c r="A89" s="27">
+    <row r="90" customFormat="1" spans="1:5">
+      <c r="A90" s="30">
         <v>13001</v>
       </c>
-      <c r="B89" s="29">
+      <c r="B90" s="32">
         <v>30</v>
       </c>
-      <c r="C89" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D89" t="s">
-        <v>214</v>
-      </c>
-      <c r="E89" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:8">
-      <c r="A90" s="27">
+      <c r="C90" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:8">
+      <c r="A91" s="30">
         <v>13002</v>
       </c>
-      <c r="B90" s="29">
+      <c r="B91" s="32">
         <v>30</v>
       </c>
-      <c r="C90" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E90" t="s">
-        <v>218</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="G90"/>
-      <c r="H90" t="b">
+      <c r="C91" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="H91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3474,56 +3510,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>234</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3532,10 +3568,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>240</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3549,10 +3585,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>238</v>
+        <v>241</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>242</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3566,10 +3602,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>240</v>
+        <v>243</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>244</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3583,10 +3619,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>246</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3600,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3613,29 +3649,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3643,29 +3679,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>236</v>
+        <v>253</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>240</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3677,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>238</v>
+        <v>257</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>242</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3699,10 +3735,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>240</v>
+        <v>258</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>244</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3721,10 +3757,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>242</v>
+        <v>259</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>246</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3743,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>244</v>
+        <v>260</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="269">
   <si>
     <t>ID</t>
   </si>
@@ -513,6 +513,9 @@
     <t>KungFuTrigger_ClickOpenDisciplePanelTrigger</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_60,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>UINodeFinder:MainMenuPanel,MenuList/DiscipleBtn</t>
   </si>
   <si>
@@ -522,6 +525,9 @@
     <t>KungFuTrigger_ChoiceTargetDiscipleTrigger</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>UINodeFinder:DisciplePanel,Bg/Right/Scroll View/Viewport/DiscipleList/Disciple(Clone)</t>
   </si>
   <si>
@@ -531,6 +537,9 @@
     <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>UINodeFinder:DicipleDetailsPanel,Bg/UpperMiddle/KungfuTra/KungfuPanelItem(Clone)</t>
   </si>
   <si>
@@ -540,6 +549,9 @@
     <t>KungFuTrigger_ChoiceKungFuTrigger</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
   </si>
   <si>
@@ -549,6 +561,9 @@
     <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Arrange</t>
   </si>
   <si>
@@ -573,6 +588,9 @@
     <t>ArmsTrigger_ClickArmsBtnTrigger</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>UINodeFinder:DicipleDetailsPanel,Bg/RightLowerMiddle/ArmsBg</t>
   </si>
   <si>
@@ -582,6 +600,9 @@
     <t>ArmsTrigger_ChoiceArmsTrigger</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_65,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
     <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/WearableLearningList/WearableLearningItem(Clone)</t>
   </si>
   <si>
@@ -589,6 +610,9 @@
   </si>
   <si>
     <t>ArmsTrigger_ConfirmChoiceArmsTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:WearableLearningPanel,Bg/Arrange</t>
@@ -817,11 +841,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -861,20 +885,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -883,7 +899,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,17 +936,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,8 +967,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,13 +1004,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -982,23 +1021,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,7 +1049,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,43 +1205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,121 +1223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,32 +1377,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1388,30 +1391,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,8 +1413,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,16 +1459,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1468,16 +1492,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1486,115 +1510,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2083,11 +2107,11 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3092,10 +3116,10 @@
         <v>163</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3106,16 +3130,16 @@
         <v>27</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:6">
@@ -3126,16 +3150,16 @@
         <v>27</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3146,16 +3170,16 @@
         <v>27</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3166,16 +3190,16 @@
         <v>27</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H73" s="19" t="b">
         <v>1</v>
@@ -3194,13 +3218,13 @@
         <v>28</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:6">
@@ -3214,13 +3238,13 @@
         <v>162</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:6">
@@ -3231,16 +3255,16 @@
         <v>28</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:6">
@@ -3251,16 +3275,16 @@
         <v>28</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:6">
@@ -3271,16 +3295,16 @@
         <v>28</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:8">
@@ -3291,16 +3315,16 @@
         <v>28</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -3314,13 +3338,13 @@
         <v>29</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3331,16 +3355,16 @@
         <v>29</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3351,16 +3375,16 @@
         <v>29</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3371,16 +3395,16 @@
         <v>29</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3391,16 +3415,16 @@
         <v>29</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3411,16 +3435,16 @@
         <v>29</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3431,13 +3455,13 @@
         <v>29</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F88" s="24" t="s">
         <v>118</v>
@@ -3454,13 +3478,13 @@
         <v>30</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E90" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:8">
@@ -3471,16 +3495,16 @@
         <v>30</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F91" s="34" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
@@ -3510,56 +3534,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3568,10 +3592,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3585,10 +3609,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3602,10 +3626,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3619,10 +3643,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3636,10 +3660,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3649,29 +3673,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3679,29 +3703,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3713,10 +3737,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3735,10 +3759,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3757,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3779,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -168,6 +168,534 @@
     <t>EntityRoot/SimSection/RawMatCollectItems/WuWood/Bubble/Sprite</t>
   </si>
   <si>
+    <t>屋舍建造引导2</t>
+  </si>
+  <si>
+    <t>DialogTrigger5</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_18;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>BuildFacilityTrigger2</t>
+  </si>
+  <si>
+    <t>GuideClickWorldCommand:#0,-61|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/EastLivableRoom/LivableRoomView2</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanelTrigger2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_19,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>金牌招募令</t>
+  </si>
+  <si>
+    <t>DialogTrigger6</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_37;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>ClickLobbyTrigger2</t>
+  </si>
+  <si>
+    <t>点击金牌招募令招募弟子</t>
+  </si>
+  <si>
+    <t>LobbyPanelGetCharacterTrigger2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_11,-10|109,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem2/RecruitmentBtn</t>
+  </si>
+  <si>
+    <t>让弟子去执行任务，采石</t>
+  </si>
+  <si>
+    <t>DialogTrigger7</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_53;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>点击采石气泡</t>
+  </si>
+  <si>
+    <t>CollectStoneTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_54;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/RawMatCollectItems/QingRock/Bubble/Sprite</t>
+  </si>
+  <si>
+    <t>剧情引导（建造伙房）</t>
+  </si>
+  <si>
+    <t>KitchenDialogTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_25,StoryPanel_Text_26;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>建造伙房</t>
+  </si>
+  <si>
+    <t>BuildFacility_KitchenTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/KitchenView</t>
+  </si>
+  <si>
+    <t>打开建造伙房界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_KitchenTrigger</t>
+  </si>
+  <si>
+    <t>公告榜介绍</t>
+  </si>
+  <si>
+    <t>TaskPanelTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_55;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>点击公告榜按钮</t>
+  </si>
+  <si>
+    <t>ClickTaskBtnTrigger2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_13,22|108,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,BulletinBoardBtn</t>
+  </si>
+  <si>
+    <t>查看任务详情</t>
+  </si>
+  <si>
+    <t>ClickTaskDetailsTrigger2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_14,-78|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Top/Right/FuncBtn</t>
+  </si>
+  <si>
+    <t>选择弟子按钮</t>
+  </si>
+  <si>
+    <t>SelectCharacterOnTaskBtnTrigger2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Bottom/MiddleDown/BulletinBoardDisciple(Clone)</t>
+  </si>
+  <si>
+    <t>选择弟子1</t>
+  </si>
+  <si>
+    <t>SelectCharacterPanelTrigger2_1</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:SendDisciplesPanel,Bg/Midlle/UnselectedList/SendSelectedDisciple(Clone)</t>
+  </si>
+  <si>
+    <t>选择弟子2</t>
+  </si>
+  <si>
+    <t>SelectCharacterPanelTrigger2_2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:ChallengeChooseDisciple,Bottom/Scroll View/Viewport/Cont/ChallengePanelDisciple(Clone)</t>
+  </si>
+  <si>
+    <t>确认选择</t>
+  </si>
+  <si>
+    <t>SelectCharacterSureTrigger2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:ChallengeChooseDisciple,ConfirmBtn</t>
+  </si>
+  <si>
+    <t>前往</t>
+  </si>
+  <si>
+    <t>SendCharacterOnTaskTrigger2</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_39,13|79,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AcceptBtn</t>
+  </si>
+  <si>
+    <t>建造练功房</t>
+  </si>
+  <si>
+    <t>BuildPracticeFieldEastTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_45,StoryPanel_Text_46;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>访客系统</t>
+  </si>
+  <si>
+    <t>VisitotBtnNormalTipTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_41;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>点击访客系统按钮</t>
+  </si>
+  <si>
+    <t>ClickVisitorBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_42,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,VisitorsList/VisitorsBtn/Button</t>
+  </si>
+  <si>
+    <t>资源上限后建造仓库</t>
+  </si>
+  <si>
+    <t>WarehouseDialogTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_30;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>建造仓库</t>
+  </si>
+  <si>
+    <t>BuildFacility_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/WarehouseView</t>
+  </si>
+  <si>
+    <t>打开建造仓库界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>百草屋建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildBaicaohuTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_31;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>练功场建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildPracticeFieldTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_32;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>藏经阁建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildKungfuLibraryTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_33;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>锻造屋建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildForgehouseTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_34;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>伙房第一次升级 烹饪说明</t>
+  </si>
+  <si>
+    <t>FoodBuffTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_35;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>收集系统说明</t>
+  </si>
+  <si>
+    <t>CollectSystemTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_36;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>收集系统遮罩引导</t>
+  </si>
+  <si>
+    <t>CollectSystem_ClickLotusrootTrigger</t>
+  </si>
+  <si>
+    <t>DialogWithCircleMaskCommand:#0,StoryPanel_Text_59;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/CollectItem/LotusRoot/Bubble</t>
+  </si>
+  <si>
+    <t>武功秘籍引导</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_44;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>点击打开弟子界面</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ClickOpenDisciplePanelTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_60,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,MenuList/DiscipleBtn</t>
+  </si>
+  <si>
+    <t>目标弟子选择</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ChoiceTargetDiscipleTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DisciplePanel,Bg/Right/Scroll View/Viewport/DiscipleList/Disciple(Clone)</t>
+  </si>
+  <si>
+    <t>武功秘籍学习</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/UpperMiddle/KungfuTra/KungfuPanelItem(Clone)</t>
+  </si>
+  <si>
+    <t>选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
+  </si>
+  <si>
+    <t>确定选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Arrange</t>
+  </si>
+  <si>
+    <t>武器引导</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_47;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ClickOpenDisciplePanelTrigger</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ChoiceTargetDiscipleTrigger</t>
+  </si>
+  <si>
+    <t>点击武器槽</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ClickArmsBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/RightLowerMiddle/ArmsBg</t>
+  </si>
+  <si>
+    <t>选择武器</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ChoiceArmsTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_65,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/WearableLearningList/WearableLearningItem(Clone)</t>
+  </si>
+  <si>
+    <t>确定选择武器</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ConfirmChoiceArmsTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:WearableLearningPanel,Bg/Arrange</t>
+  </si>
+  <si>
+    <t>挑战系统</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_48;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>点击挑战系统按钮</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickChallengeBtnTrigger1</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:ClickChallenge,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,MenuList/ChallengeBtn</t>
+  </si>
+  <si>
+    <t>选择挑战对象</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ChoiceChallengeObjTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_49,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.5;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:ChallengePanel,Bottom/Scroll View/Viewport/ChallengeList/ChallengeTaskItem(Clone)/Right/ChallengeBtn</t>
+  </si>
+  <si>
+    <t>选择挑战关卡</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ChoiceChallengeLevelTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_39,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.6;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:ChallengeBattlePanel,GaibangPanel(Clone)/Scroll View/Viewport/CheckpointTra/Bg/ChallengeBtn</t>
+  </si>
+  <si>
+    <t>点击接受挑战</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickAcceptChallengeBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_50,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.7;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:IdentifyChallengesPanel,Bg/ChallengesBtn</t>
+  </si>
+  <si>
+    <t>点击一键选择</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickAKeyChoiceTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_51,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.8;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AutoSelectedBtn</t>
+  </si>
+  <si>
+    <t>点击开始战斗</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickStartChallengeTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.9;</t>
+  </si>
+  <si>
+    <t>出现工作气泡</t>
+  </si>
+  <si>
+    <t>DialogTrigger8</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_57;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>SendCharacterWorkTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickBubbleCommand:#0,38|-8,StoryPanel_Text_58;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
+  </si>
+  <si>
     <t>剧情引导(弟子会自动工作)</t>
   </si>
   <si>
@@ -187,534 +715,6 @@
   </si>
   <si>
     <t>EntityRoot/Character_normal_1/WorkProgressBar</t>
-  </si>
-  <si>
-    <t>屋舍建造引导2</t>
-  </si>
-  <si>
-    <t>DialogTrigger5</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_18;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>BuildFacilityTrigger2</t>
-  </si>
-  <si>
-    <t>GuideClickWorldCommand:#0,-61|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/Facility/EastLivableRoom/LivableRoomView2</t>
-  </si>
-  <si>
-    <t>BuildFacilityPanelTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_19,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>金牌招募令</t>
-  </si>
-  <si>
-    <t>DialogTrigger6</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_37;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>ClickLobbyTrigger2</t>
-  </si>
-  <si>
-    <t>点击金牌招募令招募弟子</t>
-  </si>
-  <si>
-    <t>LobbyPanelGetCharacterTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_11,-10|109,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:LobbyPanel,Bottom/RecruitmentOrderItem2/RecruitmentBtn</t>
-  </si>
-  <si>
-    <t>让弟子去执行任务，采石</t>
-  </si>
-  <si>
-    <t>DialogTrigger7</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_53;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>点击采石气泡</t>
-  </si>
-  <si>
-    <t>CollectStoneTrigger</t>
-  </si>
-  <si>
-    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_54;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/RawMatCollectItems/QingRock/Bubble/Sprite</t>
-  </si>
-  <si>
-    <t>剧情引导（建造伙房）</t>
-  </si>
-  <si>
-    <t>KitchenDialogTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_25,StoryPanel_Text_26;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>建造伙房</t>
-  </si>
-  <si>
-    <t>BuildFacility_KitchenTrigger</t>
-  </si>
-  <si>
-    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_8;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/Facility/KitchenView</t>
-  </si>
-  <si>
-    <t>打开建造伙房界面</t>
-  </si>
-  <si>
-    <t>BuildFacilityPanel_KitchenTrigger</t>
-  </si>
-  <si>
-    <t>公告榜介绍</t>
-  </si>
-  <si>
-    <t>TaskPanelTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_55;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>点击公告榜按钮</t>
-  </si>
-  <si>
-    <t>ClickTaskBtnTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_13,22|108,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:MainMenuPanel,BulletinBoardBtn</t>
-  </si>
-  <si>
-    <t>查看任务详情</t>
-  </si>
-  <si>
-    <t>ClickTaskDetailsTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_14,-78|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Top/Right/FuncBtn</t>
-  </si>
-  <si>
-    <t>选择弟子按钮</t>
-  </si>
-  <si>
-    <t>SelectCharacterOnTaskBtnTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Bottom/MiddleDown/BulletinBoardDisciple(Clone)</t>
-  </si>
-  <si>
-    <t>选择弟子1</t>
-  </si>
-  <si>
-    <t>SelectCharacterPanelTrigger2_1</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:SendDisciplesPanel,Bg/Midlle/UnselectedList/SendSelectedDisciple(Clone)</t>
-  </si>
-  <si>
-    <t>选择弟子2</t>
-  </si>
-  <si>
-    <t>SelectCharacterPanelTrigger2_2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:ChallengeChooseDisciple,Bottom/Scroll View/Viewport/Cont/ChallengePanelDisciple(Clone)</t>
-  </si>
-  <si>
-    <t>确认选择</t>
-  </si>
-  <si>
-    <t>SelectCharacterSureTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:ChallengeChooseDisciple,ConfirmBtn</t>
-  </si>
-  <si>
-    <t>前往</t>
-  </si>
-  <si>
-    <t>SendCharacterOnTaskTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_39,13|79,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AcceptBtn</t>
-  </si>
-  <si>
-    <t>建造练功房</t>
-  </si>
-  <si>
-    <t>BuildPracticeFieldEastTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_45,StoryPanel_Text_46;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>访客系统</t>
-  </si>
-  <si>
-    <t>VisitotBtnNormalTipTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_41;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>点击访客系统按钮</t>
-  </si>
-  <si>
-    <t>ClickVisitorBtnTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_42,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:MainMenuPanel,VisitorsList/VisitorsBtn/Button</t>
-  </si>
-  <si>
-    <t>资源上限后建造仓库</t>
-  </si>
-  <si>
-    <t>WarehouseDialogTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_30;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>建造仓库</t>
-  </si>
-  <si>
-    <t>BuildFacility_WarehouseTrigger</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/Facility/WarehouseView</t>
-  </si>
-  <si>
-    <t>打开建造仓库界面</t>
-  </si>
-  <si>
-    <t>BuildFacilityPanel_WarehouseTrigger</t>
-  </si>
-  <si>
-    <t>百草屋建造完后 文本说明</t>
-  </si>
-  <si>
-    <t>BuildBaicaohuTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_31;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>练功场建造完后 文本说明</t>
-  </si>
-  <si>
-    <t>BuildPracticeFieldTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_32;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>藏经阁建造完后 文本说明</t>
-  </si>
-  <si>
-    <t>BuildKungfuLibraryTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_33;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>锻造屋建造完后 文本说明</t>
-  </si>
-  <si>
-    <t>BuildForgehouseTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_34;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>伙房第一次升级 烹饪说明</t>
-  </si>
-  <si>
-    <t>FoodBuffTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_35;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>收集系统说明</t>
-  </si>
-  <si>
-    <t>CollectSystemTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_36;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>收集系统遮罩引导</t>
-  </si>
-  <si>
-    <t>CollectSystem_ClickLotusrootTrigger</t>
-  </si>
-  <si>
-    <t>DialogWithCircleMaskCommand:#0,StoryPanel_Text_59;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/CollectItem/LotusRoot/Bubble</t>
-  </si>
-  <si>
-    <t>武功秘籍引导</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_44;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>点击打开弟子界面</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ClickOpenDisciplePanelTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_60,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:MainMenuPanel,MenuList/DiscipleBtn</t>
-  </si>
-  <si>
-    <t>目标弟子选择</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ChoiceTargetDiscipleTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DisciplePanel,Bg/Right/Scroll View/Viewport/DiscipleList/Disciple(Clone)</t>
-  </si>
-  <si>
-    <t>武功秘籍学习</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/UpperMiddle/KungfuTra/KungfuPanelItem(Clone)</t>
-  </si>
-  <si>
-    <t>选择武功秘籍</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ChoiceKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
-  </si>
-  <si>
-    <t>确定选择武功秘籍</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Arrange</t>
-  </si>
-  <si>
-    <t>武器引导</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_47;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ClickOpenDisciplePanelTrigger</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ChoiceTargetDiscipleTrigger</t>
-  </si>
-  <si>
-    <t>点击武器槽</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ClickArmsBtnTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/RightLowerMiddle/ArmsBg</t>
-  </si>
-  <si>
-    <t>选择武器</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ChoiceArmsTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_65,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/WearableLearningList/WearableLearningItem(Clone)</t>
-  </si>
-  <si>
-    <t>确定选择武器</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ConfirmChoiceArmsTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:WearableLearningPanel,Bg/Arrange</t>
-  </si>
-  <si>
-    <t>挑战系统</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_48;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>点击挑战系统按钮</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ClickChallengeBtnTrigger1</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:ClickChallenge,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:MainMenuPanel,MenuList/ChallengeBtn</t>
-  </si>
-  <si>
-    <t>选择挑战对象</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ChoiceChallengeObjTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_49,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.5;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:ChallengePanel,Bottom/Scroll View/Viewport/ChallengeList/ChallengeTaskItem(Clone)/Right/ChallengeBtn</t>
-  </si>
-  <si>
-    <t>选择挑战关卡</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ChoiceChallengeLevelTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_39,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.6;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:ChallengeBattlePanel,GaibangPanel(Clone)/Scroll View/Viewport/CheckpointTra/Bg/ChallengeBtn</t>
-  </si>
-  <si>
-    <t>点击接受挑战</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ClickAcceptChallengeBtnTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_50,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.7;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:IdentifyChallengesPanel,Bg/ChallengesBtn</t>
-  </si>
-  <si>
-    <t>点击一键选择</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ClickAKeyChoiceTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_51,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.8;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AutoSelectedBtn</t>
-  </si>
-  <si>
-    <t>点击开始战斗</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ClickStartChallengeTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.9;</t>
-  </si>
-  <si>
-    <t>出现工作气泡</t>
-  </si>
-  <si>
-    <t>DialogTrigger8</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_57;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>派遣弟子工作</t>
-  </si>
-  <si>
-    <t>SendCharacterWorkTrigger</t>
-  </si>
-  <si>
-    <t>GuideClickBubbleCommand:#0,38|-8,StoryPanel_Text_58;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
   </si>
   <si>
     <t>模块</t>
@@ -841,8 +841,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
@@ -884,6 +884,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -891,6 +915,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -905,23 +930,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,6 +991,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -958,61 +1013,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -1049,13 +1049,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,19 +1079,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1163,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,31 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,19 +1205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,55 +1223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,41 +1380,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,6 +1427,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1480,10 +1480,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1492,133 +1492,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1695,13 +1695,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2104,14 +2104,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2430,47 +2430,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="19">
-        <v>10802</v>
-      </c>
-      <c r="B20" s="20">
-        <v>8</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="19">
-        <v>10803</v>
-      </c>
-      <c r="B21" s="20">
-        <v>8</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="23" spans="1:5">
       <c r="A23" s="19">
         <v>10901</v>
@@ -2479,13 +2438,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2499,13 +2458,13 @@
         <v>23</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2519,10 +2478,10 @@
         <v>27</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>30</v>
@@ -2539,13 +2498,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2559,7 +2518,7 @@
         <v>34</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>36</v>
@@ -2576,16 +2535,16 @@
         <v>12</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H31" s="19" t="b">
         <v>1</v>
@@ -2599,13 +2558,13 @@
         <v>13</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2616,16 +2575,16 @@
         <v>14</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2636,13 +2595,13 @@
         <v>15</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2653,16 +2612,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2673,13 +2632,13 @@
         <v>16</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>30</v>
@@ -2696,13 +2655,13 @@
         <v>17</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2713,16 +2672,16 @@
         <v>17</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2733,16 +2692,16 @@
         <v>17</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2753,16 +2712,16 @@
         <v>17</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2773,16 +2732,16 @@
         <v>17</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2793,16 +2752,16 @@
         <v>17</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2813,16 +2772,16 @@
         <v>17</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2833,16 +2792,16 @@
         <v>17</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H49" s="19" t="b">
         <v>1</v>
@@ -2856,13 +2815,13 @@
         <v>18</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F51" s="24"/>
     </row>
@@ -2874,13 +2833,13 @@
         <v>19</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2891,16 +2850,16 @@
         <v>19</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2911,13 +2870,13 @@
         <v>20</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2928,16 +2887,16 @@
         <v>20</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2948,13 +2907,13 @@
         <v>20</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F58" s="24" t="s">
         <v>30</v>
@@ -2971,13 +2930,13 @@
         <v>21</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2988,13 +2947,13 @@
         <v>22</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3005,13 +2964,13 @@
         <v>23</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:5">
@@ -3022,13 +2981,13 @@
         <v>24</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3039,13 +2998,13 @@
         <v>25</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3056,33 +3015,33 @@
         <v>26</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" s="18" customFormat="1" spans="1:6">
-      <c r="A66" s="27">
+      <c r="A66" s="26">
         <v>12602</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="27">
         <v>26</v>
       </c>
-      <c r="C66" s="28" t="s">
-        <v>155</v>
+      <c r="C66" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3093,13 +3052,13 @@
         <v>27</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3110,16 +3069,16 @@
         <v>27</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3129,17 +3088,17 @@
       <c r="B70" s="19">
         <v>27</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>166</v>
+      <c r="C70" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:6">
@@ -3149,17 +3108,17 @@
       <c r="B71" s="19">
         <v>27</v>
       </c>
-      <c r="C71" s="26" t="s">
-        <v>170</v>
+      <c r="C71" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3170,16 +3129,16 @@
         <v>27</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3190,16 +3149,16 @@
         <v>27</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H73" s="19" t="b">
         <v>1</v>
@@ -3218,13 +3177,13 @@
         <v>28</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:6">
@@ -3235,16 +3194,16 @@
         <v>28</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:6">
@@ -3255,16 +3214,16 @@
         <v>28</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" customFormat="1" spans="1:6">
@@ -3275,16 +3234,16 @@
         <v>28</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:6">
@@ -3295,16 +3254,16 @@
         <v>28</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" customFormat="1" spans="1:8">
@@ -3315,16 +3274,16 @@
         <v>28</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -3338,13 +3297,13 @@
         <v>29</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3355,16 +3314,16 @@
         <v>29</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3375,16 +3334,16 @@
         <v>29</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3395,16 +3354,16 @@
         <v>29</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3415,16 +3374,16 @@
         <v>29</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3435,16 +3394,16 @@
         <v>29</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3455,16 +3414,16 @@
         <v>29</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -3478,13 +3437,13 @@
         <v>30</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E90" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:8">
@@ -3495,18 +3454,59 @@
         <v>30</v>
       </c>
       <c r="C91" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" t="s">
+        <v>223</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:6">
+      <c r="A93" s="19">
+        <v>13101</v>
+      </c>
+      <c r="B93" s="20">
+        <v>31</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" t="s">
+        <v>226</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F93" s="24"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="19">
+        <v>13102</v>
+      </c>
+      <c r="B94" s="20">
+        <v>31</v>
+      </c>
+      <c r="C94" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D94" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E94" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="F94" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="H91" t="b">
+      <c r="H94" s="19" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -294,7 +294,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_14,-78|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
-    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Top/Right/FuncBtn</t>
+    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Top/FuncBtn</t>
   </si>
   <si>
     <t>选择弟子按钮</t>
@@ -841,10 +841,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -884,8 +884,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -900,31 +945,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,15 +967,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,6 +992,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,7 +1014,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,45 +1022,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,31 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,49 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,37 +1085,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1121,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,7 +1151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,13 +1169,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,6 +1377,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1386,17 +1401,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1416,37 +1425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,16 +1463,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1492,133 +1492,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2107,11 +2107,11 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="276">
   <si>
     <t>ID</t>
   </si>
@@ -715,6 +715,27 @@
   </si>
   <si>
     <t>EntityRoot/Character_normal_1/WorkProgressBar</t>
+  </si>
+  <si>
+    <t>食物不足引导</t>
+  </si>
+  <si>
+    <t>FoodNotEnoughTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_68;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>点击观看视频获取食物</t>
+  </si>
+  <si>
+    <t>FoodNotEnoughTrigger_ClickFoodBtnBrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_69,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,Baozi/CreateBaoziBtn</t>
   </si>
   <si>
     <t>模块</t>
@@ -841,10 +862,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -891,9 +912,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,30 +1011,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -945,61 +1027,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,17 +1042,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,7 +1076,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1124,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,79 +1226,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,61 +1244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,35 +1398,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,26 +1422,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,16 +1462,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,134 +1516,134 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1718,6 +1739,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2104,14 +2128,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3024,7 +3048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" s="18" customFormat="1" spans="1:6">
+    <row r="66" s="18" customFormat="1" spans="1:8">
       <c r="A66" s="26">
         <v>12602</v>
       </c>
@@ -3042,6 +3066,9 @@
       </c>
       <c r="F66" s="18" t="s">
         <v>151</v>
+      </c>
+      <c r="H66" s="18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3507,6 +3534,46 @@
         <v>231</v>
       </c>
       <c r="H94" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="19">
+        <v>13201</v>
+      </c>
+      <c r="B96" s="20">
+        <v>32</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" t="s">
+        <v>233</v>
+      </c>
+      <c r="E96" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="19">
+        <v>13202</v>
+      </c>
+      <c r="B97" s="20">
+        <v>32</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D97" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H97" s="19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3534,56 +3601,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3592,10 +3659,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>248</v>
+        <v>254</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>255</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3609,10 +3676,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>250</v>
+        <v>256</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>257</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3626,10 +3693,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>252</v>
+        <v>258</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>259</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3643,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>254</v>
+        <v>260</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>261</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3660,10 +3727,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>256</v>
+        <v>262</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>263</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3673,29 +3740,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3703,29 +3770,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>248</v>
+        <v>268</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>255</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3737,10 +3804,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>250</v>
+        <v>272</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>257</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3759,10 +3826,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>252</v>
+        <v>273</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>259</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3781,10 +3848,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>254</v>
+        <v>274</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>261</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3803,10 +3870,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>256</v>
+        <v>275</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>263</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -471,7 +471,7 @@
     <t>CollectSystem_ClickLotusrootTrigger</t>
   </si>
   <si>
-    <t>DialogWithCircleMaskCommand:#0,StoryPanel_Text_59;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_59;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>EntityRoot/SimSection/CollectItem/LotusRoot/Bubble</t>
@@ -862,11 +862,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -912,16 +912,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,44 +939,6 @@
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -988,31 +958,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1027,6 +974,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1036,14 +1036,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,7 +1070,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,13 +1112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,25 +1136,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,7 +1184,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,79 +1208,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,19 +1238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,11 +1398,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,17 +1457,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,44 +1489,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,145 +1501,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2131,11 +2131,11 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -543,7 +543,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Arrange</t>
+    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/Arrange</t>
   </si>
   <si>
     <t>武器引导</t>
@@ -863,8 +863,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -912,16 +912,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -929,7 +935,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,18 +957,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -974,46 +987,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,14 +1012,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,7 +1070,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,25 +1190,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,139 +1238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,30 +1398,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1437,7 +1413,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,17 +1463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,8 +1490,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,145 +1501,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2131,11 +2131,11 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -492,7 +492,7 @@
     <t>KungFuTrigger_ClickOpenDisciplePanelTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_60,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_60,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,MenuList/DiscipleBtn</t>
@@ -504,7 +504,7 @@
     <t>KungFuTrigger_ChoiceTargetDiscipleTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:DisciplePanel,Bg/Right/Scroll View/Viewport/DiscipleList/Disciple(Clone)</t>
@@ -516,7 +516,7 @@
     <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:DicipleDetailsPanel,Bg/UpperMiddle/KungfuTra/KungfuPanelItem(Clone)</t>
@@ -528,7 +528,7 @@
     <t>KungFuTrigger_ChoiceKungFuTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
@@ -540,7 +540,7 @@
     <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/Arrange</t>
@@ -567,7 +567,7 @@
     <t>ArmsTrigger_ClickArmsBtnTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:DicipleDetailsPanel,Bg/RightLowerMiddle/ArmsBg</t>
@@ -579,7 +579,7 @@
     <t>ArmsTrigger_ChoiceArmsTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_65,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_65,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/WearableLearningList/WearableLearningItem(Clone)</t>
@@ -591,7 +591,7 @@
     <t>ArmsTrigger_ConfirmChoiceArmsTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:WearableLearningPanel,Bg/Arrange</t>
@@ -612,7 +612,7 @@
     <t>ChallengeSystemTrigger_ClickChallengeBtnTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:ClickChallenge,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:ClickChallenge,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,MenuList/ChallengeBtn</t>
@@ -624,7 +624,7 @@
     <t>ChallengeSystemTrigger_ChoiceChallengeObjTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_49,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.5;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_49,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:ChallengePanel,Bottom/Scroll View/Viewport/ChallengeList/ChallengeTaskItem(Clone)/Right/ChallengeBtn</t>
@@ -636,7 +636,7 @@
     <t>ChallengeSystemTrigger_ChoiceChallengeLevelTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_39,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.6;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_39,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:ChallengeBattlePanel,GaibangPanel(Clone)/Scroll View/Viewport/CheckpointTra/Bg/ChallengeBtn</t>
@@ -648,7 +648,7 @@
     <t>ChallengeSystemTrigger_ClickAcceptChallengeBtnTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_50,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.7;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_50,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:IdentifyChallengesPanel,Bg/ChallengesBtn</t>
@@ -660,7 +660,7 @@
     <t>ChallengeSystemTrigger_ClickAKeyChoiceTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_51,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.8;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_51,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AutoSelectedBtn</t>
@@ -672,7 +672,7 @@
     <t>ChallengeSystemTrigger_ClickStartChallengeTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.9;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>出现工作气泡</t>
@@ -862,11 +862,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -912,25 +912,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -950,7 +943,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,9 +958,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -989,7 +1020,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,38 +1043,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,7 +1070,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,49 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,19 +1214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,61 +1232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,25 +1244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,6 +1398,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1433,21 +1448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1472,16 +1472,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1501,145 +1501,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2131,11 +2131,11 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -594,7 +594,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:WearableLearningPanel,Bg/Arrange</t>
+    <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/Arrange</t>
   </si>
   <si>
     <t>挑战系统</t>
@@ -862,11 +862,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -906,6 +906,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -913,14 +927,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,37 +973,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,22 +987,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1003,26 +995,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1043,7 +1020,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,49 +1070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,7 +1082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,55 +1100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1118,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,13 +1154,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,7 +1184,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,7 +1232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,22 +1398,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,6 +1443,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1448,50 +1485,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,10 +1501,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1513,133 +1513,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2131,11 +2131,11 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="305">
   <si>
     <t>ID</t>
   </si>
@@ -366,6 +366,114 @@
     <t>DialogCommand:StoryPanel_Text_45,StoryPanel_Text_46;MyDelayCommand:0.4;</t>
   </si>
   <si>
+    <t>招募系统引导</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_IntroduceTrigger1</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_70,StoryPanel_Text_71;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>招募系统引导2</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_IntroduceTrigger2</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_72;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>招募系统引导，点击讲武堂</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_ClickLobbyFacilityTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_73;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>招募系统引导，点击银牌招募令</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_ClickGetCharacterTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_74,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>招募系统引导，招募完成</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_FinishedTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_75,StoryPanel_Text_76;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>出现工作气泡</t>
+  </si>
+  <si>
+    <t>DialogTrigger8</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_57;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>SendCharacterWorkTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickBubbleCommand:#0,38|-8,StoryPanel_Text_58;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
+  </si>
+  <si>
+    <t>签到系统引导</t>
+  </si>
+  <si>
+    <t>SignInSystem_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_77;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>点击签到按钮</t>
+  </si>
+  <si>
+    <t>SignInSystem_ClickSignBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_78,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,SignInBtn</t>
+  </si>
+  <si>
+    <t>点击签到领取按钮</t>
+  </si>
+  <si>
+    <t>SignInSystem_ClickSignReceiveBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_79,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:SignInPanel,SignPanel_BG/AcceptBtn</t>
+  </si>
+  <si>
+    <t>签到完成</t>
+  </si>
+  <si>
+    <t>SignInSystem_FinishedTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_80;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
     <t>访客系统</t>
   </si>
   <si>
@@ -673,27 +781,6 @@
   </si>
   <si>
     <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.9;</t>
-  </si>
-  <si>
-    <t>出现工作气泡</t>
-  </si>
-  <si>
-    <t>DialogTrigger8</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_57;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>派遣弟子工作</t>
-  </si>
-  <si>
-    <t>SendCharacterWorkTrigger</t>
-  </si>
-  <si>
-    <t>GuideClickBubbleCommand:#0,38|-8,StoryPanel_Text_58;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
   </si>
   <si>
     <t>剧情引导(弟子会自动工作)</t>
@@ -862,11 +949,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -906,14 +993,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,7 +1007,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,29 +1031,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,8 +1083,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,6 +1117,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,13 +1157,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,19 +1181,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1211,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,13 +1241,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,31 +1301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,67 +1325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,21 +1501,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1461,11 +1533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,16 +1573,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1513,137 +1600,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1715,32 +1802,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2128,14 +2226,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2454,1126 +2552,1318 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="21" spans="1:5">
+      <c r="A21" s="19">
+        <v>10901</v>
+      </c>
+      <c r="B21" s="20">
+        <v>9</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="19">
-        <v>10901</v>
+        <v>11001</v>
       </c>
       <c r="B23" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="19">
-        <v>11001</v>
-      </c>
-      <c r="B25" s="20">
+        <v>53</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="19">
+        <v>11002</v>
+      </c>
+      <c r="B24" s="20">
         <v>10</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="C24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="19">
-        <v>11002</v>
+        <v>11101</v>
       </c>
       <c r="B26" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E26" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="19">
+        <v>11201</v>
+      </c>
+      <c r="B28" s="20">
+        <v>12</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="19">
+        <v>11202</v>
+      </c>
+      <c r="B29" s="20">
+        <v>12</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="19">
+        <v>11301</v>
+      </c>
+      <c r="B31" s="20">
+        <v>13</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="19">
+        <v>11401</v>
+      </c>
+      <c r="B33" s="20">
+        <v>14</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="19">
+        <v>11501</v>
+      </c>
+      <c r="B35" s="20">
+        <v>15</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="19">
+        <v>11601</v>
+      </c>
+      <c r="B37" s="20">
+        <v>16</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="19">
+        <v>11602</v>
+      </c>
+      <c r="B38" s="20">
+        <v>16</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="19" t="b">
+      <c r="H38" s="19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="19">
-        <v>11101</v>
-      </c>
-      <c r="B28" s="20">
-        <v>11</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="19">
-        <v>11201</v>
-      </c>
-      <c r="B30" s="20">
-        <v>12</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="19">
-        <v>11202</v>
-      </c>
-      <c r="B31" s="20">
-        <v>12</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="19">
-        <v>11301</v>
-      </c>
-      <c r="B33" s="20">
-        <v>13</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="19">
-        <v>11401</v>
-      </c>
-      <c r="B35" s="20">
-        <v>14</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="19">
-        <v>11501</v>
-      </c>
-      <c r="B37" s="20">
-        <v>15</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="19">
-        <v>11601</v>
-      </c>
-      <c r="B39" s="20">
-        <v>16</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:5">
       <c r="A40" s="19">
-        <v>11602</v>
+        <v>11701</v>
       </c>
       <c r="B40" s="20">
-        <v>16</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="19">
+        <v>11702</v>
+      </c>
+      <c r="B41" s="20">
+        <v>17</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="19">
-        <v>11701</v>
+        <v>11703</v>
       </c>
       <c r="B42" s="20">
         <v>17</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" t="s">
-        <v>82</v>
+      <c r="C42" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="19">
-        <v>11702</v>
+        <v>11704</v>
       </c>
       <c r="B43" s="20">
         <v>17</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="19">
-        <v>11703</v>
+        <v>11705</v>
       </c>
       <c r="B44" s="20">
         <v>17</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="19">
-        <v>11704</v>
+        <v>11706</v>
       </c>
       <c r="B45" s="20">
         <v>17</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="19">
-        <v>11705</v>
+        <v>11707</v>
       </c>
       <c r="B46" s="20">
         <v>17</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="19">
-        <v>11706</v>
+        <v>11708</v>
       </c>
       <c r="B47" s="20">
         <v>17</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="19">
-        <v>11707</v>
-      </c>
-      <c r="B48" s="20">
-        <v>17</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="H47" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="19">
-        <v>11708</v>
+        <v>11801</v>
       </c>
       <c r="B49" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H49" s="19" t="b">
-        <v>1</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F49" s="24"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="19">
-        <v>11801</v>
-      </c>
-      <c r="B51" s="20">
-        <v>18</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>113</v>
+        <v>13301</v>
+      </c>
+      <c r="B51" s="27">
+        <v>33</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F51" s="24"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="52" spans="1:6">
+      <c r="A52" s="19">
+        <v>13302</v>
+      </c>
+      <c r="B52" s="27">
+        <v>33</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="24"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="19">
-        <v>11901</v>
-      </c>
-      <c r="B53" s="20">
-        <v>19</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>116</v>
+        <v>13303</v>
+      </c>
+      <c r="B53" s="27">
+        <v>33</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" t="s">
+        <v>122</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>123</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="19">
-        <v>11902</v>
-      </c>
-      <c r="B54" s="20">
-        <v>19</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>119</v>
+        <v>13304</v>
+      </c>
+      <c r="B54" s="27">
+        <v>33</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>125</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="19">
-        <v>12001</v>
-      </c>
-      <c r="B56" s="20">
-        <v>20</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="19">
-        <v>12002</v>
-      </c>
-      <c r="B57" s="20">
-        <v>20</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="19">
+        <v>13501</v>
+      </c>
+      <c r="B55" s="27">
+        <v>35</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="19">
-        <v>12003</v>
-      </c>
-      <c r="B58" s="20">
-        <v>20</v>
-      </c>
-      <c r="C58" s="20" t="s">
+      <c r="D55" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="E55" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="24" t="s">
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" customFormat="1" spans="1:5">
+      <c r="A57" s="27">
+        <v>13001</v>
+      </c>
+      <c r="B57" s="30">
         <v>30</v>
       </c>
-      <c r="H58" s="19" t="b">
+      <c r="C57" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:8">
+      <c r="A58" s="27">
+        <v>13002</v>
+      </c>
+      <c r="B58" s="30">
+        <v>30</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="19">
-        <v>12101</v>
-      </c>
-      <c r="B60" s="20">
-        <v>21</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>131</v>
+    <row r="59" customFormat="1" spans="1:6">
+      <c r="A59" s="27"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" customFormat="1" spans="1:6">
+      <c r="A60" s="27">
+        <v>13401</v>
+      </c>
+      <c r="B60" s="30">
+        <v>34</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="19">
-        <v>12201</v>
-      </c>
-      <c r="B61" s="20">
-        <v>22</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" customFormat="1" spans="1:6">
+      <c r="A61" s="27">
+        <v>13402</v>
+      </c>
+      <c r="B61" s="30">
+        <v>34</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" t="s">
+        <v>141</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="19">
-        <v>12301</v>
-      </c>
-      <c r="B62" s="20">
-        <v>23</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>137</v>
+        <v>142</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:6">
+      <c r="A62" s="27">
+        <v>13403</v>
+      </c>
+      <c r="B62" s="30">
+        <v>34</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:5">
-      <c r="A63" s="19">
-        <v>12401</v>
-      </c>
-      <c r="B63" s="20">
-        <v>24</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:8">
+      <c r="A63" s="27">
+        <v>13601</v>
+      </c>
+      <c r="B63" s="30">
+        <v>36</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="19">
-        <v>12501</v>
-      </c>
-      <c r="B64" s="20">
-        <v>25</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="F63" s="31"/>
+      <c r="H63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="19">
-        <v>12601</v>
+        <v>11901</v>
       </c>
       <c r="B65" s="20">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" s="18" customFormat="1" spans="1:8">
-      <c r="A66" s="26">
-        <v>12602</v>
-      </c>
-      <c r="B66" s="27">
-        <v>26</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="19">
+        <v>11902</v>
+      </c>
+      <c r="B66" s="20">
+        <v>19</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H66" s="18" t="b">
+        <v>156</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="19">
-        <v>12701</v>
-      </c>
-      <c r="B68" s="19">
-        <v>27</v>
+        <v>12001</v>
+      </c>
+      <c r="B68" s="20">
+        <v>20</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="19">
-        <v>12702</v>
-      </c>
-      <c r="B69" s="19">
-        <v>27</v>
+        <v>12002</v>
+      </c>
+      <c r="B69" s="20">
+        <v>20</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="19">
-        <v>12703</v>
-      </c>
-      <c r="B70" s="19">
-        <v>27</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>159</v>
+        <v>12003</v>
+      </c>
+      <c r="B70" s="20">
+        <v>20</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:6">
-      <c r="A71" s="19">
-        <v>12704</v>
-      </c>
-      <c r="B71" s="19">
-        <v>27</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F71" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="19">
+        <v>12101</v>
+      </c>
+      <c r="B72" s="20">
+        <v>21</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="19">
-        <v>12705</v>
-      </c>
-      <c r="B72" s="19">
-        <v>27</v>
-      </c>
-      <c r="C72" s="20" t="s">
+      <c r="D72" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="E72" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="E72" s="21" t="s">
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="19">
+        <v>12201</v>
+      </c>
+      <c r="B73" s="20">
+        <v>22</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="F72" s="24" t="s">
+      <c r="D73" s="19" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="19">
-        <v>12706</v>
-      </c>
-      <c r="B73" s="19">
-        <v>27</v>
-      </c>
-      <c r="C73" s="20" t="s">
+      <c r="E73" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D73" s="19" t="s">
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="19">
+        <v>12301</v>
+      </c>
+      <c r="B74" s="20">
+        <v>23</v>
+      </c>
+      <c r="C74" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="D74" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="E74" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="H73" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="19"/>
-      <c r="C74" s="29"/>
-      <c r="F74" s="24"/>
-    </row>
-    <row r="75" customFormat="1" spans="1:5">
-      <c r="A75" s="30">
-        <v>12801</v>
-      </c>
-      <c r="B75" s="30">
-        <v>28</v>
-      </c>
-      <c r="C75" s="31" t="s">
+    </row>
+    <row r="75" customHeight="1" spans="1:5">
+      <c r="A75" s="19">
+        <v>12401</v>
+      </c>
+      <c r="B75" s="20">
+        <v>24</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="19" t="s">
         <v>176</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="1:6">
-      <c r="A76" s="30">
-        <v>12802</v>
-      </c>
-      <c r="B76" s="30">
-        <v>28</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" s="30" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="19">
+        <v>12501</v>
+      </c>
+      <c r="B76" s="20">
+        <v>25</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>178</v>
       </c>
+      <c r="D76" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="E76" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:6">
-      <c r="A77" s="30">
-        <v>12803</v>
-      </c>
-      <c r="B77" s="30">
-        <v>28</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="19">
+        <v>12601</v>
+      </c>
+      <c r="B77" s="20">
+        <v>26</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:6">
-      <c r="A78" s="30">
-        <v>12804</v>
-      </c>
-      <c r="B78" s="30">
-        <v>28</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" s="18" customFormat="1" spans="1:8">
+      <c r="A78" s="32">
+        <v>12602</v>
+      </c>
+      <c r="B78" s="33">
+        <v>26</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:6">
-      <c r="A79" s="30">
-        <v>12805</v>
-      </c>
-      <c r="B79" s="30">
-        <v>28</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F78" s="18" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:8">
-      <c r="A80" s="30">
-        <v>12806</v>
-      </c>
-      <c r="B80" s="30">
-        <v>28</v>
-      </c>
-      <c r="C80" s="32" t="s">
+      <c r="H78" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="19">
+        <v>12701</v>
+      </c>
+      <c r="B80" s="19">
+        <v>27</v>
+      </c>
+      <c r="C80" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="19" t="s">
         <v>189</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F80" s="24" t="s">
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="19">
+        <v>12702</v>
+      </c>
+      <c r="B81" s="19">
+        <v>27</v>
+      </c>
+      <c r="C81" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="H80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="D81" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="19">
-        <v>12901</v>
-      </c>
-      <c r="B82" s="30">
-        <v>29</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" s="32" t="s">
-        <v>193</v>
+        <v>12703</v>
+      </c>
+      <c r="B82" s="19">
+        <v>27</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>197</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:6">
       <c r="A83" s="19">
-        <v>12902</v>
-      </c>
-      <c r="B83" s="30">
-        <v>29</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" s="32" t="s">
-        <v>196</v>
+        <v>12704</v>
+      </c>
+      <c r="B83" s="19">
+        <v>27</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="19">
-        <v>12903</v>
-      </c>
-      <c r="B84" s="30">
-        <v>29</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="D84" s="32" t="s">
-        <v>200</v>
+        <v>12705</v>
+      </c>
+      <c r="B84" s="19">
+        <v>27</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="19">
-        <v>12904</v>
-      </c>
-      <c r="B85" s="30">
-        <v>29</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="D85" s="32" t="s">
-        <v>204</v>
+        <v>12706</v>
+      </c>
+      <c r="B85" s="19">
+        <v>27</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="19">
-        <v>12905</v>
-      </c>
-      <c r="B86" s="30">
-        <v>29</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="F86" s="24" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="19">
-        <v>12906</v>
-      </c>
-      <c r="B87" s="30">
-        <v>29</v>
-      </c>
-      <c r="C87" s="32" t="s">
+      <c r="H85" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="19"/>
+      <c r="C86" s="36"/>
+      <c r="F86" s="24"/>
+    </row>
+    <row r="87" customFormat="1" spans="1:5">
+      <c r="A87" s="27">
+        <v>12801</v>
+      </c>
+      <c r="B87" s="27">
+        <v>28</v>
+      </c>
+      <c r="C87" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="27" t="s">
         <v>212</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="F87" s="24" t="s">
+    </row>
+    <row r="88" customFormat="1" spans="1:6">
+      <c r="A88" s="27">
+        <v>12802</v>
+      </c>
+      <c r="B88" s="27">
+        <v>28</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="27" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="19">
-        <v>12907</v>
-      </c>
-      <c r="B88" s="30">
+      <c r="E88" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:6">
+      <c r="A89" s="27">
+        <v>12803</v>
+      </c>
+      <c r="B89" s="27">
+        <v>28</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:6">
+      <c r="A90" s="27">
+        <v>12804</v>
+      </c>
+      <c r="B90" s="27">
+        <v>28</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" customFormat="1" spans="1:6">
+      <c r="A91" s="27">
+        <v>12805</v>
+      </c>
+      <c r="B91" s="27">
+        <v>28</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:8">
+      <c r="A92" s="27">
+        <v>12806</v>
+      </c>
+      <c r="B92" s="27">
+        <v>28</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="19">
+        <v>12901</v>
+      </c>
+      <c r="B94" s="27">
         <v>29</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F88" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:5">
-      <c r="A90" s="30">
-        <v>13001</v>
-      </c>
-      <c r="B90" s="32">
-        <v>30</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D90" t="s">
-        <v>219</v>
-      </c>
-      <c r="E90" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:8">
-      <c r="A91" s="30">
-        <v>13002</v>
-      </c>
-      <c r="B91" s="32">
-        <v>30</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E91" t="s">
-        <v>223</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="H91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:6">
-      <c r="A93" s="19">
-        <v>13101</v>
-      </c>
-      <c r="B93" s="20">
-        <v>31</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D93" t="s">
-        <v>226</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F93" s="24"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="19">
-        <v>13102</v>
-      </c>
-      <c r="B94" s="20">
-        <v>31</v>
-      </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="30" t="s">
         <v>229</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F94" s="24" t="s">
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="19">
+        <v>12902</v>
+      </c>
+      <c r="B95" s="27">
+        <v>29</v>
+      </c>
+      <c r="C95" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H94" s="19" t="b">
+      <c r="D95" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="19">
+        <v>12903</v>
+      </c>
+      <c r="B96" s="27">
+        <v>29</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="19">
+        <v>12904</v>
+      </c>
+      <c r="B97" s="27">
+        <v>29</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="19">
+        <v>12905</v>
+      </c>
+      <c r="B98" s="27">
+        <v>29</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="19">
+        <v>12906</v>
+      </c>
+      <c r="B99" s="27">
+        <v>29</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="19">
+        <v>12907</v>
+      </c>
+      <c r="B100" s="27">
+        <v>29</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H100" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="19">
+    <row r="102" customHeight="1" spans="1:6">
+      <c r="A102" s="19">
+        <v>13101</v>
+      </c>
+      <c r="B102" s="20">
+        <v>31</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F102" s="24"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="19">
+        <v>13102</v>
+      </c>
+      <c r="B103" s="20">
+        <v>31</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H103" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="19">
         <v>13201</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B105" s="20">
         <v>32</v>
       </c>
-      <c r="C96" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="19">
+      <c r="C105" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E105" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="19">
         <v>13202</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B106" s="20">
         <v>32</v>
       </c>
-      <c r="C97" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" t="s">
-        <v>236</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="H97" s="19" t="b">
+      <c r="C106" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="H106" s="19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3601,56 +3891,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>249</v>
+        <v>277</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>278</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3659,10 +3949,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>255</v>
+        <v>283</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>284</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3676,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>257</v>
+        <v>285</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>286</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3693,10 +3983,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>259</v>
+        <v>287</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>288</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3710,10 +4000,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>261</v>
+        <v>289</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>290</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3727,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>263</v>
+        <v>291</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>292</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3740,29 +4030,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3770,29 +4060,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>255</v>
+        <v>297</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>284</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3804,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>257</v>
+        <v>301</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>286</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3826,10 +4116,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>259</v>
+        <v>302</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>288</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3848,10 +4138,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>261</v>
+        <v>303</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>290</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3870,10 +4160,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>263</v>
+        <v>304</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>292</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -474,6 +474,30 @@
     <t>DialogCommand:StoryPanel_Text_80;MyDelayCommand:0.3;</t>
   </si>
   <si>
+    <t>资源上限后建造仓库</t>
+  </si>
+  <si>
+    <t>WarehouseDialogTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_30;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>建造仓库</t>
+  </si>
+  <si>
+    <t>BuildFacility_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/WarehouseView</t>
+  </si>
+  <si>
+    <t>打开建造仓库界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_WarehouseTrigger</t>
+  </si>
+  <si>
     <t>访客系统</t>
   </si>
   <si>
@@ -493,30 +517,6 @@
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,VisitorsList/VisitorsBtn/Button</t>
-  </si>
-  <si>
-    <t>资源上限后建造仓库</t>
-  </si>
-  <si>
-    <t>WarehouseDialogTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_30;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>建造仓库</t>
-  </si>
-  <si>
-    <t>BuildFacility_WarehouseTrigger</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/Facility/WarehouseView</t>
-  </si>
-  <si>
-    <t>打开建造仓库界面</t>
-  </si>
-  <si>
-    <t>BuildFacilityPanel_WarehouseTrigger</t>
   </si>
   <si>
     <t>百草屋建造完后 文本说明</t>
@@ -949,9 +949,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -992,6 +992,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
@@ -1007,22 +1023,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,11 +1067,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1052,16 +1083,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,6 +1099,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -1083,22 +1114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -1108,22 +1123,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,7 +1163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1187,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,7 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,13 +1235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,31 +1259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,49 +1271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,13 +1289,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,6 +1500,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1515,24 +1524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1544,6 +1535,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1565,6 +1565,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1573,25 +1582,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1600,137 +1600,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1808,16 +1808,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2229,11 +2223,11 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2954,10 +2948,10 @@
       <c r="A51" s="19">
         <v>13301</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="26">
         <v>33</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="27" t="s">
         <v>115</v>
       </c>
       <c r="D51" t="s">
@@ -2972,10 +2966,10 @@
       <c r="A52" s="19">
         <v>13302</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="26">
         <v>33</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D52" t="s">
@@ -2990,10 +2984,10 @@
       <c r="A53" s="19">
         <v>13303</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="26">
         <v>33</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D53" t="s">
@@ -3010,10 +3004,10 @@
       <c r="A54" s="19">
         <v>13304</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="26">
         <v>33</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="28" t="s">
         <v>124</v>
       </c>
       <c r="D54" t="s">
@@ -3033,10 +3027,10 @@
       <c r="A55" s="19">
         <v>13501</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="26">
         <v>35</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="28" t="s">
         <v>127</v>
       </c>
       <c r="D55" t="s">
@@ -3051,10 +3045,10 @@
       <c r="F56" s="24"/>
     </row>
     <row r="57" customFormat="1" spans="1:5">
-      <c r="A57" s="27">
+      <c r="A57" s="26">
         <v>13001</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="25">
         <v>30</v>
       </c>
       <c r="C57" s="25" t="s">
@@ -3068,10 +3062,10 @@
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:8">
-      <c r="A58" s="27">
+      <c r="A58" s="26">
         <v>13002</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="25">
         <v>30</v>
       </c>
       <c r="C58" s="25" t="s">
@@ -3083,7 +3077,7 @@
       <c r="E58" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="29" t="s">
         <v>136</v>
       </c>
       <c r="H58" t="b">
@@ -3091,20 +3085,20 @@
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:6">
-      <c r="A59" s="27"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
-      <c r="F59" s="31"/>
+      <c r="F59" s="29"/>
     </row>
     <row r="60" customFormat="1" spans="1:6">
-      <c r="A60" s="27">
+      <c r="A60" s="26">
         <v>13401</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="25">
         <v>34</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="28" t="s">
         <v>137</v>
       </c>
       <c r="D60" t="s">
@@ -3113,16 +3107,16 @@
       <c r="E60" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="31"/>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" customFormat="1" spans="1:6">
-      <c r="A61" s="27">
+      <c r="A61" s="26">
         <v>13402</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="25">
         <v>34</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="28" t="s">
         <v>140</v>
       </c>
       <c r="D61" t="s">
@@ -3136,13 +3130,13 @@
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:6">
-      <c r="A62" s="27">
+      <c r="A62" s="26">
         <v>13403</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="25">
         <v>34</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D62" t="s">
@@ -3156,13 +3150,13 @@
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:8">
-      <c r="A63" s="27">
+      <c r="A63" s="26">
         <v>13601</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="25">
         <v>36</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="28" t="s">
         <v>148</v>
       </c>
       <c r="D63" t="s">
@@ -3171,17 +3165,17 @@
       <c r="E63" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F63" s="31"/>
+      <c r="F63" s="29"/>
       <c r="H63" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="19">
-        <v>11901</v>
+        <v>12001</v>
       </c>
       <c r="B65" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>151</v>
@@ -3193,12 +3187,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:6">
       <c r="A66" s="19">
-        <v>11902</v>
+        <v>12002</v>
       </c>
       <c r="B66" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>154</v>
@@ -3207,72 +3201,72 @@
         <v>155</v>
       </c>
       <c r="E66" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F66" s="24" t="s">
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="19">
+        <v>12003</v>
+      </c>
+      <c r="B67" s="20">
+        <v>20</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="H66" t="b">
+      <c r="D67" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="19">
-        <v>12001</v>
-      </c>
-      <c r="B68" s="20">
-        <v>20</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="19" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="19">
+        <v>11901</v>
+      </c>
+      <c r="B69" s="20">
+        <v>19</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="D69" s="19" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="19">
-        <v>12002</v>
-      </c>
-      <c r="B69" s="20">
-        <v>20</v>
-      </c>
-      <c r="C69" s="20" t="s">
+      <c r="E69" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="19">
-        <v>12003</v>
+        <v>11902</v>
       </c>
       <c r="B70" s="20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="F70" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="19" t="b">
+      <c r="H70" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3379,16 +3373,16 @@
       </c>
     </row>
     <row r="78" s="18" customFormat="1" spans="1:8">
-      <c r="A78" s="32">
+      <c r="A78" s="30">
         <v>12602</v>
       </c>
-      <c r="B78" s="33">
+      <c r="B78" s="31">
         <v>26</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="32" t="s">
         <v>185</v>
       </c>
       <c r="E78" s="21" t="s">
@@ -3445,7 +3439,7 @@
       <c r="B82" s="19">
         <v>27</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -3465,7 +3459,7 @@
       <c r="B83" s="19">
         <v>27</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="33" t="s">
         <v>199</v>
       </c>
       <c r="D83" s="19" t="s">
@@ -3523,20 +3517,20 @@
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="19"/>
-      <c r="C86" s="36"/>
+      <c r="C86" s="34"/>
       <c r="F86" s="24"/>
     </row>
     <row r="87" customFormat="1" spans="1:5">
-      <c r="A87" s="27">
+      <c r="A87" s="26">
         <v>12801</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87" s="26">
         <v>28</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E87" s="21" t="s">
@@ -3544,16 +3538,16 @@
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:6">
-      <c r="A88" s="27">
+      <c r="A88" s="26">
         <v>12802</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88" s="26">
         <v>28</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="26" t="s">
         <v>214</v>
       </c>
       <c r="E88" s="21" t="s">
@@ -3564,16 +3558,16 @@
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:6">
-      <c r="A89" s="27">
+      <c r="A89" s="26">
         <v>12803</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89" s="26">
         <v>28</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="26" t="s">
         <v>215</v>
       </c>
       <c r="E89" s="21" t="s">
@@ -3584,16 +3578,16 @@
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:6">
-      <c r="A90" s="27">
+      <c r="A90" s="26">
         <v>12804</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="26">
         <v>28</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="26" t="s">
         <v>217</v>
       </c>
       <c r="E90" s="21" t="s">
@@ -3604,16 +3598,16 @@
       </c>
     </row>
     <row r="91" customFormat="1" spans="1:6">
-      <c r="A91" s="27">
+      <c r="A91" s="26">
         <v>12805</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="26">
         <v>28</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="26" t="s">
         <v>221</v>
       </c>
       <c r="E91" s="21" t="s">
@@ -3624,16 +3618,16 @@
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:8">
-      <c r="A92" s="27">
+      <c r="A92" s="26">
         <v>12806</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B92" s="26">
         <v>28</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="26" t="s">
         <v>225</v>
       </c>
       <c r="E92" s="21" t="s">
@@ -3650,13 +3644,13 @@
       <c r="A94" s="19">
         <v>12901</v>
       </c>
-      <c r="B94" s="27">
+      <c r="B94" s="26">
         <v>29</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="25" t="s">
         <v>229</v>
       </c>
       <c r="E94" s="21" t="s">
@@ -3667,13 +3661,13 @@
       <c r="A95" s="19">
         <v>12902</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="26">
         <v>29</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="25" t="s">
         <v>232</v>
       </c>
       <c r="E95" s="21" t="s">
@@ -3687,13 +3681,13 @@
       <c r="A96" s="19">
         <v>12903</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96" s="26">
         <v>29</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="D96" s="25" t="s">
         <v>236</v>
       </c>
       <c r="E96" s="21" t="s">
@@ -3707,13 +3701,13 @@
       <c r="A97" s="19">
         <v>12904</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="26">
         <v>29</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="30" t="s">
+      <c r="D97" s="25" t="s">
         <v>240</v>
       </c>
       <c r="E97" s="21" t="s">
@@ -3727,13 +3721,13 @@
       <c r="A98" s="19">
         <v>12905</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="26">
         <v>29</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="25" t="s">
         <v>244</v>
       </c>
       <c r="E98" s="21" t="s">
@@ -3747,13 +3741,13 @@
       <c r="A99" s="19">
         <v>12906</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="26">
         <v>29</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="25" t="s">
         <v>248</v>
       </c>
       <c r="E99" s="21" t="s">
@@ -3767,13 +3761,13 @@
       <c r="A100" s="19">
         <v>12907</v>
       </c>
-      <c r="B100" s="27">
+      <c r="B100" s="26">
         <v>29</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D100" s="25" t="s">
         <v>252</v>
       </c>
       <c r="E100" s="21" t="s">
@@ -3811,7 +3805,7 @@
       <c r="B103" s="20">
         <v>31</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="33" t="s">
         <v>257</v>
       </c>
       <c r="D103" s="19" t="s">
@@ -3834,7 +3828,7 @@
       <c r="B105" s="20">
         <v>32</v>
       </c>
-      <c r="C105" s="37" t="s">
+      <c r="C105" s="35" t="s">
         <v>261</v>
       </c>
       <c r="D105" s="26" t="s">
@@ -3926,7 +3920,7 @@
       <c r="D4" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>278</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -3951,7 +3945,7 @@
       <c r="D5" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="37" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="8"/>
@@ -3968,7 +3962,7 @@
       <c r="D6" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="37" t="s">
         <v>286</v>
       </c>
       <c r="F6" s="8"/>
@@ -3985,7 +3979,7 @@
       <c r="D7" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>288</v>
       </c>
       <c r="F7" s="8"/>
@@ -4002,7 +3996,7 @@
       <c r="D8" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
         <v>290</v>
       </c>
       <c r="F8" s="8"/>
@@ -4019,7 +4013,7 @@
       <c r="D9" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="37" t="s">
         <v>292</v>
       </c>
       <c r="F9" s="10"/>
@@ -4068,7 +4062,7 @@
       <c r="D13" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="37" t="s">
         <v>284</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -4096,7 +4090,7 @@
       <c r="D14" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="37" t="s">
         <v>286</v>
       </c>
       <c r="F14" s="4"/>
@@ -4118,7 +4112,7 @@
       <c r="D15" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="37" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="4"/>
@@ -4140,7 +4134,7 @@
       <c r="D16" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="37" t="s">
         <v>290</v>
       </c>
       <c r="F16" s="4"/>
@@ -4162,7 +4156,7 @@
       <c r="D17" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="37" t="s">
         <v>292</v>
       </c>
       <c r="F17" s="4"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="289">
   <si>
     <t>ID</t>
   </si>
@@ -264,523 +264,475 @@
     <t>BuildFacilityPanel_KitchenTrigger</t>
   </si>
   <si>
-    <t>公告榜介绍</t>
-  </si>
-  <si>
-    <t>TaskPanelTrigger_IntroduceTrigger</t>
+    <t>随机战斗引导介绍</t>
+  </si>
+  <si>
+    <t>RandomFightTrigger_IntroduceTrigger</t>
   </si>
   <si>
     <t>DialogCommand:StoryPanel_Text_55;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>点击公告榜按钮</t>
-  </si>
-  <si>
-    <t>ClickTaskBtnTrigger2</t>
+    <t>点击随机战斗按钮</t>
+  </si>
+  <si>
+    <t>RandomFightTrigger_ClickTaskBtnTrigger2</t>
   </si>
   <si>
     <t>NormalTipsCommand:StoryPanel_Text_13,22|108,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:MainMenuPanel,BulletinBoardBtn</t>
-  </si>
-  <si>
-    <t>查看任务详情</t>
-  </si>
-  <si>
-    <t>ClickTaskDetailsTrigger2</t>
+    <t>UINodeFinder:MainMenuPanel,TacticalFunction/TacticalFunctionBtn(Clone)</t>
+  </si>
+  <si>
+    <t>点击前往按钮</t>
+  </si>
+  <si>
+    <t>RandomFightTrigger_ClickAcceptBtn</t>
   </si>
   <si>
     <t>NormalTipsCommand:StoryPanel_Text_14,-78|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
-    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Top/FuncBtn</t>
-  </si>
-  <si>
-    <t>选择弟子按钮</t>
-  </si>
-  <si>
-    <t>SelectCharacterOnTaskBtnTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:BulletinBoardPanel,Bottom/TaskCont/Viewport/TaskContParent/BulletinBoardItem9001/Bottom/MiddleDown/BulletinBoardDisciple(Clone)</t>
-  </si>
-  <si>
-    <t>选择弟子1</t>
-  </si>
-  <si>
-    <t>SelectCharacterPanelTrigger2_1</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:SendDisciplesPanel,Bg/Midlle/UnselectedList/SendSelectedDisciple(Clone)</t>
-  </si>
-  <si>
-    <t>选择弟子2</t>
-  </si>
-  <si>
-    <t>SelectCharacterPanelTrigger2_2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,103|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:ChallengeChooseDisciple,Bottom/Scroll View/Viewport/Cont/ChallengePanelDisciple(Clone)</t>
-  </si>
-  <si>
-    <t>确认选择</t>
-  </si>
-  <si>
-    <t>SelectCharacterSureTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_38,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:ChallengeChooseDisciple,ConfirmBtn</t>
-  </si>
-  <si>
-    <t>前往</t>
-  </si>
-  <si>
-    <t>SendCharacterOnTaskTrigger2</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_39,13|79,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+    <t>UINodeFinder:TacticalFunctionPanel,Down/Accept</t>
+  </si>
+  <si>
+    <t>战斗结束介绍</t>
+  </si>
+  <si>
+    <t>RandomFightTrigger_FinishedIntroduce</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_81,StoryPanel_Text_82;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>建造练功房</t>
+  </si>
+  <si>
+    <t>BuildPracticeFieldEastTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_45,StoryPanel_Text_46;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>招募系统引导</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_IntroduceTrigger1</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_70,StoryPanel_Text_71;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>招募系统引导2</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_IntroduceTrigger2</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_72;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>招募系统引导，点击讲武堂</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_ClickLobbyFacilityTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_73;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>招募系统引导，点击银牌招募令</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_ClickGetCharacterTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_74,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>招募系统引导，招募完成</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_FinishedTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_75,StoryPanel_Text_76;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>出现工作气泡</t>
+  </si>
+  <si>
+    <t>DialogTrigger8</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_57;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>SendCharacterWorkTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickBubbleCommand:#0,38|-8,StoryPanel_Text_58;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
+  </si>
+  <si>
+    <t>签到系统引导</t>
+  </si>
+  <si>
+    <t>SignInSystem_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_77;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>点击签到按钮</t>
+  </si>
+  <si>
+    <t>SignInSystem_ClickSignBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_78,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,SignInBtn</t>
+  </si>
+  <si>
+    <t>点击签到领取按钮</t>
+  </si>
+  <si>
+    <t>SignInSystem_ClickSignReceiveBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_79,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:SignInPanel,SignPanel_BG/AcceptBtn</t>
+  </si>
+  <si>
+    <t>签到完成</t>
+  </si>
+  <si>
+    <t>SignInSystem_FinishedTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_80;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>资源上限后建造仓库</t>
+  </si>
+  <si>
+    <t>WarehouseDialogTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_30;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>建造仓库</t>
+  </si>
+  <si>
+    <t>BuildFacility_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/WarehouseView</t>
+  </si>
+  <si>
+    <t>打开建造仓库界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>访客系统</t>
+  </si>
+  <si>
+    <t>VisitotBtnNormalTipTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_41;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>点击访客系统按钮</t>
+  </si>
+  <si>
+    <t>ClickVisitorBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_42,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,VisitorsList/VisitorsBtn/Button</t>
+  </si>
+  <si>
+    <t>百草屋建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildBaicaohuTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_31;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>练功场建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildPracticeFieldTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_32;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>藏经阁建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildKungfuLibraryTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_33;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>锻造屋建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildForgehouseTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_34;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>伙房第一次升级 烹饪说明</t>
+  </si>
+  <si>
+    <t>FoodBuffTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_35;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>收集系统说明</t>
+  </si>
+  <si>
+    <t>CollectSystemTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_36;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>收集系统遮罩引导</t>
+  </si>
+  <si>
+    <t>CollectSystem_ClickLotusrootTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_59;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/CollectItem/LotusRoot/Bubble</t>
+  </si>
+  <si>
+    <t>武功秘籍引导</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_44;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>点击打开弟子界面</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ClickOpenDisciplePanelTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_60,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,MenuList/DiscipleBtn</t>
+  </si>
+  <si>
+    <t>目标弟子选择</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ChoiceTargetDiscipleTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DisciplePanel,Bg/Right/Scroll View/Viewport/DiscipleList/Disciple(Clone)</t>
+  </si>
+  <si>
+    <t>武功秘籍学习</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/UpperMiddle/KungfuTra/KungfuPanelItem(Clone)</t>
+  </si>
+  <si>
+    <t>选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
+  </si>
+  <si>
+    <t>确定选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/Arrange</t>
+  </si>
+  <si>
+    <t>武器引导</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_47;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ClickOpenDisciplePanelTrigger</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ChoiceTargetDiscipleTrigger</t>
+  </si>
+  <si>
+    <t>点击武器槽</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ClickArmsBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/RightLowerMiddle/ArmsBg</t>
+  </si>
+  <si>
+    <t>选择武器</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ChoiceArmsTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_65,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/WearableLearningList/WearableLearningItem(Clone)</t>
+  </si>
+  <si>
+    <t>确定选择武器</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ConfirmChoiceArmsTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/Arrange</t>
+  </si>
+  <si>
+    <t>挑战系统</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_48;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>点击挑战系统按钮</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickChallengeBtnTrigger1</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:ClickChallenge,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,MenuList/ChallengeBtn</t>
+  </si>
+  <si>
+    <t>选择挑战对象</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ChoiceChallengeObjTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_49,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.5;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:ChallengePanel,Bottom/Scroll View/Viewport/ChallengeList/ChallengeTaskItem(Clone)/Right/ChallengeBtn</t>
+  </si>
+  <si>
+    <t>选择挑战关卡</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ChoiceChallengeLevelTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_39,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.6;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:ChallengeBattlePanel,GaibangPanel(Clone)/Scroll View/Viewport/CheckpointTra/Bg/ChallengeBtn</t>
+  </si>
+  <si>
+    <t>点击接受挑战</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickAcceptChallengeBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_50,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.7;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:IdentifyChallengesPanel,Bg/ChallengesBtn</t>
+  </si>
+  <si>
+    <t>点击一键选择</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickAKeyChoiceTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_51,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.8;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AutoSelectedBtn</t>
+  </si>
+  <si>
+    <t>点击开始战斗</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickStartChallengeTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.9;</t>
   </si>
   <si>
     <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AcceptBtn</t>
-  </si>
-  <si>
-    <t>建造练功房</t>
-  </si>
-  <si>
-    <t>BuildPracticeFieldEastTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_45,StoryPanel_Text_46;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>招募系统引导</t>
-  </si>
-  <si>
-    <t>RecruitmentSystem_IntroduceTrigger1</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_70,StoryPanel_Text_71;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>招募系统引导2</t>
-  </si>
-  <si>
-    <t>RecruitmentSystem_IntroduceTrigger2</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_72;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>招募系统引导，点击讲武堂</t>
-  </si>
-  <si>
-    <t>RecruitmentSystem_ClickLobbyFacilityTrigger</t>
-  </si>
-  <si>
-    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_73;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>招募系统引导，点击银牌招募令</t>
-  </si>
-  <si>
-    <t>RecruitmentSystem_ClickGetCharacterTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_74,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>招募系统引导，招募完成</t>
-  </si>
-  <si>
-    <t>RecruitmentSystem_FinishedTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_75,StoryPanel_Text_76;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>出现工作气泡</t>
-  </si>
-  <si>
-    <t>DialogTrigger8</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_57;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>派遣弟子工作</t>
-  </si>
-  <si>
-    <t>SendCharacterWorkTrigger</t>
-  </si>
-  <si>
-    <t>GuideClickBubbleCommand:#0,38|-8,StoryPanel_Text_58;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
-  </si>
-  <si>
-    <t>签到系统引导</t>
-  </si>
-  <si>
-    <t>SignInSystem_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_77;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>点击签到按钮</t>
-  </si>
-  <si>
-    <t>SignInSystem_ClickSignBtnTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_78,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:MainMenuPanel,SignInBtn</t>
-  </si>
-  <si>
-    <t>点击签到领取按钮</t>
-  </si>
-  <si>
-    <t>SignInSystem_ClickSignReceiveBtnTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_79,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:SignInPanel,SignPanel_BG/AcceptBtn</t>
-  </si>
-  <si>
-    <t>签到完成</t>
-  </si>
-  <si>
-    <t>SignInSystem_FinishedTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_80;MyDelayCommand:0.3;</t>
-  </si>
-  <si>
-    <t>资源上限后建造仓库</t>
-  </si>
-  <si>
-    <t>WarehouseDialogTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_30;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>建造仓库</t>
-  </si>
-  <si>
-    <t>BuildFacility_WarehouseTrigger</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/Facility/WarehouseView</t>
-  </si>
-  <si>
-    <t>打开建造仓库界面</t>
-  </si>
-  <si>
-    <t>BuildFacilityPanel_WarehouseTrigger</t>
-  </si>
-  <si>
-    <t>访客系统</t>
-  </si>
-  <si>
-    <t>VisitotBtnNormalTipTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_41;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>点击访客系统按钮</t>
-  </si>
-  <si>
-    <t>ClickVisitorBtnTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_42,11|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:MainMenuPanel,VisitorsList/VisitorsBtn/Button</t>
-  </si>
-  <si>
-    <t>百草屋建造完后 文本说明</t>
-  </si>
-  <si>
-    <t>BuildBaicaohuTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_31;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>练功场建造完后 文本说明</t>
-  </si>
-  <si>
-    <t>BuildPracticeFieldTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_32;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>藏经阁建造完后 文本说明</t>
-  </si>
-  <si>
-    <t>BuildKungfuLibraryTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_33;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>锻造屋建造完后 文本说明</t>
-  </si>
-  <si>
-    <t>BuildForgehouseTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_34;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>伙房第一次升级 烹饪说明</t>
-  </si>
-  <si>
-    <t>FoodBuffTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_35;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>收集系统说明</t>
-  </si>
-  <si>
-    <t>CollectSystemTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_36;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>收集系统遮罩引导</t>
-  </si>
-  <si>
-    <t>CollectSystem_ClickLotusrootTrigger</t>
-  </si>
-  <si>
-    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_59;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>EntityRoot/SimSection/CollectItem/LotusRoot/Bubble</t>
-  </si>
-  <si>
-    <t>武功秘籍引导</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_44;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>点击打开弟子界面</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ClickOpenDisciplePanelTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_60,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:MainMenuPanel,MenuList/DiscipleBtn</t>
-  </si>
-  <si>
-    <t>目标弟子选择</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ChoiceTargetDiscipleTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DisciplePanel,Bg/Right/Scroll View/Viewport/DiscipleList/Disciple(Clone)</t>
-  </si>
-  <si>
-    <t>武功秘籍学习</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/UpperMiddle/KungfuTra/KungfuPanelItem(Clone)</t>
-  </si>
-  <si>
-    <t>选择武功秘籍</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ChoiceKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
-  </si>
-  <si>
-    <t>确定选择武功秘籍</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/Arrange</t>
-  </si>
-  <si>
-    <t>武器引导</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_47;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ClickOpenDisciplePanelTrigger</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ChoiceTargetDiscipleTrigger</t>
-  </si>
-  <si>
-    <t>点击武器槽</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ClickArmsBtnTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/RightLowerMiddle/ArmsBg</t>
-  </si>
-  <si>
-    <t>选择武器</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ChoiceArmsTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_65,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/WearableLearningList/WearableLearningItem(Clone)</t>
-  </si>
-  <si>
-    <t>确定选择武器</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ConfirmChoiceArmsTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/Arrange</t>
-  </si>
-  <si>
-    <t>挑战系统</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_48;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>点击挑战系统按钮</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ClickChallengeBtnTrigger1</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:ClickChallenge,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:MainMenuPanel,MenuList/ChallengeBtn</t>
-  </si>
-  <si>
-    <t>选择挑战对象</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ChoiceChallengeObjTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_49,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.5;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:ChallengePanel,Bottom/Scroll View/Viewport/ChallengeList/ChallengeTaskItem(Clone)/Right/ChallengeBtn</t>
-  </si>
-  <si>
-    <t>选择挑战关卡</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ChoiceChallengeLevelTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_39,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.6;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:ChallengeBattlePanel,GaibangPanel(Clone)/Scroll View/Viewport/CheckpointTra/Bg/ChallengeBtn</t>
-  </si>
-  <si>
-    <t>点击接受挑战</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ClickAcceptChallengeBtnTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_50,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.7;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:IdentifyChallengesPanel,Bg/ChallengesBtn</t>
-  </si>
-  <si>
-    <t>点击一键选择</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ClickAKeyChoiceTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_51,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.8;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AutoSelectedBtn</t>
-  </si>
-  <si>
-    <t>点击开始战斗</t>
-  </si>
-  <si>
-    <t>ChallengeSystemTrigger_ClickStartChallengeTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.9;</t>
   </si>
   <si>
     <t>剧情引导(弟子会自动工作)</t>
@@ -949,11 +901,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -992,29 +944,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -1022,61 +951,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,11 +967,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1114,6 +1035,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -1121,16 +1081,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,7 +1109,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,13 +1187,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,79 +1241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,37 +1259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,19 +1271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,26 +1437,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1525,25 +1479,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,19 +1511,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1588,10 +1540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1600,133 +1552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2220,14 +2172,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2800,7 +2752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" s="19">
         <v>11703</v>
       </c>
@@ -2819,13 +2771,16 @@
       <c r="F42" s="24" t="s">
         <v>91</v>
       </c>
+      <c r="H42" s="19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="19">
-        <v>11704</v>
+        <v>13701</v>
       </c>
       <c r="B43" s="20">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>92</v>
@@ -2836,1028 +2791,943 @@
       <c r="E43" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="19">
-        <v>11705</v>
-      </c>
-      <c r="B44" s="20">
-        <v>17</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>99</v>
-      </c>
+      <c r="F43" s="24"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="19">
-        <v>11706</v>
+        <v>11801</v>
       </c>
       <c r="B45" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="19">
+        <v>13301</v>
+      </c>
+      <c r="B47" s="26">
+        <v>33</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="F47" s="24"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="19">
+        <v>13302</v>
+      </c>
+      <c r="B48" s="26">
+        <v>33</v>
+      </c>
+      <c r="C48" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="D48" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="E48" s="21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="19">
-        <v>11707</v>
-      </c>
-      <c r="B46" s="20">
-        <v>17</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="19">
-        <v>11708</v>
-      </c>
-      <c r="B47" s="20">
-        <v>17</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="19" t="b">
-        <v>1</v>
-      </c>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="19">
-        <v>11801</v>
-      </c>
-      <c r="B49" s="20">
-        <v>18</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>113</v>
+        <v>13303</v>
+      </c>
+      <c r="B49" s="26">
+        <v>33</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="19">
+        <v>13304</v>
+      </c>
+      <c r="B50" s="26">
+        <v>33</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="19">
-        <v>13301</v>
+        <v>13501</v>
       </c>
       <c r="B51" s="26">
-        <v>33</v>
-      </c>
-      <c r="C51" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="24"/>
+    </row>
+    <row r="53" customFormat="1" spans="1:5">
+      <c r="A53" s="26">
+        <v>13001</v>
+      </c>
+      <c r="B53" s="25">
+        <v>30</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" t="s">
         <v>115</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="54" customFormat="1" spans="1:8">
+      <c r="A54" s="26">
+        <v>13002</v>
+      </c>
+      <c r="B54" s="25">
+        <v>30</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="D54" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="24"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="19">
-        <v>13302</v>
-      </c>
-      <c r="B52" s="26">
-        <v>33</v>
-      </c>
-      <c r="C52" s="27" t="s">
+      <c r="E54" t="s">
         <v>118</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F54" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:6">
+      <c r="A55" s="26"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" customFormat="1" spans="1:6">
+      <c r="A56" s="26">
+        <v>13401</v>
+      </c>
+      <c r="B56" s="25">
+        <v>34</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="24"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="19">
-        <v>13303</v>
-      </c>
-      <c r="B53" s="26">
-        <v>33</v>
-      </c>
-      <c r="C53" s="27" t="s">
+      <c r="D56" t="s">
         <v>121</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E56" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" customFormat="1" spans="1:6">
+      <c r="A57" s="26">
+        <v>13402</v>
+      </c>
+      <c r="B57" s="25">
+        <v>34</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="19">
-        <v>13304</v>
-      </c>
-      <c r="B54" s="26">
-        <v>33</v>
-      </c>
-      <c r="C54" s="28" t="s">
+      <c r="D57" t="s">
         <v>124</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E57" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="F57" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="F54" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="19" t="b">
+    </row>
+    <row r="58" customFormat="1" spans="1:6">
+      <c r="A58" s="26">
+        <v>13403</v>
+      </c>
+      <c r="B58" s="25">
+        <v>34</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:8">
+      <c r="A59" s="26">
+        <v>13601</v>
+      </c>
+      <c r="B59" s="25">
+        <v>36</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="H59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="19">
-        <v>13501</v>
-      </c>
-      <c r="B55" s="26">
-        <v>35</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="24"/>
-    </row>
-    <row r="56" spans="6:6">
-      <c r="F56" s="24"/>
-    </row>
-    <row r="57" customFormat="1" spans="1:5">
-      <c r="A57" s="26">
-        <v>13001</v>
-      </c>
-      <c r="B57" s="25">
+    <row r="61" spans="1:5">
+      <c r="A61" s="19">
+        <v>12001</v>
+      </c>
+      <c r="B61" s="20">
+        <v>20</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="19">
+        <v>12002</v>
+      </c>
+      <c r="B62" s="20">
+        <v>20</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="19">
+        <v>12003</v>
+      </c>
+      <c r="B63" s="20">
+        <v>20</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:8">
-      <c r="A58" s="26">
-        <v>13002</v>
-      </c>
-      <c r="B58" s="25">
-        <v>30</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:6">
-      <c r="A59" s="26"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="F59" s="29"/>
-    </row>
-    <row r="60" customFormat="1" spans="1:6">
-      <c r="A60" s="26">
-        <v>13401</v>
-      </c>
-      <c r="B60" s="25">
-        <v>34</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" customFormat="1" spans="1:6">
-      <c r="A61" s="26">
-        <v>13402</v>
-      </c>
-      <c r="B61" s="25">
-        <v>34</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:6">
-      <c r="A62" s="26">
-        <v>13403</v>
-      </c>
-      <c r="B62" s="25">
-        <v>34</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="1:8">
-      <c r="A63" s="26">
-        <v>13601</v>
-      </c>
-      <c r="B63" s="25">
-        <v>36</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="29"/>
-      <c r="H63" t="b">
+      <c r="H63" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="19">
-        <v>12001</v>
+        <v>11901</v>
       </c>
       <c r="B65" s="20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="19">
+        <v>11902</v>
+      </c>
+      <c r="B66" s="20">
+        <v>19</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="19">
+        <v>12101</v>
+      </c>
+      <c r="B68" s="20">
+        <v>21</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="19">
-        <v>12002</v>
-      </c>
-      <c r="B66" s="20">
-        <v>20</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="19">
-        <v>12003</v>
-      </c>
-      <c r="B67" s="20">
-        <v>20</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="19" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="19">
-        <v>11901</v>
+        <v>12201</v>
       </c>
       <c r="B69" s="20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C69" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="19">
+        <v>12301</v>
+      </c>
+      <c r="B70" s="20">
+        <v>23</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:5">
+      <c r="A71" s="19">
+        <v>12401</v>
+      </c>
+      <c r="B71" s="20">
+        <v>24</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="E71" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="19">
-        <v>11902</v>
-      </c>
-      <c r="B70" s="20">
-        <v>19</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H70" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="19">
-        <v>12101</v>
+        <v>12501</v>
       </c>
       <c r="B72" s="20">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="19">
-        <v>12201</v>
+        <v>12601</v>
       </c>
       <c r="B73" s="20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C73" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" s="18" customFormat="1" spans="1:8">
+      <c r="A74" s="30">
+        <v>12602</v>
+      </c>
+      <c r="B74" s="31">
+        <v>26</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="F74" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E73" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="19">
-        <v>12301</v>
-      </c>
-      <c r="B74" s="20">
-        <v>23</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:5">
-      <c r="A75" s="19">
-        <v>12401</v>
-      </c>
-      <c r="B75" s="20">
-        <v>24</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>177</v>
+      <c r="H74" s="18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="19">
-        <v>12501</v>
-      </c>
-      <c r="B76" s="20">
-        <v>25</v>
+        <v>12701</v>
+      </c>
+      <c r="B76" s="19">
+        <v>27</v>
       </c>
       <c r="C76" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="19">
+        <v>12702</v>
+      </c>
+      <c r="B77" s="19">
+        <v>27</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="19">
+        <v>12703</v>
+      </c>
+      <c r="B78" s="19">
+        <v>27</v>
+      </c>
+      <c r="C78" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D78" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E78" s="21" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="19">
-        <v>12601</v>
-      </c>
-      <c r="B77" s="20">
-        <v>26</v>
-      </c>
-      <c r="C77" s="20" t="s">
+      <c r="F78" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D77" s="19" t="s">
+    </row>
+    <row r="79" customHeight="1" spans="1:6">
+      <c r="A79" s="19">
+        <v>12704</v>
+      </c>
+      <c r="B79" s="19">
+        <v>27</v>
+      </c>
+      <c r="C79" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="D79" s="19" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="78" s="18" customFormat="1" spans="1:8">
-      <c r="A78" s="30">
-        <v>12602</v>
-      </c>
-      <c r="B78" s="31">
-        <v>26</v>
-      </c>
-      <c r="C78" s="31" t="s">
+      <c r="E79" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="F79" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="H78" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="19">
-        <v>12701</v>
+        <v>12705</v>
       </c>
       <c r="B80" s="19">
         <v>27</v>
       </c>
       <c r="C80" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="F80" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="19">
-        <v>12702</v>
+        <v>12706</v>
       </c>
       <c r="B81" s="19">
         <v>27</v>
       </c>
       <c r="C81" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="E81" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="F81" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="H81" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="19"/>
+      <c r="C82" s="34"/>
+      <c r="F82" s="24"/>
+    </row>
+    <row r="83" customFormat="1" spans="1:5">
+      <c r="A83" s="26">
+        <v>12801</v>
+      </c>
+      <c r="B83" s="26">
+        <v>28</v>
+      </c>
+      <c r="C83" s="35" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="19">
-        <v>12703</v>
-      </c>
-      <c r="B82" s="19">
-        <v>27</v>
-      </c>
-      <c r="C82" s="33" t="s">
+      <c r="D83" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="E83" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E82" s="21" t="s">
+    </row>
+    <row r="84" customFormat="1" spans="1:6">
+      <c r="A84" s="26">
+        <v>12802</v>
+      </c>
+      <c r="B84" s="26">
+        <v>28</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="E84" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:6">
+      <c r="A85" s="26">
+        <v>12803</v>
+      </c>
+      <c r="B85" s="26">
+        <v>28</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="26" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:6">
-      <c r="A83" s="19">
-        <v>12704</v>
-      </c>
-      <c r="B83" s="19">
-        <v>27</v>
-      </c>
-      <c r="C83" s="33" t="s">
+      <c r="E85" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:6">
+      <c r="A86" s="26">
+        <v>12804</v>
+      </c>
+      <c r="B86" s="26">
+        <v>28</v>
+      </c>
+      <c r="C86" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D86" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E86" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F86" s="24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="19">
-        <v>12705</v>
-      </c>
-      <c r="B84" s="19">
-        <v>27</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="19">
-        <v>12706</v>
-      </c>
-      <c r="B85" s="19">
-        <v>27</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="H85" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="19"/>
-      <c r="C86" s="34"/>
-      <c r="F86" s="24"/>
-    </row>
-    <row r="87" customFormat="1" spans="1:5">
+    <row r="87" customFormat="1" spans="1:6">
       <c r="A87" s="26">
-        <v>12801</v>
+        <v>12805</v>
       </c>
       <c r="B87" s="26">
         <v>28</v>
       </c>
-      <c r="C87" s="35" t="s">
-        <v>211</v>
+      <c r="C87" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:6">
+        <v>205</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:8">
       <c r="A88" s="26">
-        <v>12802</v>
+        <v>12806</v>
       </c>
       <c r="B88" s="26">
         <v>28</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D88" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="19">
+        <v>12901</v>
+      </c>
+      <c r="B90" s="26">
+        <v>29</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="19">
+        <v>12902</v>
+      </c>
+      <c r="B91" s="26">
+        <v>29</v>
+      </c>
+      <c r="C91" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E88" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F88" s="24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:6">
-      <c r="A89" s="26">
-        <v>12803</v>
-      </c>
-      <c r="B89" s="26">
-        <v>28</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="D89" s="26" t="s">
+      <c r="D91" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E89" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:6">
-      <c r="A90" s="26">
-        <v>12804</v>
-      </c>
-      <c r="B90" s="26">
-        <v>28</v>
-      </c>
-      <c r="C90" s="36" t="s">
+      <c r="E91" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="F91" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="E90" s="21" t="s">
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="19">
+        <v>12903</v>
+      </c>
+      <c r="B92" s="26">
+        <v>29</v>
+      </c>
+      <c r="C92" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F90" s="24" t="s">
+      <c r="D92" s="25" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:6">
-      <c r="A91" s="26">
-        <v>12805</v>
-      </c>
-      <c r="B91" s="26">
-        <v>28</v>
-      </c>
-      <c r="C91" s="25" t="s">
+      <c r="E92" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="F92" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="E91" s="21" t="s">
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="19">
+        <v>12904</v>
+      </c>
+      <c r="B93" s="26">
+        <v>29</v>
+      </c>
+      <c r="C93" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F91" s="24" t="s">
+      <c r="D93" s="25" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:8">
-      <c r="A92" s="26">
-        <v>12806</v>
-      </c>
-      <c r="B92" s="26">
-        <v>28</v>
-      </c>
-      <c r="C92" s="25" t="s">
+      <c r="E93" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="F93" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="E92" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="H92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="19">
-        <v>12901</v>
+        <v>12905</v>
       </c>
       <c r="B94" s="26">
         <v>29</v>
       </c>
       <c r="C94" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="F94" s="24" t="s">
         <v>229</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="19">
-        <v>12902</v>
+        <v>12906</v>
       </c>
       <c r="B95" s="26">
         <v>29</v>
       </c>
       <c r="C95" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="E95" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="F95" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="F95" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="19">
-        <v>12903</v>
+        <v>12907</v>
       </c>
       <c r="B96" s="26">
         <v>29</v>
       </c>
       <c r="C96" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="E96" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="F96" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="F96" s="24" t="s">
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:6">
+      <c r="A98" s="19">
+        <v>13101</v>
+      </c>
+      <c r="B98" s="20">
+        <v>31</v>
+      </c>
+      <c r="C98" s="25" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="19">
-        <v>12904</v>
-      </c>
-      <c r="B97" s="26">
-        <v>29</v>
-      </c>
-      <c r="C97" s="25" t="s">
+      <c r="D98" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="E98" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="F98" s="24"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="19">
+        <v>13102</v>
+      </c>
+      <c r="B99" s="20">
+        <v>31</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="F97" s="24" t="s">
+      <c r="D99" s="19" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="19">
-        <v>12905</v>
-      </c>
-      <c r="B98" s="26">
-        <v>29</v>
-      </c>
-      <c r="C98" s="25" t="s">
+      <c r="E99" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="F99" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="H99" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="19">
+        <v>13201</v>
+      </c>
+      <c r="B101" s="20">
+        <v>32</v>
+      </c>
+      <c r="C101" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="F98" s="24" t="s">
+      <c r="D101" s="26" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="19">
-        <v>12906</v>
-      </c>
-      <c r="B99" s="26">
-        <v>29</v>
-      </c>
-      <c r="C99" s="25" t="s">
+      <c r="E101" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="25" t="s">
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="19">
+        <v>13202</v>
+      </c>
+      <c r="B102" s="20">
+        <v>32</v>
+      </c>
+      <c r="C102" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="D102" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="F99" s="24" t="s">
+      <c r="E102" s="21" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="19">
-        <v>12907</v>
-      </c>
-      <c r="B100" s="26">
-        <v>29</v>
-      </c>
-      <c r="C100" s="25" t="s">
+      <c r="F102" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D100" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F100" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:6">
-      <c r="A102" s="19">
-        <v>13101</v>
-      </c>
-      <c r="B102" s="20">
-        <v>31</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="F102" s="24"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="19">
-        <v>13102</v>
-      </c>
-      <c r="B103" s="20">
-        <v>31</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="H103" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="19">
-        <v>13201</v>
-      </c>
-      <c r="B105" s="20">
-        <v>32</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="E105" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="19">
-        <v>13202</v>
-      </c>
-      <c r="B106" s="20">
-        <v>32</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F106" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="H106" s="19" t="b">
+      <c r="H102" s="19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3885,56 +3755,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3943,10 +3813,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3960,10 +3830,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3977,10 +3847,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3994,10 +3864,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -4011,10 +3881,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -4024,29 +3894,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4054,29 +3924,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4088,10 +3958,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -4110,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -4132,10 +4002,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -4154,10 +4024,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -294,7 +294,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_14,-78|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
-    <t>UINodeFinder:TacticalFunctionPanel,Down/Accept</t>
+    <t>UINodeFinder:TacticalFunctionPanel,Bg/Down/Accept</t>
   </si>
   <si>
     <t>战斗结束介绍</t>
@@ -901,11 +901,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -945,13 +945,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -959,9 +965,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,31 +979,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,6 +992,14 @@
       <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,22 +1018,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -1051,7 +1026,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1066,10 +1041,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,8 +1065,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,7 +1109,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,13 +1157,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,37 +1223,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,103 +1283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,26 +1439,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,21 +1472,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1526,11 +1509,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,10 +1540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1552,133 +1552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2179,7 +2179,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -279,7 +279,7 @@
     <t>RandomFightTrigger_ClickTaskBtnTrigger2</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_13,22|108,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_13,117|108,TRUE;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,TacticalFunction/TacticalFunctionBtn(Clone)</t>
@@ -901,9 +901,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -945,14 +945,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,6 +960,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,7 +988,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,9 +1033,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,29 +1058,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,47 +1081,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,13 +1109,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,31 +1235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,31 +1259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,55 +1271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,31 +1283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,6 +1440,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1457,45 +1466,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1524,6 +1494,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1534,16 +1519,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1555,130 +1555,130 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2175,11 +2175,11 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2732,7 +2732,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" ht="13" customHeight="1" spans="1:6">
       <c r="A41" s="19">
         <v>11702</v>
       </c>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -375,7 +375,7 @@
     <t>SendCharacterWorkTrigger</t>
   </si>
   <si>
-    <t>GuideClickBubbleCommand:#0,38|-8,StoryPanel_Text_58;MyDelayCommand:0.4;</t>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_58;MyDelayCommand:0.4;</t>
   </si>
   <si>
     <t>EntityRoot/SimSection/WorkingBubbles/bubble5/workingbubble</t>
@@ -901,10 +901,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -952,29 +952,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,24 +981,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,42 +1011,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,8 +1036,53 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,13 +1109,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,121 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,25 +1235,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,20 +1437,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,25 +1467,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1511,6 +1499,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1519,31 +1534,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1552,103 +1552,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1657,28 +1675,10 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2179,7 +2179,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -669,7 +669,7 @@
     <t>ChallengeSystemTrigger_ClickChallengeBtnTrigger1</t>
   </si>
   <si>
-    <t>NormalTipsCommand:ClickChallenge,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+    <t>NormalTipsCommand:ClickChallenge,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,MenuList/ChallengeBtn</t>
@@ -681,7 +681,7 @@
     <t>ChallengeSystemTrigger_ChoiceChallengeObjTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_49,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.5;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_49,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
     <t>UINodeFinder:ChallengePanel,Bottom/Scroll View/Viewport/ChallengeList/ChallengeTaskItem(Clone)/Right/ChallengeBtn</t>
@@ -693,10 +693,10 @@
     <t>ChallengeSystemTrigger_ChoiceChallengeLevelTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_39,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.6;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:ChallengeBattlePanel,GaibangPanel(Clone)/Scroll View/Viewport/CheckpointTra/Bg/ChallengeBtn</t>
+    <t>NormalTipsCommand:StoryPanel_Text_39,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:ChallengeBattlePanel,GaibangPanel(Clone)/Scroll View/Viewport/CheckpointTra/Bg/ChallengeBtn/NormalState</t>
   </si>
   <si>
     <t>点击接受挑战</t>
@@ -705,7 +705,7 @@
     <t>ChallengeSystemTrigger_ClickAcceptChallengeBtnTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_50,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.7;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_50,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
     <t>UINodeFinder:IdentifyChallengesPanel,Bg/ChallengesBtn</t>
@@ -717,7 +717,7 @@
     <t>ChallengeSystemTrigger_ClickAKeyChoiceTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_51,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.8;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_51,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
     <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AutoSelectedBtn</t>
@@ -729,7 +729,7 @@
     <t>ChallengeSystemTrigger_ClickStartChallengeTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.9;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_52,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
     <t>UINodeFinder:SendDisciplesPanel,Bg/Down/AcceptBtn</t>
@@ -901,11 +901,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -944,6 +944,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -960,7 +982,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,38 +996,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,6 +1009,13 @@
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1052,6 +1052,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1060,29 +1082,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,13 +1109,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,61 +1151,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,13 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,13 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,7 +1217,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,37 +1271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,21 +1438,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1467,16 +1452,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1509,8 +1494,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,8 +1518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,10 +1540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1552,133 +1552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2175,11 +2175,11 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="304">
   <si>
     <t>ID</t>
   </si>
@@ -775,6 +775,51 @@
   </si>
   <si>
     <t>UINodeFinder:MainMenuPanel,Baozi/CreateBaoziBtn</t>
+  </si>
+  <si>
+    <t>镖车建造引导</t>
+  </si>
+  <si>
+    <t>DeliverTrigger_BuildTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_83;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>点击镖局</t>
+  </si>
+  <si>
+    <t>DeliverTrigger_ClickDeliverTrigger</t>
+  </si>
+  <si>
+    <t>GuideClickWorldCommand:#0,38|-8,StoryPanel_Text_84;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>EntityRoot/SimSection/Facility/DeliverView</t>
+  </si>
+  <si>
+    <t>镖局点击快速出发按钮</t>
+  </si>
+  <si>
+    <t>DeliverTrigger_ClickQuickStartBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_85,38|-8;GuideButtonCommand:#0,0;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DeliverPanel,Scroll View/Viewport/Down/DeliverItem(Clone)/GameObject (1)/StateStart/Btn_</t>
+  </si>
+  <si>
+    <t>镖局点击双倍加速按钮</t>
+  </si>
+  <si>
+    <t>DeliverTrigger_ClickDoubleSpeedUpBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_86,38|-8;GuideButtonCommand:#0,0;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DeliverPanel,Scroll View/Viewport/Down/DeliverItem(Clone)/GameObject (1)/StateStarting/Btn_</t>
   </si>
   <si>
     <t>模块</t>
@@ -901,11 +946,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -944,9 +989,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,54 +1056,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,9 +1072,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,45 +1104,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,7 +1154,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,49 +1220,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,19 +1250,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,37 +1292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,31 +1310,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,6 +1482,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1448,6 +1504,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1481,69 +1579,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1552,16 +1597,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1570,115 +1615,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2172,14 +2217,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomRight" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3729,6 +3774,87 @@
       </c>
       <c r="H102" s="19" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="19">
+        <v>13801</v>
+      </c>
+      <c r="B104" s="20">
+        <v>38</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D104" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="F104" s="24"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="19">
+        <v>13802</v>
+      </c>
+      <c r="B105" s="20">
+        <v>38</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" t="s">
+        <v>256</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="19">
+        <v>13803</v>
+      </c>
+      <c r="B106" s="20">
+        <v>38</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D106" t="s">
+        <v>260</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="H106" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="19">
+        <v>13901</v>
+      </c>
+      <c r="B108" s="20">
+        <v>39</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D108" t="s">
+        <v>264</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3755,56 +3881,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3813,10 +3939,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3830,10 +3956,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3847,10 +3973,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3864,10 +3990,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3881,10 +4007,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3894,29 +4020,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3924,29 +4050,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3958,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>285</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>270</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3980,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -4002,10 +4128,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -4024,10 +4150,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="328">
   <si>
     <t>ID</t>
   </si>
@@ -820,6 +820,78 @@
   </si>
   <si>
     <t>UINodeFinder:DeliverPanel,Scroll View/Viewport/Down/DeliverItem(Clone)/GameObject (1)/StateStarting/Btn_</t>
+  </si>
+  <si>
+    <t>伏魔塔系统介绍引导</t>
+  </si>
+  <si>
+    <t>TowerTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_87,StoryPanel_Text_88;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>点击伏魔塔按钮</t>
+  </si>
+  <si>
+    <t>TowerTrigger_ClickTowerBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_89,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,MenuList/VoldemortTowerBtn</t>
+  </si>
+  <si>
+    <t>伏魔塔讲解</t>
+  </si>
+  <si>
+    <t>TowerTrigger_IntroduceTrigger2</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_90,StoryPanel_Text_91;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>伏魔塔点击挑战按钮</t>
+  </si>
+  <si>
+    <t>TowerTrigger_ClickChallengeBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_95,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:TowerPanel,Main/Scroll View/Viewport/Content/TowerLevelItem1/Root_Unlock/Btn_Fight</t>
+  </si>
+  <si>
+    <t>伏魔塔点击一键选择弟子</t>
+  </si>
+  <si>
+    <t>TowerTrigger_ClickAKeyChoiceBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_92,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>伏魔塔 点击开始战斗按钮</t>
+  </si>
+  <si>
+    <t>TowerTrigger_ClickStartFightBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_93,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>伏魔塔_战斗结束_点击商店按钮</t>
+  </si>
+  <si>
+    <t>TowerTrigger_FightFinishedClickShopBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_94,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:TowerPanel,Btn_Shop</t>
   </si>
   <si>
     <t>模块</t>
@@ -946,11 +1018,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -997,7 +1069,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,31 +1077,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,7 +1098,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,14 +1120,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1074,7 +1136,46 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,15 +1189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1105,29 +1199,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,55 +1226,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,49 +1274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,13 +1292,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,13 +1346,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,19 +1388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,13 +1554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,21 +1593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1551,6 +1612,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1565,17 +1641,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1588,7 +1660,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1600,130 +1672,130 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2217,14 +2289,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3855,6 +3927,143 @@
       </c>
       <c r="F108" s="24" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="19">
+        <v>14001</v>
+      </c>
+      <c r="B110" s="20">
+        <v>40</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D110" t="s">
+        <v>268</v>
+      </c>
+      <c r="E110" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="19">
+        <v>14002</v>
+      </c>
+      <c r="B111" s="20">
+        <v>40</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D111" t="s">
+        <v>271</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="19">
+        <v>14003</v>
+      </c>
+      <c r="B112" s="20">
+        <v>40</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" t="s">
+        <v>275</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="19">
+        <v>14004</v>
+      </c>
+      <c r="B113" s="20">
+        <v>40</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D113" t="s">
+        <v>278</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="19">
+        <v>14005</v>
+      </c>
+      <c r="B114" s="20">
+        <v>40</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114" t="s">
+        <v>282</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="19">
+        <v>14006</v>
+      </c>
+      <c r="B115" s="20">
+        <v>40</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D115" t="s">
+        <v>285</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H115" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="19">
+        <v>14101</v>
+      </c>
+      <c r="B116" s="20">
+        <v>41</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D116" t="s">
+        <v>288</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3881,56 +4090,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3939,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3956,10 +4165,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3973,10 +4182,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3990,10 +4199,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -4007,10 +4216,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -4020,29 +4229,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4050,29 +4259,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4084,10 +4293,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -4106,10 +4315,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -4128,10 +4337,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -4150,10 +4359,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="353">
   <si>
     <t>ID</t>
   </si>
@@ -892,6 +892,81 @@
   </si>
   <si>
     <t>UINodeFinder:TowerPanel,Btn_Shop</t>
+  </si>
+  <si>
+    <t>试炼系统介绍引导</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_96;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>点击试炼按钮</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickTrialBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_97,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:MainMenuPanel,MenuList/HeroTrialBtn</t>
+  </si>
+  <si>
+    <t>试炼系统介绍引导2</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_IntroduceTrigger2</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_98;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>试炼系统_点击前往按钮</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickStartBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_99,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:HeroTrialTipPanel,Bg/Btn_Goto</t>
+  </si>
+  <si>
+    <t>试炼系统，选择弟子按钮</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickChoiceDiscipleTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_100,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:HeroTrialPanel,Middle/Btn_SelectCharacter</t>
+  </si>
+  <si>
+    <t>试炼系统，选择弟子</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ChoiceDiscipleBtnTrigger</t>
+  </si>
+  <si>
+    <t>UINodeFinder:ChallengeChooseDisciple,Bottom/Scroll View/Viewport/Cont/ChallengePanelDisciple(Clone)</t>
+  </si>
+  <si>
+    <t>试炼系统，点击进入试炼按钮</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickEnterTrialBtnTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_101,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:ChallengeChooseDisciple,ConfirmBtn</t>
   </si>
   <si>
     <t>模块</t>
@@ -1018,11 +1093,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1069,7 +1144,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,7 +1166,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,7 +1196,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,20 +1220,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,40 +1241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,24 +1258,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,42 +1301,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1274,7 +1313,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,25 +1361,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,91 +1469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,21 +1629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1587,8 +1647,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,15 +1658,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,6 +1694,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1660,7 +1735,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1672,130 +1747,130 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2289,14 +2364,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
+      <selection pane="bottomRight" activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -4064,6 +4139,143 @@
       </c>
       <c r="F116" s="24" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="19">
+        <v>14201</v>
+      </c>
+      <c r="B118" s="20">
+        <v>42</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D118" t="s">
+        <v>292</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="19">
+        <v>14202</v>
+      </c>
+      <c r="B119" s="20">
+        <v>42</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D119" t="s">
+        <v>295</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="19">
+        <v>14203</v>
+      </c>
+      <c r="B120" s="20">
+        <v>42</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D120" t="s">
+        <v>299</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="19">
+        <v>14204</v>
+      </c>
+      <c r="B121" s="20">
+        <v>42</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D121" t="s">
+        <v>302</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="19">
+        <v>14205</v>
+      </c>
+      <c r="B122" s="20">
+        <v>42</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D122" t="s">
+        <v>306</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="19">
+        <v>14206</v>
+      </c>
+      <c r="B123" s="20">
+        <v>42</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="19">
+        <v>14207</v>
+      </c>
+      <c r="B124" s="20">
+        <v>42</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D124" t="s">
+        <v>313</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H124" s="19" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4090,56 +4302,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -4148,10 +4360,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -4165,10 +4377,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -4182,10 +4394,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -4199,10 +4411,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -4216,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -4229,29 +4441,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4259,29 +4471,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4293,10 +4505,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -4315,10 +4527,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -4337,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -4359,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="360">
   <si>
     <t>ID</t>
   </si>
@@ -967,6 +967,27 @@
   </si>
   <si>
     <t>UINodeFinder:ChallengeChooseDisciple,ConfirmBtn</t>
+  </si>
+  <si>
+    <t>试炼系统，点击完成试炼</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickTrialFinishedTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_102,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:HeroTrialPanel,Middle/Btn_Finish</t>
+  </si>
+  <si>
+    <t>试炼系统，弟子突破成功</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_DiscipleUpgradSuccessTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_103;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>模块</t>
@@ -1093,11 +1114,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1136,6 +1157,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -1143,15 +1179,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,17 +1218,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1195,15 +1239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1219,47 +1256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1275,6 +1272,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,25 +1322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,19 +1346,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,7 +1406,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,43 +1472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,55 +1490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,6 +1651,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1653,6 +1689,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1662,17 +1713,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,51 +1747,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1744,133 +1765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2364,14 +2385,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H124" sqref="H124"/>
+      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -4276,6 +4297,43 @@
       </c>
       <c r="H124" s="19" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="19">
+        <v>14301</v>
+      </c>
+      <c r="B126" s="20">
+        <v>43</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D126" t="s">
+        <v>317</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="19">
+        <v>14302</v>
+      </c>
+      <c r="B127" s="20">
+        <v>43</v>
+      </c>
+      <c r="C127" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" t="s">
+        <v>321</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4302,56 +4360,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -4360,10 +4418,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -4377,10 +4435,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -4394,10 +4452,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -4411,10 +4469,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -4428,10 +4486,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -4441,29 +4499,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4471,29 +4529,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4505,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -4527,10 +4585,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -4549,10 +4607,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -4571,10 +4629,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -888,7 +888,7 @@
     <t>TowerTrigger_FightFinishedClickShopBtnTrigger</t>
   </si>
   <si>
-    <t>NormalTipsCommand:StoryPanel_Text_94,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
+    <t>NormalTipsCommand:StoryPanel_Text_94,132|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
     <t>UINodeFinder:TowerPanel,Btn_Shop</t>
@@ -954,7 +954,7 @@
     <t>HeroTrialSystemTrigger_ChoiceDiscipleBtnTrigger</t>
   </si>
   <si>
-    <t>UINodeFinder:ChallengeChooseDisciple,Bottom/Scroll View/Viewport/Cont/ChallengePanelDisciple(Clone)</t>
+    <t>UINodeFinder:HeroTrialChooseDisciplePanel,Bottom/Scroll View/Viewport/Cont/ChallengePanelDisciple(Clone)</t>
   </si>
   <si>
     <t>试炼系统，点击进入试炼按钮</t>
@@ -966,7 +966,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_101,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.3;</t>
   </si>
   <si>
-    <t>UINodeFinder:ChallengeChooseDisciple,ConfirmBtn</t>
+    <t>UINodeFinder:HeroTrialChooseDisciplePanel,ConfirmBtn</t>
   </si>
   <si>
     <t>试炼系统，点击完成试炼</t>
@@ -1114,11 +1114,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1157,8 +1157,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1173,7 +1202,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,23 +1272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,52 +1288,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1271,31 +1295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,7 +1322,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,25 +1448,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,139 +1496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,17 +1650,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1680,11 +1674,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1704,11 +1713,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,40 +1747,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1765,133 +1765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2392,7 +2392,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -576,7 +576,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/UpperMiddle/KungfuTra/KungfuPanelItem(Clone)</t>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/Middle/KungfuTra/KungfuPanelItem(Clone)</t>
   </si>
   <si>
     <t>选择武功秘籍</t>
@@ -627,7 +627,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/RightLowerMiddle/ArmsBg</t>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/EqupiTra/EquipmentItem(Clone)/NotLearnBg</t>
   </si>
   <si>
     <t>选择武器</t>
@@ -1114,10 +1114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1158,7 +1158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,9 +1171,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,6 +1188,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,21 +1242,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1248,17 +1279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,29 +1295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,6 +1322,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1334,7 +1400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,55 +1442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,7 +1460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,85 +1496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,15 +1650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1670,6 +1661,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1698,32 +1730,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1736,27 +1747,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1765,16 +1765,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1783,115 +1783,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2388,11 +2388,11 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -600,7 +600,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/Arrange</t>
+    <t>UINodeFinder:LearnKungfuPanel,Arrange</t>
   </si>
   <si>
     <t>武器引导</t>
@@ -627,7 +627,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/EqupiTra/EquipmentItem(Clone)/NotLearnBg</t>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/EqupiTra/EquipmentItem(Clone)</t>
   </si>
   <si>
     <t>选择武器</t>
@@ -651,7 +651,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/Arrange</t>
+    <t>UINodeFinder:WearableLearningPanel,Arrange</t>
   </si>
   <si>
     <t>挑战系统</t>
@@ -1116,8 +1116,8 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1158,13 +1158,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1178,9 +1171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,6 +1180,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,22 +1209,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,16 +1231,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,14 +1251,6 @@
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1279,8 +1270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,6 +1281,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,7 +1322,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,7 +1406,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,19 +1436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,13 +1466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,115 +1496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,21 +1665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1691,17 +1676,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1730,11 +1709,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,10 +1753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1765,133 +1765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2388,7 +2388,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -892,6 +892,24 @@
   </si>
   <si>
     <t>UINodeFinder:TowerPanel,Btn_Shop</t>
+  </si>
+  <si>
+    <t>伏魔塔挑战成功</t>
+  </si>
+  <si>
+    <t>TowerTrigger_SuccessTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_104,StoryPanel_Text_88;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>伏魔塔挑战失败</t>
+  </si>
+  <si>
+    <t>TowerTrigger_FaildTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_105,StoryPanel_Text_88;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>试炼系统介绍引导</t>
@@ -1114,11 +1132,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1164,8 +1182,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,8 +1242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,36 +1252,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1250,22 +1284,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1279,16 +1297,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,13 +1340,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,79 +1484,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,73 +1514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,15 +1668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1670,6 +1679,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,9 +1715,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1713,21 +1757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1736,27 +1765,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1768,13 +1786,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1783,115 +1801,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2385,14 +2403,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -4162,178 +4180,214 @@
         <v>290</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="117" spans="1:6">
+      <c r="A117" s="19">
+        <v>14401</v>
+      </c>
+      <c r="B117" s="20">
+        <v>44</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="D117" t="s">
+        <v>292</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F117" s="24"/>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="19">
-        <v>14201</v>
+        <v>14501</v>
       </c>
       <c r="B118" s="20">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D118" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="19">
-        <v>14202</v>
-      </c>
-      <c r="B119" s="20">
-        <v>42</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="D119" t="s">
-        <v>295</v>
-      </c>
-      <c r="E119" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="F119" s="24" t="s">
-        <v>297</v>
-      </c>
+      <c r="F118" s="24"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="19">
-        <v>14203</v>
+        <v>14201</v>
       </c>
       <c r="B120" s="20">
         <v>42</v>
       </c>
       <c r="C120" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D120" t="s">
         <v>298</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" s="21" t="s">
         <v>299</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="19">
-        <v>14204</v>
+        <v>14202</v>
       </c>
       <c r="B121" s="20">
         <v>42</v>
       </c>
       <c r="C121" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D121" t="s">
         <v>301</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="F121" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="F121" s="24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="19">
-        <v>14205</v>
+        <v>14203</v>
       </c>
       <c r="B122" s="20">
         <v>42</v>
       </c>
       <c r="C122" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D122" t="s">
         <v>305</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" s="21" t="s">
         <v>306</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="F122" s="24" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="19">
-        <v>14206</v>
+        <v>14204</v>
       </c>
       <c r="B123" s="20">
         <v>42</v>
       </c>
       <c r="C123" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D123" t="s">
+        <v>308</v>
+      </c>
+      <c r="E123" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="E123" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="F123" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="19">
-        <v>14207</v>
+        <v>14205</v>
       </c>
       <c r="B124" s="20">
         <v>42</v>
       </c>
       <c r="C124" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" t="s">
         <v>312</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="F124" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="F124" s="24" t="s">
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="19">
+        <v>14206</v>
+      </c>
+      <c r="B125" s="20">
+        <v>42</v>
+      </c>
+      <c r="C125" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="H124" s="19" t="b">
+      <c r="D125" t="s">
+        <v>316</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="19">
+        <v>14207</v>
+      </c>
+      <c r="B126" s="20">
+        <v>42</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" t="s">
+        <v>319</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="H126" s="19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="19">
+    <row r="128" spans="1:6">
+      <c r="A128" s="19">
         <v>14301</v>
       </c>
-      <c r="B126" s="20">
+      <c r="B128" s="20">
         <v>43</v>
       </c>
-      <c r="C126" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="D126" t="s">
-        <v>317</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="F126" s="24" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="19">
+      <c r="C128" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="D128" t="s">
+        <v>323</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="19">
         <v>14302</v>
       </c>
-      <c r="B127" s="20">
+      <c r="B129" s="20">
         <v>43</v>
       </c>
-      <c r="C127" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="D127" t="s">
-        <v>321</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>322</v>
+      <c r="C129" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D129" t="s">
+        <v>327</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4360,56 +4414,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -4418,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -4435,10 +4489,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -4452,10 +4506,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -4469,10 +4523,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -4486,10 +4540,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -4499,29 +4553,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4529,29 +4583,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4563,10 +4617,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -4585,10 +4639,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -4607,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -4629,10 +4683,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="29080" windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/UpperMiddle/KungfuTra/KungfuPanelItem(Clone)</t>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/Middle/KungfuTra/KungfuPanelItem(Clone)</t>
   </si>
   <si>
     <t>选择武功秘籍</t>
@@ -600,7 +600,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/Arrange</t>
+    <t>UINodeFinder:LearnKungfuPanel,Arrange</t>
   </si>
   <si>
     <t>武器引导</t>
@@ -627,7 +627,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_67,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/RightLowerMiddle/ArmsBg</t>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/EqupiTra/EquipmentItem(Clone)</t>
   </si>
   <si>
     <t>选择武器</t>
@@ -651,7 +651,7 @@
     <t>NormalTipsCommand:StoryPanel_Text_66,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
-    <t>UINodeFinder:WearableLearningPanel,Bg/Scroll View/Viewport/Arrange</t>
+    <t>UINodeFinder:WearableLearningPanel,Arrange</t>
   </si>
   <si>
     <t>挑战系统</t>
@@ -1132,11 +1132,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1175,6 +1175,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -1182,11 +1206,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1199,28 +1251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1242,27 +1273,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,7 +1306,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1292,28 +1314,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,7 +1340,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,7 +1382,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,49 +1478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,103 +1508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,6 +1668,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1679,21 +1723,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1715,17 +1744,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1733,35 +1751,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1771,10 +1771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1783,133 +1783,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2406,11 +2406,11 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="16920"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="367">
   <si>
     <t>ID</t>
   </si>
@@ -564,58 +564,61 @@
     <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
   </si>
   <si>
+    <t>UINodeFinder:DisciplePanel,Scroll View/Viewport/DiscipleTra/DiscipleList/DiscipleItemBtn</t>
+  </si>
+  <si>
+    <t>武功秘籍学习</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/Middle/KungfuTra/KungfuPanelItem(Clone)</t>
+  </si>
+  <si>
+    <t>选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
+  </si>
+  <si>
+    <t>确定选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LearnKungfuPanel,Arrange</t>
+  </si>
+  <si>
+    <t>武器引导</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_47;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ClickOpenDisciplePanelTrigger</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ChoiceTargetDiscipleTrigger</t>
+  </si>
+  <si>
     <t>UINodeFinder:DisciplePanel,Bg/Right/Scroll View/Viewport/DiscipleList/Disciple(Clone)</t>
-  </si>
-  <si>
-    <t>武功秘籍学习</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/Middle/KungfuTra/KungfuPanelItem(Clone)</t>
-  </si>
-  <si>
-    <t>选择武功秘籍</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ChoiceKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
-  </si>
-  <si>
-    <t>确定选择武功秘籍</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:LearnKungfuPanel,Arrange</t>
-  </si>
-  <si>
-    <t>武器引导</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_47;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ClickOpenDisciplePanelTrigger</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ChoiceTargetDiscipleTrigger</t>
   </si>
   <si>
     <t>点击武器槽</t>
@@ -1132,9 +1135,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1175,9 +1178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,24 +1192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,45 +1207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,26 +1221,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1312,8 +1245,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,7 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1361,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,7 +1379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1397,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,49 +1481,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,67 +1511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,50 +1671,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1723,6 +1682,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1742,15 +1710,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1765,16 +1724,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1783,7 +1786,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1792,124 +1795,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2406,11 +2409,11 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3675,7 +3678,7 @@
         <v>180</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:6">
@@ -3686,16 +3689,16 @@
         <v>28</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:6">
@@ -3706,16 +3709,16 @@
         <v>28</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:8">
@@ -3726,16 +3729,16 @@
         <v>28</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -3749,13 +3752,13 @@
         <v>29</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3766,16 +3769,16 @@
         <v>29</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3786,16 +3789,16 @@
         <v>29</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3806,16 +3809,16 @@
         <v>29</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3826,16 +3829,16 @@
         <v>29</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3846,16 +3849,16 @@
         <v>29</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3866,16 +3869,16 @@
         <v>29</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -3889,13 +3892,13 @@
         <v>31</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F98" s="24"/>
     </row>
@@ -3907,16 +3910,16 @@
         <v>31</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H99" s="19" t="b">
         <v>1</v>
@@ -3930,13 +3933,13 @@
         <v>32</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3947,16 +3950,16 @@
         <v>32</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H102" s="19" t="b">
         <v>1</v>
@@ -3970,13 +3973,13 @@
         <v>38</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D104" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F104" s="24"/>
     </row>
@@ -3988,16 +3991,16 @@
         <v>38</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4008,16 +4011,16 @@
         <v>38</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H106" s="19" t="b">
         <v>1</v>
@@ -4031,16 +4034,16 @@
         <v>39</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D108" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4051,13 +4054,13 @@
         <v>40</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4068,16 +4071,16 @@
         <v>40</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4088,13 +4091,13 @@
         <v>40</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4105,16 +4108,16 @@
         <v>40</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D113" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4125,16 +4128,16 @@
         <v>40</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D114" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4145,16 +4148,16 @@
         <v>40</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D115" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H115" s="19" t="b">
         <v>1</v>
@@ -4168,16 +4171,16 @@
         <v>41</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D116" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4188,13 +4191,13 @@
         <v>44</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D117" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F117" s="24"/>
     </row>
@@ -4206,13 +4209,13 @@
         <v>45</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D118" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F118" s="24"/>
     </row>
@@ -4224,13 +4227,13 @@
         <v>42</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D120" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4241,16 +4244,16 @@
         <v>42</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D121" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4261,13 +4264,13 @@
         <v>42</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D122" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4278,16 +4281,16 @@
         <v>42</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D123" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4298,16 +4301,16 @@
         <v>42</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D124" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4318,16 +4321,16 @@
         <v>42</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D125" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4338,16 +4341,16 @@
         <v>42</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D126" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H126" s="19" t="b">
         <v>1</v>
@@ -4361,16 +4364,16 @@
         <v>43</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4381,13 +4384,13 @@
         <v>43</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D129" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4414,56 +4417,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -4472,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -4489,10 +4492,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -4506,10 +4509,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -4523,10 +4526,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -4540,10 +4543,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -4553,29 +4556,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4583,29 +4586,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4617,10 +4620,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -4639,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -4661,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -4683,10 +4686,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="368">
   <si>
     <t>ID</t>
   </si>
@@ -561,61 +561,64 @@
     <t>KungFuTrigger_ChoiceTargetDiscipleTrigger</t>
   </si>
   <si>
+    <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1,false,true;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DisciplePanel,Scroll View/Viewport/DiscipleTra/DiscipleList/DiscipleItemBtn</t>
+  </si>
+  <si>
+    <t>武功秘籍学习</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:DicipleDetailsPanel,Bg/Middle/KungfuTra/KungfuPanelItem(Clone)</t>
+  </si>
+  <si>
+    <t>选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
+  </si>
+  <si>
+    <t>确定选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
+  </si>
+  <si>
+    <t>UINodeFinder:LearnKungfuPanel,Arrange</t>
+  </si>
+  <si>
+    <t>武器引导</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>DialogCommand:StoryPanel_Text_47;MyDelayCommand:0.2;</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ClickOpenDisciplePanelTrigger</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ChoiceTargetDiscipleTrigger</t>
+  </si>
+  <si>
     <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DisciplePanel,Scroll View/Viewport/DiscipleTra/DiscipleList/DiscipleItemBtn</t>
-  </si>
-  <si>
-    <t>武功秘籍学习</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_62,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DicipleDetailsPanel,Bg/Middle/KungfuTra/KungfuPanelItem(Clone)</t>
-  </si>
-  <si>
-    <t>选择武功秘籍</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ChoiceKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_64,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:LearnKungfuPanel,Bg/Image/Scroll View/Viewport/KungfuLearningList/LearnKungfuItem(Clone)</t>
-  </si>
-  <si>
-    <t>确定选择武功秘籍</t>
-  </si>
-  <si>
-    <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
-  </si>
-  <si>
-    <t>NormalTipsCommand:StoryPanel_Text_63,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:LearnKungfuPanel,Arrange</t>
-  </si>
-  <si>
-    <t>武器引导</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>DialogCommand:StoryPanel_Text_47;MyDelayCommand:0.2;</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ClickOpenDisciplePanelTrigger</t>
-  </si>
-  <si>
-    <t>ArmsTrigger_ChoiceTargetDiscipleTrigger</t>
   </si>
   <si>
     <t>UINodeFinder:DisciplePanel,Bg/Right/Scroll View/Viewport/DiscipleList/Disciple(Clone)</t>
@@ -1135,11 +1138,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1179,7 +1182,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,14 +1204,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,6 +1235,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,50 +1264,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1285,18 +1288,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1307,8 +1302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1317,6 +1313,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,7 +1346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,13 +1370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,19 +1388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,73 +1424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,13 +1454,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,25 +1502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,6 +1675,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1682,15 +1715,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1710,17 +1734,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1730,21 +1748,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1774,145 +1777,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2409,11 +2412,11 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3675,10 +3678,10 @@
         <v>198</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:6">
@@ -3689,16 +3692,16 @@
         <v>28</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:6">
@@ -3709,16 +3712,16 @@
         <v>28</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:8">
@@ -3729,16 +3732,16 @@
         <v>28</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -3752,13 +3755,13 @@
         <v>29</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3769,16 +3772,16 @@
         <v>29</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3789,16 +3792,16 @@
         <v>29</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3809,16 +3812,16 @@
         <v>29</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3829,16 +3832,16 @@
         <v>29</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3849,16 +3852,16 @@
         <v>29</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3869,16 +3872,16 @@
         <v>29</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -3892,13 +3895,13 @@
         <v>31</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F98" s="24"/>
     </row>
@@ -3910,16 +3913,16 @@
         <v>31</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H99" s="19" t="b">
         <v>1</v>
@@ -3933,13 +3936,13 @@
         <v>32</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3950,16 +3953,16 @@
         <v>32</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H102" s="19" t="b">
         <v>1</v>
@@ -3973,13 +3976,13 @@
         <v>38</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D104" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F104" s="24"/>
     </row>
@@ -3991,16 +3994,16 @@
         <v>38</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4011,16 +4014,16 @@
         <v>38</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D106" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H106" s="19" t="b">
         <v>1</v>
@@ -4034,16 +4037,16 @@
         <v>39</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D108" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4054,13 +4057,13 @@
         <v>40</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D110" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4071,16 +4074,16 @@
         <v>40</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4091,13 +4094,13 @@
         <v>40</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4108,16 +4111,16 @@
         <v>40</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D113" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4128,16 +4131,16 @@
         <v>40</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D114" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4148,16 +4151,16 @@
         <v>40</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D115" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H115" s="19" t="b">
         <v>1</v>
@@ -4171,16 +4174,16 @@
         <v>41</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4191,13 +4194,13 @@
         <v>44</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D117" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F117" s="24"/>
     </row>
@@ -4209,13 +4212,13 @@
         <v>45</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F118" s="24"/>
     </row>
@@ -4227,13 +4230,13 @@
         <v>42</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4244,16 +4247,16 @@
         <v>42</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D121" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4264,13 +4267,13 @@
         <v>42</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D122" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4281,16 +4284,16 @@
         <v>42</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D123" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4301,16 +4304,16 @@
         <v>42</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D124" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4321,16 +4324,16 @@
         <v>42</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D125" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4341,16 +4344,16 @@
         <v>42</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H126" s="19" t="b">
         <v>1</v>
@@ -4364,16 +4367,16 @@
         <v>43</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D128" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4384,13 +4387,13 @@
         <v>43</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D129" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4417,56 +4420,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -4475,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -4492,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -4509,10 +4512,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -4526,10 +4529,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -4543,10 +4546,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -4556,29 +4559,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4586,29 +4589,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -4620,10 +4623,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -4642,10 +4645,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -4664,10 +4667,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -4686,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -906,7 +906,7 @@
     <t>TowerTrigger_SuccessTrigger</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_104,StoryPanel_Text_88;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_104;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>伏魔塔挑战失败</t>
@@ -915,7 +915,7 @@
     <t>TowerTrigger_FaildTrigger</t>
   </si>
   <si>
-    <t>DialogCommand:StoryPanel_Text_105,StoryPanel_Text_88;MyDelayCommand:0.2;</t>
+    <t>DialogCommand:StoryPanel_Text_105;MyDelayCommand:0.2;</t>
   </si>
   <si>
     <t>试炼系统介绍引导</t>
@@ -2412,11 +2412,11 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Tables/Sources/guide/guide_step.xlsx
+++ b/Tables/Sources/guide/guide_step.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="367">
   <si>
     <t>ID</t>
   </si>
@@ -619,9 +619,6 @@
   </si>
   <si>
     <t>NormalTipsCommand:StoryPanel_Text_61,38|-8;GuideButtonCommand:#0,1;MyDelayCommand:0.4;</t>
-  </si>
-  <si>
-    <t>UINodeFinder:DisciplePanel,Bg/Right/Scroll View/Viewport/DiscipleList/Disciple(Clone)</t>
   </si>
   <si>
     <t>点击武器槽</t>
@@ -1138,11 +1135,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1182,7 +1179,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,22 +1287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,92 +1309,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1346,7 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,13 +1355,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1445,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,31 +1493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,85 +1505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-       